--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,50 +572,35 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>result_type</t>
+          <t>outcome_final</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>outcome_final</t>
+          <t>FOW_pct</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>outcome_rt</t>
+          <t>HITS_pct</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>FOW_pct</t>
+          <t>PP_eff</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>HITS_pct</t>
+          <t>PP_eff_by_minutes</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>PP_eff</t>
+          <t>PK_eff_by_minutes</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>PP_eff_by_minutes</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>PK_eff_by_minutes</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>PP_attempts</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>SH_pct</t>
         </is>
@@ -629,196 +614,183 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897715</v>
+        <v>897718</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897715.html</t>
+          <t>https://text.khl.ru/text/897718.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K2" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
         <v>22</v>
       </c>
-      <c r="Q2" t="n">
-        <v>24</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21</v>
-      </c>
-      <c r="S2" t="n">
-        <v>20</v>
-      </c>
       <c r="T2" t="n">
+        <v>27</v>
+      </c>
+      <c r="U2" t="n">
         <v>16</v>
       </c>
-      <c r="U2" t="n">
-        <v>11</v>
-      </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+      <c r="AC2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>62.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>47.8</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>59.3</v>
+        <v>0.33</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897708</v>
+        <v>897707</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897708.html</t>
+          <t>https://text.khl.ru/text/897707.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
+        <v>37</v>
+      </c>
+      <c r="K3" t="n">
+        <v>67</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>26</v>
+      </c>
+      <c r="R3" t="n">
         <v>22</v>
       </c>
-      <c r="K3" t="n">
-        <v>36</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>28</v>
       </c>
-      <c r="Q3" t="n">
-        <v>28</v>
-      </c>
-      <c r="R3" t="n">
-        <v>28</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6</v>
-      </c>
       <c r="T3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="V3" t="n">
         <v>3</v>
@@ -827,179 +799,153 @@
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+      <c r="AC3" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>58.1</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>0.25</v>
       </c>
       <c r="AF3" t="n">
-        <v>93.3</v>
+        <v>0.25</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897701</v>
+        <v>897696</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897701.html</t>
+          <t>https://text.khl.ru/text/897696.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
         <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
         <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="n">
+        <v>18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>16</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
         <v>20</v>
       </c>
-      <c r="R4" t="n">
-        <v>7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>20</v>
-      </c>
-      <c r="U4" t="n">
-        <v>29</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>33</v>
-      </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>51.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>59.2</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>40.8</v>
+        <v>0.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>22.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -1010,274 +956,248 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897680</v>
+        <v>897681</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897680.html</t>
+          <t>https://text.khl.ru/text/897681.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13</v>
+      </c>
+      <c r="T5" t="n">
+        <v>27</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y5" t="n">
         <v>33</v>
       </c>
-      <c r="K5" t="n">
-        <v>51</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14</v>
-      </c>
-      <c r="P5" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>27</v>
-      </c>
-      <c r="R5" t="n">
-        <v>22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>24</v>
-      </c>
-      <c r="U5" t="n">
-        <v>28</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>6</v>
       </c>
-      <c r="X5" t="n">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
-      </c>
       <c r="AA5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>90</v>
       </c>
       <c r="AE5" t="n">
-        <v>56.5</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>46.2</v>
+        <v>0.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>27.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>19-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897669</v>
+        <v>897666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897669.html</t>
+          <t>https://text.khl.ru/text/897666.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
       <c r="I6" t="n">
+        <v>33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>58</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>23</v>
+      </c>
+      <c r="T6" t="n">
         <v>22</v>
       </c>
-      <c r="J6" t="n">
-        <v>31</v>
-      </c>
-      <c r="K6" t="n">
-        <v>53</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>26</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
         <v>4</v>
       </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>27</v>
-      </c>
-      <c r="R6" t="n">
-        <v>21</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" t="n">
-        <v>14</v>
-      </c>
-      <c r="U6" t="n">
-        <v>17</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>45.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>43.8</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>45.2</v>
+        <v>0.33</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897664</v>
+        <v>897722</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897664.html</t>
+          <t>https://text.khl.ru/text/897722.html</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1290,605 +1210,540 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>8</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AC7" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>37.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>43.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897704</v>
+        <v>897713</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897704.html</t>
+          <t>https://text.khl.ru/text/897713.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" t="n">
-        <v>27</v>
-      </c>
-      <c r="K8" t="n">
-        <v>67</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O8" t="n">
+        <v>21</v>
+      </c>
+      <c r="P8" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>21</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>21</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18</v>
+      </c>
+      <c r="U8" t="n">
+        <v>23</v>
+      </c>
+      <c r="V8" t="n">
         <v>10</v>
       </c>
-      <c r="P8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>32</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="W8" t="n">
+        <v>12</v>
+      </c>
+      <c r="X8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="n">
         <v>9</v>
       </c>
-      <c r="S8" t="n">
-        <v>15</v>
-      </c>
-      <c r="T8" t="n">
-        <v>9</v>
-      </c>
-      <c r="U8" t="n">
-        <v>21</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AA8" t="n">
         <v>5</v>
       </c>
-      <c r="X8" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4</v>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>43.9</v>
       </c>
       <c r="AE8" t="n">
-        <v>44.8</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897685</v>
+        <v>897705</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897685.html</t>
+          <t>https://text.khl.ru/text/897705.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="n">
         <v>16</v>
       </c>
-      <c r="S9" t="n">
-        <v>15</v>
-      </c>
       <c r="T9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="V9" t="n">
         <v>7</v>
       </c>
       <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA9" t="n">
         <v>4</v>
       </c>
-      <c r="X9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7</v>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>34.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>20</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897676</v>
+        <v>897697</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897676.html</t>
+          <t>https://text.khl.ru/text/897697.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="S10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AC10" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>46.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>55.1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>45.9</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>13</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-10-2025</t>
+          <t>25-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897714</v>
+        <v>897690</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897714.html</t>
+          <t>https://text.khl.ru/text/897690.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S11" t="n">
         <v>16</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC11" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>32.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>39.3</v>
+        <v>0.33</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>0.33</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>3.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="12">
@@ -1899,274 +1754,248 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897719</v>
+        <v>897722</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897719.html</t>
+          <t>https://text.khl.ru/text/897722.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K12" t="n">
+        <v>51</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
         <v>33</v>
       </c>
-      <c r="J12" t="n">
-        <v>39</v>
-      </c>
-      <c r="K12" t="n">
-        <v>72</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
+        <v>29</v>
+      </c>
+      <c r="R12" t="n">
+        <v>18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6</v>
+      </c>
+      <c r="V12" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>24</v>
-      </c>
-      <c r="R12" t="n">
-        <v>16</v>
-      </c>
-      <c r="S12" t="n">
-        <v>17</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
         <v>21</v>
       </c>
-      <c r="U12" t="n">
-        <v>22</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>10</v>
       </c>
-      <c r="Y12" t="n">
-        <v>18</v>
-      </c>
       <c r="Z12" t="n">
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>62.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>55.6</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>48.8</v>
+        <v>0.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>9.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897711</v>
+        <v>897709</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897711.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>53</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9</v>
+      </c>
+      <c r="S13" t="n">
         <v>20</v>
       </c>
-      <c r="J13" t="n">
-        <v>25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>45</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>8</v>
-      </c>
-      <c r="P13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>22</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
+        <v>17</v>
+      </c>
+      <c r="U13" t="n">
+        <v>14</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
         <v>15</v>
       </c>
-      <c r="S13" t="n">
-        <v>14</v>
-      </c>
-      <c r="T13" t="n">
-        <v>16</v>
-      </c>
-      <c r="U13" t="n">
-        <v>17</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>27</v>
-      </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC13" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>54.8</v>
       </c>
       <c r="AE13" t="n">
-        <v>48.8</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>48.5</v>
+        <v>0.17</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897704</v>
+        <v>897703</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897704.html</t>
+          <t>https://text.khl.ru/text/897703.html</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2176,13 +2005,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K14" t="n">
         <v>67</v>
@@ -2191,367 +2020,328 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>9</v>
+      </c>
+      <c r="S14" t="n">
         <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>26</v>
-      </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9</v>
       </c>
       <c r="T14" t="n">
         <v>21</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC14" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>87.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>55.2</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897688</v>
+        <v>897691</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897688.html</t>
+          <t>https://text.khl.ru/text/897691.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>31</v>
+      </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" t="n">
         <v>4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>28</v>
-      </c>
-      <c r="R15" t="n">
-        <v>16</v>
-      </c>
-      <c r="S15" t="n">
-        <v>21</v>
-      </c>
-      <c r="T15" t="n">
-        <v>18</v>
-      </c>
-      <c r="U15" t="n">
-        <v>24</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC15" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>67.59999999999999</v>
       </c>
       <c r="AE15" t="n">
-        <v>52.5</v>
+        <v>0.33</v>
       </c>
       <c r="AF15" t="n">
-        <v>42.9</v>
+        <v>0.33</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897679</v>
+        <v>897687</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897679.html</t>
+          <t>https://text.khl.ru/text/897687.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K16" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U16" t="n">
         <v>9</v>
       </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AC16" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>60.9</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>9.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897723</v>
+        <v>897727</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897723.html</t>
+          <t>https://text.khl.ru/text/897727.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -2560,1268 +2350,1135 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q17" t="n">
         <v>32</v>
       </c>
       <c r="R17" t="n">
+        <v>13</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
         <v>5</v>
       </c>
-      <c r="S17" t="n">
-        <v>14</v>
-      </c>
-      <c r="T17" t="n">
-        <v>30</v>
-      </c>
-      <c r="U17" t="n">
-        <v>39</v>
-      </c>
-      <c r="V17" t="n">
-        <v>5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>4</v>
-      </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AC17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>42.1</v>
       </c>
       <c r="AE17" t="n">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897699</v>
+        <v>897712</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897699.html</t>
+          <t>https://text.khl.ru/text/897712.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>61</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>40</v>
+      </c>
+      <c r="R18" t="n">
+        <v>24</v>
+      </c>
+      <c r="S18" t="n">
         <v>20</v>
       </c>
-      <c r="J18" t="n">
-        <v>26</v>
-      </c>
-      <c r="K18" t="n">
-        <v>46</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
+        <v>24</v>
+      </c>
+      <c r="U18" t="n">
+        <v>22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
         <v>29</v>
       </c>
-      <c r="R18" t="n">
-        <v>19</v>
-      </c>
-      <c r="S18" t="n">
-        <v>15</v>
-      </c>
-      <c r="T18" t="n">
-        <v>16</v>
-      </c>
-      <c r="U18" t="n">
-        <v>11</v>
-      </c>
-      <c r="V18" t="n">
-        <v>5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>25</v>
-      </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>52.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>53.2</v>
+        <v>0.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>59.3</v>
+        <v>0.25</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897694</v>
+        <v>897707</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897694.html</t>
+          <t>https://text.khl.ru/text/897707.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>37</v>
+      </c>
+      <c r="J19" t="n">
+        <v>30</v>
+      </c>
+      <c r="K19" t="n">
+        <v>67</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>31</v>
+      </c>
+      <c r="R19" t="n">
+        <v>28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>22</v>
+      </c>
+      <c r="T19" t="n">
+        <v>18</v>
+      </c>
+      <c r="U19" t="n">
+        <v>25</v>
+      </c>
+      <c r="V19" t="n">
         <v>5</v>
       </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>42</v>
-      </c>
-      <c r="J19" t="n">
-        <v>34</v>
-      </c>
-      <c r="K19" t="n">
-        <v>76</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>37</v>
-      </c>
-      <c r="R19" t="n">
-        <v>14</v>
-      </c>
-      <c r="S19" t="n">
-        <v>21</v>
-      </c>
-      <c r="T19" t="n">
-        <v>10</v>
-      </c>
-      <c r="U19" t="n">
-        <v>23</v>
-      </c>
-      <c r="V19" t="n">
-        <v>6</v>
-      </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
         <v>32</v>
       </c>
       <c r="Z19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA19" t="n">
         <v>2</v>
       </c>
-      <c r="AA19" t="n">
-        <v>3</v>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>41.9</v>
       </c>
       <c r="AE19" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>11.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897680</v>
+        <v>897695</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897680.html</t>
+          <t>https://text.khl.ru/text/897695.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>32</v>
+      </c>
+      <c r="J20" t="n">
+        <v>34</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>31</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" t="n">
+        <v>27</v>
+      </c>
+      <c r="T20" t="n">
+        <v>34</v>
+      </c>
+      <c r="U20" t="n">
+        <v>19</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" t="n">
         <v>5</v>
       </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>51</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>14</v>
-      </c>
-      <c r="O20" t="n">
-        <v>14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>22</v>
-      </c>
-      <c r="T20" t="n">
-        <v>28</v>
-      </c>
-      <c r="U20" t="n">
-        <v>24</v>
-      </c>
-      <c r="V20" t="n">
-        <v>6</v>
-      </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>4</v>
       </c>
-      <c r="X20" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3</v>
-      </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AC20" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>64.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897673</v>
+        <v>897687</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897673.html</t>
+          <t>https://text.khl.ru/text/897687.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>32</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
         <v>6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="P21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>9</v>
+      </c>
+      <c r="U21" t="n">
+        <v>14</v>
+      </c>
+      <c r="V21" t="n">
         <v>6</v>
       </c>
-      <c r="I21" t="n">
-        <v>41</v>
-      </c>
-      <c r="J21" t="n">
-        <v>28</v>
-      </c>
-      <c r="K21" t="n">
-        <v>69</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>29</v>
-      </c>
-      <c r="R21" t="n">
-        <v>10</v>
-      </c>
-      <c r="S21" t="n">
-        <v>21</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
         <v>13</v>
       </c>
-      <c r="U21" t="n">
-        <v>18</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6</v>
-      </c>
-      <c r="X21" t="n">
-        <v>37</v>
-      </c>
       <c r="Y21" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>39.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>14.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897720</v>
+        <v>897725</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897720.html</t>
+          <t>https://text.khl.ru/text/897725.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J22" t="n">
         <v>24</v>
       </c>
       <c r="K22" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P22" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="T22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U22" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
         <v>9</v>
       </c>
-      <c r="W22" t="n">
-        <v>8</v>
-      </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC22" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>32.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>53.8</v>
+        <v>0.4</v>
       </c>
       <c r="AF22" t="n">
-        <v>33.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>8.300000000000001</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897710</v>
+        <v>897706</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897710.html</t>
+          <t>https://text.khl.ru/text/897706.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J23" t="n">
         <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
         <v>19</v>
       </c>
       <c r="T23" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="U23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z23" t="n">
         <v>9</v>
       </c>
-      <c r="Z23" t="n">
-        <v>22</v>
-      </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>37.9</v>
       </c>
       <c r="AE23" t="n">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>65.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897692</v>
+        <v>897696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897692.html</t>
+          <t>https://text.khl.ru/text/897696.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="K24" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15</v>
+      </c>
+      <c r="S24" t="n">
         <v>6</v>
       </c>
-      <c r="O24" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>28</v>
-      </c>
-      <c r="R24" t="n">
-        <v>17</v>
-      </c>
-      <c r="S24" t="n">
-        <v>7</v>
-      </c>
       <c r="T24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U24" t="n">
         <v>17</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W24" t="n">
+        <v>4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA24" t="n">
         <v>5</v>
       </c>
-      <c r="X24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>18</v>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>48.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>0.29</v>
       </c>
       <c r="AF24" t="n">
-        <v>43.3</v>
+        <v>0.29</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>25.9</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24-10-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897684</v>
+        <v>897683</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897684.html</t>
+          <t>https://text.khl.ru/text/897683.html</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>41</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>64</v>
+      </c>
+      <c r="L25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12</v>
+      </c>
+      <c r="P25" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>36</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>26</v>
+      </c>
+      <c r="T25" t="n">
+        <v>17</v>
+      </c>
+      <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="AE25" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22</v>
-      </c>
-      <c r="K25" t="n">
-        <v>72</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>8</v>
-      </c>
-      <c r="P25" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>27</v>
-      </c>
-      <c r="R25" t="n">
-        <v>9</v>
-      </c>
-      <c r="S25" t="n">
-        <v>24</v>
-      </c>
-      <c r="T25" t="n">
-        <v>13</v>
-      </c>
-      <c r="U25" t="n">
-        <v>16</v>
-      </c>
-      <c r="V25" t="n">
-        <v>5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>10</v>
-      </c>
-      <c r="X25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE25" t="n">
-        <v>54.2</v>
-      </c>
       <c r="AF25" t="n">
-        <v>44.8</v>
+        <v>0.33</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>21-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897677</v>
+        <v>897671</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897677.html</t>
+          <t>https://text.khl.ru/text/897671.html</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
+        <v>55</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
         <v>30</v>
       </c>
-      <c r="K26" t="n">
-        <v>66</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="Q26" t="n">
+        <v>19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>17</v>
+      </c>
+      <c r="S26" t="n">
+        <v>12</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>22</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9</v>
       </c>
-      <c r="O26" t="n">
-        <v>8</v>
-      </c>
-      <c r="P26" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>15</v>
-      </c>
-      <c r="S26" t="n">
-        <v>16</v>
-      </c>
-      <c r="T26" t="n">
-        <v>24</v>
-      </c>
-      <c r="U26" t="n">
-        <v>37</v>
-      </c>
-      <c r="V26" t="n">
-        <v>3</v>
-      </c>
-      <c r="W26" t="n">
-        <v>4</v>
-      </c>
-      <c r="X26" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>34</v>
-      </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
         <v>2</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC26" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>35.3</v>
       </c>
       <c r="AE26" t="n">
-        <v>56.9</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897723</v>
+        <v>897727</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897723.html</t>
+          <t>https://text.khl.ru/text/897727.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -3830,22 +3487,22 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J27" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K27" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O27" t="n">
         <v>8</v>
@@ -3854,581 +3511,1656 @@
         <v>32</v>
       </c>
       <c r="Q27" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="R27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S27" t="n">
+        <v>13</v>
+      </c>
+      <c r="T27" t="n">
+        <v>11</v>
+      </c>
+      <c r="U27" t="n">
+        <v>8</v>
+      </c>
+      <c r="V27" t="n">
         <v>5</v>
       </c>
-      <c r="T27" t="n">
-        <v>39</v>
-      </c>
-      <c r="U27" t="n">
-        <v>30</v>
-      </c>
-      <c r="V27" t="n">
-        <v>4</v>
-      </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
+      <c r="AC27" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>57.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>45.7</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="n">
-        <v>56.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897698</v>
+        <v>897718</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897698.html</t>
+          <t>https://text.khl.ru/text/897718.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>21</v>
+      </c>
+      <c r="K28" t="n">
+        <v>52</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>20</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>30</v>
+      </c>
+      <c r="R28" t="n">
+        <v>22</v>
+      </c>
+      <c r="S28" t="n">
+        <v>12</v>
+      </c>
+      <c r="T28" t="n">
+        <v>16</v>
+      </c>
+      <c r="U28" t="n">
+        <v>27</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
         <v>8</v>
       </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>41</v>
-      </c>
-      <c r="K28" t="n">
-        <v>59</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="n">
-        <v>5</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="X28" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="n">
         <v>6</v>
       </c>
-      <c r="P28" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>36</v>
-      </c>
-      <c r="R28" t="n">
-        <v>17</v>
-      </c>
-      <c r="S28" t="n">
-        <v>22</v>
-      </c>
-      <c r="T28" t="n">
-        <v>20</v>
-      </c>
-      <c r="U28" t="n">
-        <v>17</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>5</v>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+      <c r="AC28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>37.2</v>
       </c>
       <c r="AE28" t="n">
-        <v>32.1</v>
+        <v>0.1</v>
       </c>
       <c r="AF28" t="n">
-        <v>54.1</v>
+        <v>0.1</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897694</v>
+        <v>897695</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897694.html</t>
+          <t>https://text.khl.ru/text/897695.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>34</v>
       </c>
       <c r="J29" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K29" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>41</v>
+      </c>
+      <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="n">
         <v>10</v>
       </c>
-      <c r="O29" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>31</v>
-      </c>
-      <c r="R29" t="n">
-        <v>21</v>
-      </c>
-      <c r="S29" t="n">
-        <v>14</v>
-      </c>
       <c r="T29" t="n">
+        <v>19</v>
+      </c>
+      <c r="U29" t="n">
+        <v>34</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y29" t="n">
         <v>23</v>
       </c>
-      <c r="U29" t="n">
-        <v>10</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="Z29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA29" t="n">
         <v>4</v>
       </c>
-      <c r="W29" t="n">
-        <v>6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>2</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>RT</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>35.8</v>
       </c>
       <c r="AE29" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>69.7</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24-10-2025</t>
+          <t>25-10-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897685</v>
+        <v>897689</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897685.html</t>
+          <t>https://text.khl.ru/text/897689.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K30" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S30" t="n">
+        <v>20</v>
+      </c>
+      <c r="T30" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" t="n">
+        <v>20</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
         <v>16</v>
       </c>
-      <c r="T30" t="n">
-        <v>36</v>
-      </c>
-      <c r="U30" t="n">
-        <v>11</v>
-      </c>
-      <c r="V30" t="n">
-        <v>4</v>
-      </c>
-      <c r="W30" t="n">
-        <v>7</v>
-      </c>
-      <c r="X30" t="n">
-        <v>37</v>
-      </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="AC30" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>58.3</v>
       </c>
       <c r="AE30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>76.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897677</v>
+        <v>897683</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897677.html</t>
+          <t>https://text.khl.ru/text/897683.html</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
+        <v>23</v>
+      </c>
+      <c r="J31" t="n">
+        <v>41</v>
+      </c>
+      <c r="K31" t="n">
+        <v>64</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12</v>
+      </c>
+      <c r="O31" t="n">
+        <v>16</v>
+      </c>
+      <c r="P31" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>26</v>
+      </c>
+      <c r="R31" t="n">
+        <v>26</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>23</v>
+      </c>
+      <c r="U31" t="n">
+        <v>17</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897721</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897721.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" t="n">
+        <v>37</v>
+      </c>
+      <c r="K32" t="n">
+        <v>53</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>14</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>29</v>
+      </c>
+      <c r="R32" t="n">
+        <v>21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>17</v>
+      </c>
+      <c r="T32" t="n">
+        <v>29</v>
+      </c>
+      <c r="U32" t="n">
+        <v>16</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897713</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897713.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18</v>
+      </c>
+      <c r="J33" t="n">
+        <v>39</v>
+      </c>
+      <c r="K33" t="n">
+        <v>57</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>21</v>
+      </c>
+      <c r="O33" t="n">
+        <v>22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>37</v>
+      </c>
+      <c r="R33" t="n">
+        <v>21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>12</v>
+      </c>
+      <c r="T33" t="n">
+        <v>23</v>
+      </c>
+      <c r="U33" t="n">
+        <v>18</v>
+      </c>
+      <c r="V33" t="n">
+        <v>12</v>
+      </c>
+      <c r="W33" t="n">
+        <v>10</v>
+      </c>
+      <c r="X33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897705</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897705.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>55</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>29</v>
+      </c>
+      <c r="R34" t="n">
+        <v>16</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="n">
+        <v>19</v>
+      </c>
+      <c r="U34" t="n">
+        <v>10</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7</v>
+      </c>
+      <c r="X34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>25-10-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897689</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897689.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>28</v>
+      </c>
+      <c r="J35" t="n">
+        <v>24</v>
+      </c>
+      <c r="K35" t="n">
+        <v>52</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>12</v>
+      </c>
+      <c r="P35" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>24</v>
+      </c>
+      <c r="R35" t="n">
+        <v>20</v>
+      </c>
+      <c r="S35" t="n">
+        <v>14</v>
+      </c>
+      <c r="T35" t="n">
+        <v>20</v>
+      </c>
+      <c r="U35" t="n">
+        <v>28</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897679</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897679.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>45</v>
+      </c>
+      <c r="J36" t="n">
+        <v>22</v>
+      </c>
+      <c r="K36" t="n">
+        <v>67</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>28</v>
+      </c>
+      <c r="R36" t="n">
+        <v>18</v>
+      </c>
+      <c r="S36" t="n">
+        <v>12</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39</v>
+      </c>
+      <c r="J37" t="n">
+        <v>33</v>
+      </c>
+      <c r="K37" t="n">
+        <v>72</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="n">
         <v>30</v>
       </c>
-      <c r="J31" t="n">
+      <c r="R37" t="n">
+        <v>17</v>
+      </c>
+      <c r="S37" t="n">
+        <v>16</v>
+      </c>
+      <c r="T37" t="n">
+        <v>22</v>
+      </c>
+      <c r="U37" t="n">
+        <v>21</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897712</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897712.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>33</v>
+      </c>
+      <c r="J38" t="n">
+        <v>28</v>
+      </c>
+      <c r="K38" t="n">
+        <v>61</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>31</v>
+      </c>
+      <c r="R38" t="n">
+        <v>20</v>
+      </c>
+      <c r="S38" t="n">
+        <v>24</v>
+      </c>
+      <c r="T38" t="n">
+        <v>22</v>
+      </c>
+      <c r="U38" t="n">
+        <v>24</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897702</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897702.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>38</v>
+      </c>
+      <c r="J39" t="n">
+        <v>25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>63</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
         <v>36</v>
       </c>
-      <c r="K31" t="n">
-        <v>66</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="Q39" t="n">
+        <v>27</v>
+      </c>
+      <c r="R39" t="n">
+        <v>14</v>
+      </c>
+      <c r="S39" t="n">
+        <v>28</v>
+      </c>
+      <c r="T39" t="n">
+        <v>19</v>
+      </c>
+      <c r="U39" t="n">
+        <v>19</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4</v>
+      </c>
+      <c r="X39" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>25-10-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897688</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897688.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39</v>
+      </c>
+      <c r="J40" t="n">
+        <v>40</v>
+      </c>
+      <c r="K40" t="n">
+        <v>79</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>31</v>
+      </c>
+      <c r="R40" t="n">
+        <v>21</v>
+      </c>
+      <c r="S40" t="n">
+        <v>16</v>
+      </c>
+      <c r="T40" t="n">
+        <v>24</v>
+      </c>
+      <c r="U40" t="n">
+        <v>18</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
         <v>8</v>
       </c>
-      <c r="O31" t="n">
-        <v>9</v>
-      </c>
-      <c r="P31" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>33</v>
-      </c>
-      <c r="R31" t="n">
-        <v>16</v>
-      </c>
-      <c r="S31" t="n">
-        <v>15</v>
-      </c>
-      <c r="T31" t="n">
-        <v>37</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897682</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897682.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>28</v>
+      </c>
+      <c r="J41" t="n">
+        <v>28</v>
+      </c>
+      <c r="K41" t="n">
+        <v>56</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>26</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>35</v>
+      </c>
+      <c r="R41" t="n">
+        <v>19</v>
+      </c>
+      <c r="S41" t="n">
+        <v>19</v>
+      </c>
+      <c r="T41" t="n">
         <v>24</v>
       </c>
-      <c r="V31" t="n">
-        <v>4</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3</v>
-      </c>
-      <c r="X31" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="U41" t="n">
+        <v>17</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA41" t="n">
         <v>2</v>
       </c>
-      <c r="AA31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE31" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>3.3</v>
+      <c r="AC41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>10.7</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +5174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4595,529 +5327,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>27.6</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>32.3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>26.6</v>
+        <v>29.6</v>
       </c>
       <c r="K2" t="n">
-        <v>35.3</v>
+        <v>21.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>-2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>20.4</v>
+        <v>23.6</v>
       </c>
       <c r="N2" t="n">
         <v>-0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>51.46</v>
+        <v>59.94</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.15</v>
+        <v>0.2199999999999996</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.058</v>
+        <v>0.332</v>
       </c>
       <c r="R2" t="n">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9</v>
+        <v>0.8719999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="U2" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="W2" t="n">
-        <v>16.4</v>
+        <v>11.6</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.6</v>
+        <v>-1.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.03999999999999986</v>
+        <v>-0.05000000000000018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>53.7</v>
+        <v>24.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.7</v>
+        <v>-0.8</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>25.4</v>
       </c>
       <c r="K3" t="n">
-        <v>17.5</v>
+        <v>73.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
-        <v>45.84</v>
+        <v>52.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8899999999999999</v>
+        <v>-1.089999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.356</v>
+        <v>0.166</v>
       </c>
       <c r="R3" t="n">
-        <v>0.13</v>
+        <v>-0.03399999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="U3" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="W3" t="n">
-        <v>6.8</v>
+        <v>13.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.959999999999999</v>
+        <v>5.26</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F4" t="n">
         <v>-0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>28.4</v>
+        <v>25.8</v>
       </c>
       <c r="H4" t="n">
-        <v>67.3</v>
+        <v>38.7</v>
       </c>
       <c r="I4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55.80000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>52.42</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.04099999999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AA4" t="n">
-        <v>7.62</v>
+        <v>7.82</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.25</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>37.2</v>
+        <v>33.4</v>
       </c>
       <c r="H5" t="n">
-        <v>128.7</v>
+        <v>16.8</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="J5" t="n">
-        <v>27.2</v>
+        <v>32.4</v>
       </c>
       <c r="K5" t="n">
-        <v>35.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M5" t="n">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>51.38</v>
+        <v>50.3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2299999999999997</v>
+        <v>3.379999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.266</v>
+        <v>0.05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006000000000000005</v>
+        <v>-0.025</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.006000000000000005</v>
+        <v>0.19</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.4</v>
+        <v>-0.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.4</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.1</v>
+        <v>7.94</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6199999999999999</v>
+        <v>0.3700000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>108.8</v>
+        <v>49.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>-1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>99.5</v>
+        <v>13.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>13.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>53.21999999999999</v>
+        <v>44.46</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9200000000000003</v>
+        <v>1.670000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.066</v>
+        <v>0.404</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.033</v>
+        <v>0.153</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9560000000000001</v>
+        <v>0.855</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.044</v>
+        <v>0.007999999999999997</v>
       </c>
       <c r="U6" t="n">
-        <v>11.6</v>
+        <v>7.6</v>
       </c>
       <c r="V6" t="n">
-        <v>-2.3</v>
+        <v>-3.8</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.3</v>
+        <v>8.34</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.1</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>36.8</v>
+        <v>26.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8</v>
+        <v>-2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>41.8</v>
+        <v>32</v>
       </c>
       <c r="K7" t="n">
-        <v>26.2</v>
+        <v>63.5</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.9</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>19.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>45.06</v>
+        <v>47.98</v>
       </c>
       <c r="P7" t="n">
-        <v>1.27</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.326</v>
+        <v>0.17</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="S7" t="n">
-        <v>0.654</v>
+        <v>0.834</v>
       </c>
       <c r="T7" t="n">
-        <v>0.067</v>
+        <v>-0.05</v>
       </c>
       <c r="U7" t="n">
         <v>3.6</v>
       </c>
       <c r="V7" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>46.66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.919999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.06500000000000002</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9719999999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-1.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.4</v>
       </c>
-      <c r="W7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>8.739999999999998</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-3.409999999999999</v>
+      <c r="G9" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2400000000000006</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.700000000000001</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.9700000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,10 +605,6845 @@
           <t>SH_pct</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>_order_in_team</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>897716</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897716.html</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23</v>
+      </c>
+      <c r="K2" t="n">
+        <v>64</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>23</v>
+      </c>
+      <c r="T2" t="n">
+        <v>15</v>
+      </c>
+      <c r="U2" t="n">
+        <v>22</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>897706</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897706.html</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>19</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18</v>
+      </c>
+      <c r="U3" t="n">
+        <v>11</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27-10-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>897697</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897697.html</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T4" t="n">
+        <v>16</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25-10-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>897690</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897690.html</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23</v>
+      </c>
+      <c r="R5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>14</v>
+      </c>
+      <c r="T5" t="n">
+        <v>21</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>897675</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897675.html</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>26</v>
+      </c>
+      <c r="R6" t="n">
+        <v>28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>32</v>
+      </c>
+      <c r="U6" t="n">
+        <v>30</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>897726</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897726.html</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>36</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>59</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>19</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>17</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>11</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>897708</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897708.html</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>28</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>897701</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897701.html</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>40</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20</v>
+      </c>
+      <c r="U10" t="n">
+        <v>29</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>897680</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897680.html</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>51</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>22</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>24</v>
+      </c>
+      <c r="U11" t="n">
+        <v>28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26</v>
+      </c>
+      <c r="K12" t="n">
+        <v>49</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>30</v>
+      </c>
+      <c r="R12" t="n">
+        <v>21</v>
+      </c>
+      <c r="S12" t="n">
+        <v>25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>16</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>897709</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897709.html</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>17</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>897698</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897698.html</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>41</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="n">
+        <v>59</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>897686</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897686.html</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22</v>
+      </c>
+      <c r="K15" t="n">
+        <v>66</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>20</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>19</v>
+      </c>
+      <c r="T15" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" t="n">
+        <v>18</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>63</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>897678</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897678.html</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26</v>
+      </c>
+      <c r="J16" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>51</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20</v>
+      </c>
+      <c r="S16" t="n">
+        <v>19</v>
+      </c>
+      <c r="T16" t="n">
+        <v>13</v>
+      </c>
+      <c r="U16" t="n">
+        <v>20</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>897725</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897725.html</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>44</v>
+      </c>
+      <c r="K17" t="n">
+        <v>68</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>31</v>
+      </c>
+      <c r="R17" t="n">
+        <v>22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>12</v>
+      </c>
+      <c r="T17" t="n">
+        <v>27</v>
+      </c>
+      <c r="U17" t="n">
+        <v>13</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>897717</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897717.html</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>28</v>
+      </c>
+      <c r="K18" t="n">
+        <v>51</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>30</v>
+      </c>
+      <c r="R18" t="n">
+        <v>18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" t="n">
+        <v>14</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>897701</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897701.html</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>28</v>
+      </c>
+      <c r="J19" t="n">
+        <v>22</v>
+      </c>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>40</v>
+      </c>
+      <c r="P19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>29</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>29</v>
+      </c>
+      <c r="U19" t="n">
+        <v>20</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>897693</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897693.html</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>28</v>
+      </c>
+      <c r="K20" t="n">
+        <v>46</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>31</v>
+      </c>
+      <c r="R20" t="n">
+        <v>13</v>
+      </c>
+      <c r="S20" t="n">
+        <v>22</v>
+      </c>
+      <c r="T20" t="n">
+        <v>24</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>897686</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897686.html</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22</v>
+      </c>
+      <c r="J21" t="n">
+        <v>44</v>
+      </c>
+      <c r="K21" t="n">
+        <v>66</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>34</v>
+      </c>
+      <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13</v>
+      </c>
+      <c r="T21" t="n">
+        <v>18</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897716</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897716.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>41</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>36</v>
+      </c>
+      <c r="R22" t="n">
+        <v>23</v>
+      </c>
+      <c r="S22" t="n">
+        <v>12</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22</v>
+      </c>
+      <c r="U22" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897710</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897710.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" t="n">
+        <v>40</v>
+      </c>
+      <c r="K23" t="n">
+        <v>67</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>22</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>14</v>
+      </c>
+      <c r="U23" t="n">
+        <v>27</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897700</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897700.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>40</v>
+      </c>
+      <c r="K24" t="n">
+        <v>59</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>37</v>
+      </c>
+      <c r="R24" t="n">
+        <v>31</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>20</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897684</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897684.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" t="n">
+        <v>72</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>32</v>
+      </c>
+      <c r="R25" t="n">
+        <v>24</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>16</v>
+      </c>
+      <c r="U25" t="n">
+        <v>13</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897678</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897678.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>26</v>
+      </c>
+      <c r="K26" t="n">
+        <v>51</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>28</v>
+      </c>
+      <c r="R26" t="n">
+        <v>19</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="n">
+        <v>20</v>
+      </c>
+      <c r="U26" t="n">
+        <v>13</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897721</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897721.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37</v>
+      </c>
+      <c r="J27" t="n">
+        <v>16</v>
+      </c>
+      <c r="K27" t="n">
+        <v>53</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>23</v>
+      </c>
+      <c r="R27" t="n">
+        <v>17</v>
+      </c>
+      <c r="S27" t="n">
+        <v>21</v>
+      </c>
+      <c r="T27" t="n">
+        <v>16</v>
+      </c>
+      <c r="U27" t="n">
+        <v>29</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897664</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897664.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>34</v>
+      </c>
+      <c r="K28" t="n">
+        <v>67</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>24</v>
+      </c>
+      <c r="R28" t="n">
+        <v>17</v>
+      </c>
+      <c r="S28" t="n">
+        <v>17</v>
+      </c>
+      <c r="T28" t="n">
+        <v>18</v>
+      </c>
+      <c r="U28" t="n">
+        <v>14</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897700</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897700.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40</v>
+      </c>
+      <c r="J29" t="n">
+        <v>19</v>
+      </c>
+      <c r="K29" t="n">
+        <v>59</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>17</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>31</v>
+      </c>
+      <c r="T29" t="n">
+        <v>20</v>
+      </c>
+      <c r="U29" t="n">
+        <v>14</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897675</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897675.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21</v>
+      </c>
+      <c r="J30" t="n">
+        <v>22</v>
+      </c>
+      <c r="K30" t="n">
+        <v>43</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>12</v>
+      </c>
+      <c r="P30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>27</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28</v>
+      </c>
+      <c r="T30" t="n">
+        <v>30</v>
+      </c>
+      <c r="U30" t="n">
+        <v>32</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20-10-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897669</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897669.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>31</v>
+      </c>
+      <c r="J31" t="n">
+        <v>22</v>
+      </c>
+      <c r="K31" t="n">
+        <v>53</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>21</v>
+      </c>
+      <c r="R31" t="n">
+        <v>10</v>
+      </c>
+      <c r="S31" t="n">
+        <v>21</v>
+      </c>
+      <c r="T31" t="n">
+        <v>17</v>
+      </c>
+      <c r="U31" t="n">
+        <v>14</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897726</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897726.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23</v>
+      </c>
+      <c r="J32" t="n">
+        <v>36</v>
+      </c>
+      <c r="K32" t="n">
+        <v>59</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>28</v>
+      </c>
+      <c r="R32" t="n">
+        <v>11</v>
+      </c>
+      <c r="S32" t="n">
+        <v>19</v>
+      </c>
+      <c r="T32" t="n">
+        <v>19</v>
+      </c>
+      <c r="U32" t="n">
+        <v>17</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897664</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897664.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>34</v>
+      </c>
+      <c r="J33" t="n">
+        <v>33</v>
+      </c>
+      <c r="K33" t="n">
+        <v>67</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8</v>
+      </c>
+      <c r="P33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>36</v>
+      </c>
+      <c r="R33" t="n">
+        <v>17</v>
+      </c>
+      <c r="S33" t="n">
+        <v>17</v>
+      </c>
+      <c r="T33" t="n">
+        <v>14</v>
+      </c>
+      <c r="U33" t="n">
+        <v>18</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897704</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897704.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>40</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="n">
+        <v>67</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" t="n">
+        <v>21</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897685</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897685.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>40</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26</v>
+      </c>
+      <c r="K35" t="n">
+        <v>66</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>26</v>
+      </c>
+      <c r="R35" t="n">
+        <v>16</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>11</v>
+      </c>
+      <c r="U35" t="n">
+        <v>36</v>
+      </c>
+      <c r="V35" t="n">
+        <v>7</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897676</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897676.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>23</v>
+      </c>
+      <c r="J36" t="n">
+        <v>34</v>
+      </c>
+      <c r="K36" t="n">
+        <v>57</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>22</v>
+      </c>
+      <c r="R36" t="n">
+        <v>13</v>
+      </c>
+      <c r="S36" t="n">
+        <v>18</v>
+      </c>
+      <c r="T36" t="n">
+        <v>17</v>
+      </c>
+      <c r="U36" t="n">
+        <v>20</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3</v>
+      </c>
+      <c r="X36" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897717</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897717.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>28</v>
+      </c>
+      <c r="J37" t="n">
+        <v>23</v>
+      </c>
+      <c r="K37" t="n">
+        <v>51</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>26</v>
+      </c>
+      <c r="R37" t="n">
+        <v>16</v>
+      </c>
+      <c r="S37" t="n">
+        <v>18</v>
+      </c>
+      <c r="T37" t="n">
+        <v>14</v>
+      </c>
+      <c r="U37" t="n">
+        <v>28</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897708</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897708.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>22</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>20</v>
+      </c>
+      <c r="P38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>28</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>28</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>28</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897703</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897703.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>47</v>
+      </c>
+      <c r="J39" t="n">
+        <v>20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>67</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12</v>
+      </c>
+      <c r="P39" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>23</v>
+      </c>
+      <c r="R39" t="n">
+        <v>10</v>
+      </c>
+      <c r="S39" t="n">
+        <v>9</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>21</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897693</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897693.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>46</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>14</v>
+      </c>
+      <c r="R40" t="n">
+        <v>22</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>24</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897681</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897681.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>27</v>
+      </c>
+      <c r="J41" t="n">
+        <v>22</v>
+      </c>
+      <c r="K41" t="n">
+        <v>49</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>26</v>
+      </c>
+      <c r="R41" t="n">
+        <v>13</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>27</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>29</v>
+      </c>
+      <c r="K42" t="n">
+        <v>62</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>23</v>
+      </c>
+      <c r="R42" t="n">
+        <v>10</v>
+      </c>
+      <c r="S42" t="n">
+        <v>23</v>
+      </c>
+      <c r="T42" t="n">
+        <v>31</v>
+      </c>
+      <c r="U42" t="n">
+        <v>38</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>4</v>
+      </c>
+      <c r="X42" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>50</v>
+      </c>
+      <c r="J43" t="n">
+        <v>30</v>
+      </c>
+      <c r="K43" t="n">
+        <v>80</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8</v>
+      </c>
+      <c r="O43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P43" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>32</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>14</v>
+      </c>
+      <c r="T43" t="n">
+        <v>30</v>
+      </c>
+      <c r="U43" t="n">
+        <v>39</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897699</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897699.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26</v>
+      </c>
+      <c r="K44" t="n">
+        <v>46</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>29</v>
+      </c>
+      <c r="R44" t="n">
+        <v>19</v>
+      </c>
+      <c r="S44" t="n">
+        <v>15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>16</v>
+      </c>
+      <c r="U44" t="n">
+        <v>11</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897694</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897694.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>42</v>
+      </c>
+      <c r="J45" t="n">
+        <v>34</v>
+      </c>
+      <c r="K45" t="n">
+        <v>76</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>10</v>
+      </c>
+      <c r="P45" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>37</v>
+      </c>
+      <c r="R45" t="n">
+        <v>14</v>
+      </c>
+      <c r="S45" t="n">
+        <v>21</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10</v>
+      </c>
+      <c r="U45" t="n">
+        <v>23</v>
+      </c>
+      <c r="V45" t="n">
+        <v>6</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897680</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897680.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>18</v>
+      </c>
+      <c r="K46" t="n">
+        <v>51</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14</v>
+      </c>
+      <c r="O46" t="n">
+        <v>14</v>
+      </c>
+      <c r="P46" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>35</v>
+      </c>
+      <c r="R46" t="n">
+        <v>9</v>
+      </c>
+      <c r="S46" t="n">
+        <v>22</v>
+      </c>
+      <c r="T46" t="n">
+        <v>28</v>
+      </c>
+      <c r="U46" t="n">
+        <v>24</v>
+      </c>
+      <c r="V46" t="n">
+        <v>6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897728</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897728.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>39</v>
+      </c>
+      <c r="J47" t="n">
+        <v>25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>64</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>12</v>
+      </c>
+      <c r="P47" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>29</v>
+      </c>
+      <c r="R47" t="n">
+        <v>8</v>
+      </c>
+      <c r="S47" t="n">
+        <v>23</v>
+      </c>
+      <c r="T47" t="n">
+        <v>20</v>
+      </c>
+      <c r="U47" t="n">
+        <v>12</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897720</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897720.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
+      <c r="K48" t="n">
+        <v>48</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>17</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15</v>
+      </c>
+      <c r="T48" t="n">
+        <v>17</v>
+      </c>
+      <c r="U48" t="n">
+        <v>34</v>
+      </c>
+      <c r="V48" t="n">
+        <v>9</v>
+      </c>
+      <c r="W48" t="n">
+        <v>8</v>
+      </c>
+      <c r="X48" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897710</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897710.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>40</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27</v>
+      </c>
+      <c r="K49" t="n">
+        <v>67</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8</v>
+      </c>
+      <c r="O49" t="n">
+        <v>12</v>
+      </c>
+      <c r="P49" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>21</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7</v>
+      </c>
+      <c r="S49" t="n">
+        <v>19</v>
+      </c>
+      <c r="T49" t="n">
+        <v>27</v>
+      </c>
+      <c r="U49" t="n">
+        <v>14</v>
+      </c>
+      <c r="V49" t="n">
+        <v>8</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6</v>
+      </c>
+      <c r="X49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897692</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897692.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27</v>
+      </c>
+      <c r="J50" t="n">
+        <v>47</v>
+      </c>
+      <c r="K50" t="n">
+        <v>74</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>17</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>13</v>
+      </c>
+      <c r="U50" t="n">
+        <v>17</v>
+      </c>
+      <c r="V50" t="n">
+        <v>9</v>
+      </c>
+      <c r="W50" t="n">
+        <v>5</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897684</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897684.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>50</v>
+      </c>
+      <c r="J51" t="n">
+        <v>22</v>
+      </c>
+      <c r="K51" t="n">
+        <v>72</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8</v>
+      </c>
+      <c r="P51" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>27</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>24</v>
+      </c>
+      <c r="T51" t="n">
+        <v>13</v>
+      </c>
+      <c r="U51" t="n">
+        <v>16</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>10</v>
+      </c>
+      <c r="X51" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>33</v>
+      </c>
+      <c r="K52" t="n">
+        <v>62</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" t="n">
+        <v>8</v>
+      </c>
+      <c r="P52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>23</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="n">
+        <v>38</v>
+      </c>
+      <c r="U52" t="n">
+        <v>31</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>9</v>
+      </c>
+      <c r="X52" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>50</v>
+      </c>
+      <c r="K53" t="n">
+        <v>80</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8</v>
+      </c>
+      <c r="P53" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>38</v>
+      </c>
+      <c r="R53" t="n">
+        <v>14</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>39</v>
+      </c>
+      <c r="U53" t="n">
+        <v>30</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>897698</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897698.html</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>18</v>
+      </c>
+      <c r="J54" t="n">
+        <v>41</v>
+      </c>
+      <c r="K54" t="n">
+        <v>59</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>36</v>
+      </c>
+      <c r="R54" t="n">
+        <v>17</v>
+      </c>
+      <c r="S54" t="n">
+        <v>22</v>
+      </c>
+      <c r="T54" t="n">
+        <v>20</v>
+      </c>
+      <c r="U54" t="n">
+        <v>17</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>897694</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897694.html</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>34</v>
+      </c>
+      <c r="J55" t="n">
+        <v>42</v>
+      </c>
+      <c r="K55" t="n">
+        <v>76</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>31</v>
+      </c>
+      <c r="R55" t="n">
+        <v>21</v>
+      </c>
+      <c r="S55" t="n">
+        <v>14</v>
+      </c>
+      <c r="T55" t="n">
+        <v>23</v>
+      </c>
+      <c r="U55" t="n">
+        <v>10</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>6</v>
+      </c>
+      <c r="X55" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>897685</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897685.html</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>40</v>
+      </c>
+      <c r="K56" t="n">
+        <v>66</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8</v>
+      </c>
+      <c r="P56" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>26</v>
+      </c>
+      <c r="R56" t="n">
+        <v>15</v>
+      </c>
+      <c r="S56" t="n">
+        <v>16</v>
+      </c>
+      <c r="T56" t="n">
+        <v>36</v>
+      </c>
+      <c r="U56" t="n">
+        <v>11</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>7</v>
+      </c>
+      <c r="X56" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>23</v>
+      </c>
+      <c r="K57" t="n">
+        <v>49</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>8</v>
+      </c>
+      <c r="O57" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="n">
+        <v>25</v>
+      </c>
+      <c r="S57" t="n">
+        <v>21</v>
+      </c>
+      <c r="T57" t="n">
+        <v>12</v>
+      </c>
+      <c r="U57" t="n">
+        <v>16</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>19</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24</v>
+      </c>
+      <c r="K58" t="n">
+        <v>43</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>22</v>
+      </c>
+      <c r="R58" t="n">
+        <v>20</v>
+      </c>
+      <c r="S58" t="n">
+        <v>21</v>
+      </c>
+      <c r="T58" t="n">
+        <v>11</v>
+      </c>
+      <c r="U58" t="n">
+        <v>16</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4</v>
+      </c>
+      <c r="W58" t="n">
+        <v>3</v>
+      </c>
+      <c r="X58" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>897699</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897699.html</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>20</v>
+      </c>
+      <c r="K59" t="n">
+        <v>46</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>33</v>
+      </c>
+      <c r="R59" t="n">
+        <v>15</v>
+      </c>
+      <c r="S59" t="n">
+        <v>19</v>
+      </c>
+      <c r="T59" t="n">
+        <v>11</v>
+      </c>
+      <c r="U59" t="n">
+        <v>16</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>5</v>
+      </c>
+      <c r="X59" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>897691</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897691.html</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>33</v>
+      </c>
+      <c r="K60" t="n">
+        <v>54</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>30</v>
+      </c>
+      <c r="R60" t="n">
+        <v>25</v>
+      </c>
+      <c r="S60" t="n">
+        <v>14</v>
+      </c>
+      <c r="T60" t="n">
+        <v>12</v>
+      </c>
+      <c r="U60" t="n">
+        <v>25</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>897676</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897676.html</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34</v>
+      </c>
+      <c r="J61" t="n">
+        <v>23</v>
+      </c>
+      <c r="K61" t="n">
+        <v>57</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>10</v>
+      </c>
+      <c r="P61" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>27</v>
+      </c>
+      <c r="R61" t="n">
+        <v>18</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13</v>
+      </c>
+      <c r="T61" t="n">
+        <v>20</v>
+      </c>
+      <c r="U61" t="n">
+        <v>17</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +7457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +7607,1062 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5000000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-4.430000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9339999999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.03299999999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53.78000000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.789999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.4400000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.009999999999999998</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.240000000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-2.569999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.009999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.419999999999999</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-1.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7700000000000002</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03400000000000001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>49.74</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.779999999999999</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29</v>
+      </c>
+      <c r="K11" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>53.67999999999999</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="U11" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.079999999999998</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.02999999999999989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-2.060000000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.233</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,92 +609,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897731</v>
+        <v>897738</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34</v>
+      </c>
+      <c r="K2" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>16</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>46</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41</v>
-      </c>
-      <c r="K2" t="n">
-        <v>87</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
         <v>8</v>
       </c>
-      <c r="P2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>31</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10</v>
-      </c>
-      <c r="S2" t="n">
-        <v>17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>12</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>54.4</v>
+        <v>56.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>38.7</v>
+        <v>55.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3">
@@ -728,110 +728,110 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897718</v>
+        <v>897716</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897718.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" t="n">
         <v>12</v>
       </c>
       <c r="S3" t="n">
+        <v>23</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="n">
         <v>22</v>
       </c>
-      <c r="T3" t="n">
-        <v>27</v>
-      </c>
-      <c r="U3" t="n">
-        <v>16</v>
-      </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
         <v>4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6</v>
       </c>
       <c r="AA3" t="n">
         <v>3</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>60</v>
+        <v>65.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>62.8</v>
+        <v>40.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
@@ -842,20 +842,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897707</v>
+        <v>897706</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897706.html</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -865,16 +865,16 @@
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -886,43 +886,43 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="R4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S4" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -930,22 +930,22 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>54.4</v>
+        <v>67.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>58.1</v>
+        <v>62.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>13.3</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="5">
@@ -956,315 +956,315 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897696</v>
+        <v>897697</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897696.html</t>
+          <t>https://text.khl.ru/text/897697.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>62</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>24</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28</v>
-      </c>
-      <c r="K5" t="n">
-        <v>60</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>17</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5</v>
-      </c>
       <c r="AA5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>71</v>
+        <v>49.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>51.5</v>
+        <v>53.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>25-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897681</v>
+        <v>897690</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897681.html</t>
+          <t>https://text.khl.ru/text/897690.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
+        <v>22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14</v>
+      </c>
+      <c r="T6" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
         <v>13</v>
       </c>
-      <c r="T6" t="n">
-        <v>27</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>33</v>
-      </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>90</v>
+        <v>67.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897720</v>
+        <v>897735</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897720.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J7" t="n">
         <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>20</v>
+      </c>
+      <c r="V7" t="n">
         <v>4</v>
       </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>17</v>
-      </c>
-      <c r="T7" t="n">
-        <v>34</v>
-      </c>
-      <c r="U7" t="n">
-        <v>17</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8</v>
       </c>
-      <c r="W7" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
       <c r="Z7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1272,113 +1272,113 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>46.2</v>
+        <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>66.7</v>
+        <v>42.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897711</v>
+        <v>897726</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897711.html</t>
+          <t>https://text.khl.ru/text/897726.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="R8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T8" t="n">
         <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1386,124 +1386,124 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="AD8" t="n">
-        <v>51.5</v>
+        <v>47.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897702</v>
+        <v>897715</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897702.html</t>
+          <t>https://text.khl.ru/text/897715.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="n">
+        <v>16</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="X9" t="n">
         <v>27</v>
       </c>
-      <c r="Q9" t="n">
-        <v>36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>28</v>
-      </c>
-      <c r="S9" t="n">
-        <v>14</v>
-      </c>
-      <c r="T9" t="n">
-        <v>19</v>
-      </c>
-      <c r="U9" t="n">
-        <v>19</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>26</v>
-      </c>
       <c r="Y9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>42.9</v>
+        <v>47.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>50</v>
+        <v>59.3</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1512,53 +1512,53 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897692</v>
+        <v>897708</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897692.html</t>
+          <t>https://text.khl.ru/text/897708.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>28</v>
@@ -1579,45 +1579,45 @@
         <v>28</v>
       </c>
       <c r="R10" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S10" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U10" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
         <v>5</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>9</v>
       </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC10" t="n">
         <v>50</v>
       </c>
       <c r="AD10" t="n">
-        <v>56.7</v>
+        <v>93.3</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1629,98 +1629,98 @@
         <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897682</v>
+        <v>897701</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897682.html</t>
+          <t>https://text.khl.ru/text/897701.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
         <v>28</v>
       </c>
       <c r="K11" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>40</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" t="n">
+        <v>29</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
-        <v>26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>19</v>
-      </c>
-      <c r="S11" t="n">
-        <v>19</v>
-      </c>
-      <c r="T11" t="n">
-        <v>17</v>
-      </c>
-      <c r="U11" t="n">
-        <v>24</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="n">
         <v>3</v>
       </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2</v>
-      </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>50</v>
+        <v>59.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>41.5</v>
+        <v>40.8</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1740,53 +1740,53 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.9</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897732</v>
+        <v>897738</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1798,54 +1798,54 @@
         <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
         <v>33</v>
       </c>
       <c r="Q12" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="R12" t="n">
+        <v>13</v>
+      </c>
+      <c r="S12" t="n">
+        <v>29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>13</v>
+      </c>
+      <c r="U12" t="n">
+        <v>16</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
         <v>8</v>
       </c>
-      <c r="S12" t="n">
-        <v>19</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12</v>
-      </c>
-      <c r="U12" t="n">
-        <v>9</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>3</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>61.1</v>
+        <v>43.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>57.1</v>
+        <v>44.8</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1857,805 +1857,805 @@
         <v>0.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897722</v>
+        <v>897724</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897722.html</t>
+          <t>https://text.khl.ru/text/897724.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K13" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
         <v>8</v>
       </c>
       <c r="P13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="U13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>46.8</v>
+        <v>45.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>37.5</v>
+        <v>57.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897713</v>
+        <v>897709</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897713.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23</v>
+      </c>
+      <c r="K14" t="n">
+        <v>76</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>38</v>
+      </c>
+      <c r="R14" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>14</v>
+      </c>
+      <c r="U14" t="n">
+        <v>17</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18</v>
-      </c>
-      <c r="K14" t="n">
-        <v>57</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="n">
-        <v>22</v>
-      </c>
-      <c r="O14" t="n">
-        <v>21</v>
-      </c>
-      <c r="P14" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>21</v>
-      </c>
-      <c r="R14" t="n">
-        <v>12</v>
-      </c>
-      <c r="S14" t="n">
-        <v>21</v>
-      </c>
-      <c r="T14" t="n">
-        <v>18</v>
-      </c>
-      <c r="U14" t="n">
-        <v>23</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12</v>
-      </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>63.8</v>
+        <v>39.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>43.9</v>
+        <v>45.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897705</v>
+        <v>897698</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897705.html</t>
+          <t>https://text.khl.ru/text/897698.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>41</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="n">
+        <v>59</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="n">
-        <v>32</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23</v>
-      </c>
-      <c r="K15" t="n">
-        <v>55</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="S15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>50.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>34.5</v>
+        <v>45.9</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AH15" t="n">
-        <v>3.1</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897697</v>
+        <v>897686</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897697.html</t>
+          <t>https://text.khl.ru/text/897686.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P16" t="n">
         <v>34</v>
       </c>
       <c r="Q16" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="R16" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
+        <v>18</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>16</v>
       </c>
-      <c r="V16" t="n">
-        <v>6</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
         <v>3</v>
       </c>
-      <c r="X16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>4</v>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>50.7</v>
+        <v>63</v>
       </c>
       <c r="AD16" t="n">
-        <v>46.7</v>
+        <v>35.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG16" t="n">
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897731</v>
+        <v>897730</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897730.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
       <c r="I17" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K17" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>34</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" t="n">
+        <v>6</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH17" t="n">
         <v>8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>37</v>
-      </c>
-      <c r="R17" t="n">
-        <v>17</v>
-      </c>
-      <c r="S17" t="n">
-        <v>10</v>
-      </c>
-      <c r="T17" t="n">
-        <v>19</v>
-      </c>
-      <c r="U17" t="n">
-        <v>12</v>
-      </c>
-      <c r="V17" t="n">
-        <v>7</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC17" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897722</v>
+        <v>897725</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897722.html</t>
+          <t>https://text.khl.ru/text/897725.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K18" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>8</v>
       </c>
       <c r="P18" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R18" t="n">
+        <v>22</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>27</v>
+      </c>
+      <c r="U18" t="n">
+        <v>13</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y18" t="n">
         <v>18</v>
       </c>
-      <c r="S18" t="n">
-        <v>11</v>
-      </c>
-      <c r="T18" t="n">
-        <v>10</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6</v>
-      </c>
-      <c r="X18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>53.2</v>
+        <v>42.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897709</v>
+        <v>897717</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897709.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K19" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T19" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U19" t="n">
         <v>14</v>
       </c>
       <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
         <v>5</v>
       </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>4</v>
-      </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>60.3</v>
+        <v>46.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>54.8</v>
+        <v>66.7</v>
       </c>
       <c r="AE19" t="n">
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.699999999999999</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="20">
@@ -2666,87 +2666,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897703</v>
+        <v>897701</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897703.html</t>
+          <t>https://text.khl.ru/text/897701.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>28</v>
+      </c>
+      <c r="J20" t="n">
+        <v>22</v>
+      </c>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>40</v>
+      </c>
+      <c r="P20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>29</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>29</v>
+      </c>
+      <c r="U20" t="n">
+        <v>20</v>
+      </c>
+      <c r="V20" t="n">
         <v>6</v>
       </c>
-      <c r="I20" t="n">
-        <v>20</v>
-      </c>
-      <c r="J20" t="n">
-        <v>47</v>
-      </c>
-      <c r="K20" t="n">
-        <v>67</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>12</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" t="n">
-        <v>21</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="Z20" t="n">
         <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>47.9</v>
+        <v>40.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>87.5</v>
+        <v>59.2</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
@@ -2780,20 +2780,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897691</v>
+        <v>897693</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897691.html</t>
+          <t>https://text.khl.ru/text/897693.html</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2803,64 +2803,64 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K21" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P21" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="n">
         <v>31</v>
       </c>
       <c r="R21" t="n">
+        <v>13</v>
+      </c>
+      <c r="S21" t="n">
+        <v>22</v>
+      </c>
+      <c r="T21" t="n">
+        <v>24</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y21" t="n">
         <v>14</v>
       </c>
-      <c r="S21" t="n">
-        <v>25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>12</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>39</v>
-      </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2868,113 +2868,113 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>49.2</v>
+        <v>31.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>67.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH21" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897733</v>
+        <v>897735</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K22" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
         <v>8</v>
       </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
       <c r="P22" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R22" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4</v>
+      </c>
+      <c r="X22" t="n">
         <v>8</v>
       </c>
-      <c r="T22" t="n">
-        <v>15</v>
-      </c>
-      <c r="U22" t="n">
-        <v>7</v>
-      </c>
-      <c r="V22" t="n">
-        <v>4</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>16</v>
-      </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2982,10 +2982,10 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>58.9</v>
+        <v>50</v>
       </c>
       <c r="AD22" t="n">
-        <v>68.2</v>
+        <v>57.1</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -2994,59 +2994,59 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897727</v>
+        <v>897716</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897727.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J23" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K23" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
@@ -3055,51 +3055,51 @@
         <v>4</v>
       </c>
       <c r="P23" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="S23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>47.5</v>
+        <v>34.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>42.1</v>
+        <v>59.5</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3108,209 +3108,209 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>5.3</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897712</v>
+        <v>897710</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897710.html</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K24" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
         <v>8</v>
       </c>
       <c r="P24" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S24" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="T24" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U24" t="n">
+        <v>27</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="n">
         <v>22</v>
       </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3</v>
-      </c>
-      <c r="X24" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1</v>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>43.7</v>
+        <v>48.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>52.2</v>
+        <v>34.1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AH24" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897707</v>
+        <v>897700</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897700.html</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
         <v>6</v>
       </c>
       <c r="P25" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q25" t="n">
+        <v>37</v>
+      </c>
+      <c r="R25" t="n">
         <v>31</v>
       </c>
-      <c r="R25" t="n">
-        <v>28</v>
-      </c>
       <c r="S25" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Z25" t="n">
         <v>3</v>
@@ -3324,65 +3324,65 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>45.6</v>
+        <v>31.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>41.9</v>
+        <v>41.2</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897695</v>
+        <v>897684</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897695.html</t>
+          <t>https://text.khl.ru/text/897684.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>6</v>
       </c>
       <c r="P26" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R26" t="n">
+        <v>24</v>
+      </c>
+      <c r="S26" t="n">
+        <v>9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>13</v>
+      </c>
+      <c r="V26" t="n">
         <v>10</v>
-      </c>
-      <c r="S26" t="n">
-        <v>27</v>
-      </c>
-      <c r="T26" t="n">
-        <v>34</v>
-      </c>
-      <c r="U26" t="n">
-        <v>19</v>
-      </c>
-      <c r="V26" t="n">
-        <v>4</v>
       </c>
       <c r="W26" t="n">
         <v>5</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3438,10 +3438,10 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>56.9</v>
+        <v>45.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>64.2</v>
+        <v>55.2</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3453,47 +3453,47 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897732</v>
+        <v>897737</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J27" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K27" t="n">
         <v>56</v>
@@ -3502,49 +3502,49 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R27" t="n">
+        <v>12</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="n">
+        <v>22</v>
+      </c>
+      <c r="U27" t="n">
+        <v>23</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="n">
         <v>19</v>
-      </c>
-      <c r="S27" t="n">
-        <v>8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>9</v>
-      </c>
-      <c r="U27" t="n">
-        <v>12</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3552,113 +3552,113 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>38.9</v>
+        <v>53.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>42.9</v>
+        <v>48.9</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897725</v>
+        <v>897721</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897725.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P28" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q28" t="n">
         <v>23</v>
       </c>
       <c r="R28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
         <v>9</v>
       </c>
-      <c r="X28" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>19</v>
-      </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3666,124 +3666,124 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>57.4</v>
+        <v>55.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>32.5</v>
+        <v>35.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="AG28" t="n">
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897706</v>
+        <v>897664</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897706.html</t>
+          <t>https://text.khl.ru/text/897664.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>33</v>
+      </c>
+      <c r="J29" t="n">
+        <v>34</v>
+      </c>
+      <c r="K29" t="n">
+        <v>67</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>27</v>
-      </c>
-      <c r="K29" t="n">
-        <v>58</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6</v>
-      </c>
-      <c r="O29" t="n">
-        <v>6</v>
-      </c>
       <c r="P29" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q29" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="R29" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T29" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V29" t="n">
         <v>5</v>
       </c>
       <c r="W29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>32.8</v>
+        <v>60</v>
       </c>
       <c r="AD29" t="n">
-        <v>37.9</v>
+        <v>56.2</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3792,101 +3792,101 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897696</v>
+        <v>897700</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897696.html</t>
+          <t>https://text.khl.ru/text/897700.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>31</v>
+      </c>
+      <c r="T30" t="n">
+        <v>20</v>
+      </c>
+      <c r="U30" t="n">
         <v>14</v>
       </c>
-      <c r="P30" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>44</v>
-      </c>
-      <c r="R30" t="n">
-        <v>15</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="V30" t="n">
         <v>6</v>
-      </c>
-      <c r="T30" t="n">
-        <v>16</v>
-      </c>
-      <c r="U30" t="n">
-        <v>17</v>
-      </c>
-      <c r="V30" t="n">
-        <v>5</v>
       </c>
       <c r="W30" t="n">
         <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Y30" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3894,74 +3894,74 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>29</v>
+        <v>68.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>48.5</v>
+        <v>58.8</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897683</v>
+        <v>897675</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897683.html</t>
+          <t>https://text.khl.ru/text/897675.html</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
         <v>12</v>
@@ -3970,34 +3970,34 @@
         <v>26</v>
       </c>
       <c r="Q31" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="R31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
+        <v>28</v>
+      </c>
+      <c r="T31" t="n">
+        <v>30</v>
+      </c>
+      <c r="U31" t="n">
+        <v>32</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3</v>
+      </c>
+      <c r="X31" t="n">
         <v>26</v>
       </c>
-      <c r="T31" t="n">
-        <v>17</v>
-      </c>
-      <c r="U31" t="n">
-        <v>23</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16</v>
-      </c>
       <c r="Y31" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA31" t="n">
         <v>3</v>
@@ -4008,110 +4008,110 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>41.9</v>
+        <v>49.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>42.5</v>
+        <v>48.4</v>
       </c>
       <c r="AE31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897734</v>
+        <v>897730</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897730.html</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J32" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K32" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O32" t="n">
+        <v>16</v>
+      </c>
+      <c r="P32" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>16</v>
+      </c>
+      <c r="T32" t="n">
         <v>6</v>
       </c>
-      <c r="P32" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>26</v>
-      </c>
-      <c r="R32" t="n">
-        <v>30</v>
-      </c>
-      <c r="S32" t="n">
-        <v>18</v>
-      </c>
-      <c r="T32" t="n">
-        <v>23</v>
-      </c>
       <c r="U32" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X32" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="n">
         <v>3</v>
@@ -4122,227 +4122,227 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>50.9</v>
+        <v>57.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>56.1</v>
+        <v>35.3</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="AG32" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AH32" t="n">
-        <v>21.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897727</v>
+        <v>897726</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897727.html</t>
+          <t>https://text.khl.ru/text/897726.html</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K33" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
         <v>4</v>
       </c>
-      <c r="O33" t="n">
-        <v>8</v>
-      </c>
       <c r="P33" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S33" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="U33" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V33" t="n">
         <v>5</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="AD33" t="n">
-        <v>57.9</v>
+        <v>52.8</v>
       </c>
       <c r="AE33" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>15.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897718</v>
+        <v>897664</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897718.html</t>
+          <t>https://text.khl.ru/text/897664.html</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
+        <v>34</v>
+      </c>
+      <c r="J34" t="n">
+        <v>33</v>
+      </c>
+      <c r="K34" t="n">
+        <v>67</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>36</v>
+      </c>
+      <c r="R34" t="n">
+        <v>17</v>
+      </c>
+      <c r="S34" t="n">
+        <v>17</v>
+      </c>
+      <c r="T34" t="n">
+        <v>14</v>
+      </c>
+      <c r="U34" t="n">
+        <v>18</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
         <v>31</v>
       </c>
-      <c r="J34" t="n">
+      <c r="Y34" t="n">
         <v>21</v>
       </c>
-      <c r="K34" t="n">
-        <v>52</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" t="n">
-        <v>20</v>
-      </c>
-      <c r="P34" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>30</v>
-      </c>
-      <c r="R34" t="n">
-        <v>22</v>
-      </c>
-      <c r="S34" t="n">
-        <v>12</v>
-      </c>
-      <c r="T34" t="n">
-        <v>16</v>
-      </c>
-      <c r="U34" t="n">
-        <v>27</v>
-      </c>
-      <c r="V34" t="n">
-        <v>4</v>
-      </c>
-      <c r="W34" t="n">
-        <v>8</v>
-      </c>
-      <c r="X34" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>31</v>
-      </c>
       <c r="Z34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
@@ -4353,43 +4353,43 @@
         <v>40</v>
       </c>
       <c r="AD34" t="n">
-        <v>37.2</v>
+        <v>43.8</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897695</v>
+        <v>897704</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897695.html</t>
+          <t>https://text.khl.ru/text/897704.html</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4402,58 +4402,58 @@
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="n">
+        <v>67</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q35" t="n">
         <v>32</v>
       </c>
-      <c r="K35" t="n">
-        <v>66</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="R35" t="n">
+        <v>9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>9</v>
+      </c>
+      <c r="U35" t="n">
+        <v>21</v>
+      </c>
+      <c r="V35" t="n">
         <v>4</v>
       </c>
-      <c r="P35" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>41</v>
-      </c>
-      <c r="R35" t="n">
-        <v>27</v>
-      </c>
-      <c r="S35" t="n">
-        <v>10</v>
-      </c>
-      <c r="T35" t="n">
-        <v>19</v>
-      </c>
-      <c r="U35" t="n">
-        <v>34</v>
-      </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>5</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z35" t="n">
         <v>4</v>
-      </c>
-      <c r="X35" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>3</v>
       </c>
       <c r="AA35" t="n">
         <v>4</v>
@@ -4464,185 +4464,185 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>43.1</v>
+        <v>44.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>35.8</v>
+        <v>30</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG35" t="n">
         <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897689</v>
+        <v>897685</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897685.html</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K36" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>26</v>
+      </c>
+      <c r="R36" t="n">
+        <v>16</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="n">
+        <v>11</v>
+      </c>
+      <c r="U36" t="n">
+        <v>36</v>
+      </c>
+      <c r="V36" t="n">
+        <v>7</v>
+      </c>
+      <c r="W36" t="n">
         <v>4</v>
       </c>
-      <c r="P36" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>28</v>
-      </c>
-      <c r="R36" t="n">
-        <v>14</v>
-      </c>
-      <c r="S36" t="n">
+      <c r="X36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH36" t="n">
         <v>20</v>
-      </c>
-      <c r="T36" t="n">
-        <v>28</v>
-      </c>
-      <c r="U36" t="n">
-        <v>20</v>
-      </c>
-      <c r="V36" t="n">
-        <v>5</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC36" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>4.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897733</v>
+        <v>897739</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897739.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J37" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K37" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -4651,37 +4651,37 @@
         <v>8</v>
       </c>
       <c r="P37" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q37" t="n">
+        <v>26</v>
+      </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>14</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" t="n">
         <v>33</v>
       </c>
-      <c r="R37" t="n">
+      <c r="V37" t="n">
         <v>8</v>
       </c>
-      <c r="S37" t="n">
-        <v>17</v>
-      </c>
-      <c r="T37" t="n">
-        <v>7</v>
-      </c>
-      <c r="U37" t="n">
-        <v>15</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
-      </c>
       <c r="W37" t="n">
+        <v>10</v>
+      </c>
+      <c r="X37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z37" t="n">
         <v>4</v>
-      </c>
-      <c r="X37" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>10</v>
       </c>
       <c r="AA37" t="n">
         <v>4</v>
@@ -4692,113 +4692,113 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>41.1</v>
+        <v>52.7</v>
       </c>
       <c r="AD37" t="n">
-        <v>31.8</v>
+        <v>23.3</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>5.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897721</v>
+        <v>897717</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897721.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
+        <v>28</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23</v>
+      </c>
+      <c r="K38" t="n">
+        <v>51</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>26</v>
+      </c>
+      <c r="R38" t="n">
         <v>16</v>
       </c>
-      <c r="J38" t="n">
-        <v>37</v>
-      </c>
-      <c r="K38" t="n">
-        <v>53</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="S38" t="n">
+        <v>18</v>
+      </c>
+      <c r="T38" t="n">
         <v>14</v>
       </c>
-      <c r="O38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>29</v>
-      </c>
-      <c r="R38" t="n">
-        <v>21</v>
-      </c>
-      <c r="S38" t="n">
-        <v>17</v>
-      </c>
-      <c r="T38" t="n">
-        <v>29</v>
-      </c>
       <c r="U38" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>44.2</v>
+        <v>53.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>64.40000000000001</v>
+        <v>33.3</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -4818,148 +4818,148 @@
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897713</v>
+        <v>897708</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897713.html</t>
+          <t>https://text.khl.ru/text/897708.html</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>22</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14</v>
+      </c>
+      <c r="K39" t="n">
+        <v>36</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>20</v>
+      </c>
+      <c r="P39" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>28</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6</v>
+      </c>
+      <c r="S39" t="n">
+        <v>28</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>28</v>
+      </c>
+      <c r="V39" t="n">
         <v>5</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>18</v>
-      </c>
-      <c r="J39" t="n">
-        <v>39</v>
-      </c>
-      <c r="K39" t="n">
-        <v>57</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>21</v>
-      </c>
-      <c r="O39" t="n">
-        <v>22</v>
-      </c>
-      <c r="P39" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>37</v>
-      </c>
-      <c r="R39" t="n">
-        <v>21</v>
-      </c>
-      <c r="S39" t="n">
-        <v>12</v>
-      </c>
-      <c r="T39" t="n">
-        <v>23</v>
-      </c>
-      <c r="U39" t="n">
-        <v>18</v>
-      </c>
-      <c r="V39" t="n">
-        <v>12</v>
-      </c>
       <c r="W39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X39" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="Z39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="n">
         <v>5</v>
       </c>
-      <c r="AA39" t="n">
-        <v>9</v>
-      </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>36.2</v>
+        <v>50</v>
       </c>
       <c r="AD39" t="n">
-        <v>56.1</v>
+        <v>6.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>27.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897705</v>
+        <v>897703</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897705.html</t>
+          <t>https://text.khl.ru/text/897703.html</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4969,64 +4969,64 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
+        <v>47</v>
+      </c>
+      <c r="J40" t="n">
+        <v>20</v>
+      </c>
+      <c r="K40" t="n">
+        <v>67</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>12</v>
+      </c>
+      <c r="P40" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="n">
         <v>23</v>
       </c>
-      <c r="J40" t="n">
-        <v>32</v>
-      </c>
-      <c r="K40" t="n">
-        <v>55</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="R40" t="n">
+        <v>10</v>
+      </c>
+      <c r="S40" t="n">
+        <v>9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3</v>
+      </c>
+      <c r="U40" t="n">
+        <v>21</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y40" t="n">
         <v>8</v>
       </c>
-      <c r="P40" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>29</v>
-      </c>
-      <c r="R40" t="n">
-        <v>16</v>
-      </c>
-      <c r="S40" t="n">
-        <v>10</v>
-      </c>
-      <c r="T40" t="n">
-        <v>19</v>
-      </c>
-      <c r="U40" t="n">
-        <v>10</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>7</v>
       </c>
-      <c r="X40" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>4</v>
-      </c>
       <c r="AA40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
@@ -5034,53 +5034,53 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>49.1</v>
+        <v>52.1</v>
       </c>
       <c r="AD40" t="n">
-        <v>65.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
         <v>2</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AG40" t="n">
         <v>1</v>
       </c>
       <c r="AH40" t="n">
-        <v>26.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897689</v>
+        <v>897693</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897693.html</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -5089,81 +5089,1221 @@
         <v>28</v>
       </c>
       <c r="J41" t="n">
+        <v>18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>46</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
+        <v>10</v>
+      </c>
+      <c r="P41" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>14</v>
+      </c>
+      <c r="R41" t="n">
+        <v>22</v>
+      </c>
+      <c r="S41" t="n">
+        <v>13</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7</v>
+      </c>
+      <c r="U41" t="n">
         <v>24</v>
       </c>
-      <c r="K41" t="n">
-        <v>52</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897728</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897728.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>39</v>
+      </c>
+      <c r="K42" t="n">
+        <v>64</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>42</v>
+      </c>
+      <c r="R42" t="n">
+        <v>23</v>
+      </c>
+      <c r="S42" t="n">
+        <v>8</v>
+      </c>
+      <c r="T42" t="n">
+        <v>12</v>
+      </c>
+      <c r="U42" t="n">
+        <v>20</v>
+      </c>
+      <c r="V42" t="n">
         <v>4</v>
       </c>
-      <c r="O41" t="n">
+      <c r="W42" t="n">
+        <v>3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH42" t="n">
         <v>12</v>
       </c>
-      <c r="P41" t="n">
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33</v>
+      </c>
+      <c r="J43" t="n">
+        <v>39</v>
+      </c>
+      <c r="K43" t="n">
+        <v>72</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>24</v>
+      </c>
+      <c r="R43" t="n">
+        <v>16</v>
+      </c>
+      <c r="S43" t="n">
+        <v>17</v>
+      </c>
+      <c r="T43" t="n">
+        <v>21</v>
+      </c>
+      <c r="U43" t="n">
+        <v>22</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897711</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897711.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
+        <v>25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>45</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>8</v>
+      </c>
+      <c r="P44" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>22</v>
+      </c>
+      <c r="R44" t="n">
+        <v>15</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14</v>
+      </c>
+      <c r="T44" t="n">
+        <v>16</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>8</v>
+      </c>
+      <c r="X44" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897704</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897704.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>27</v>
+      </c>
+      <c r="J45" t="n">
+        <v>40</v>
+      </c>
+      <c r="K45" t="n">
+        <v>67</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>26</v>
+      </c>
+      <c r="R45" t="n">
+        <v>15</v>
+      </c>
+      <c r="S45" t="n">
+        <v>9</v>
+      </c>
+      <c r="T45" t="n">
+        <v>21</v>
+      </c>
+      <c r="U45" t="n">
+        <v>9</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>25-10-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897688</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897688.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>40</v>
+      </c>
+      <c r="J46" t="n">
+        <v>39</v>
+      </c>
+      <c r="K46" t="n">
+        <v>79</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>7</v>
+      </c>
+      <c r="P46" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q46" t="n">
         <v>28</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R46" t="n">
+        <v>16</v>
+      </c>
+      <c r="S46" t="n">
+        <v>21</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18</v>
+      </c>
+      <c r="U46" t="n">
         <v>24</v>
       </c>
-      <c r="R41" t="n">
+      <c r="V46" t="n">
+        <v>2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897736</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897736.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29</v>
+      </c>
+      <c r="J47" t="n">
         <v>20</v>
       </c>
-      <c r="S41" t="n">
+      <c r="K47" t="n">
+        <v>49</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>27</v>
+      </c>
+      <c r="R47" t="n">
+        <v>19</v>
+      </c>
+      <c r="S47" t="n">
+        <v>19</v>
+      </c>
+      <c r="T47" t="n">
         <v>14</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U47" t="n">
+        <v>13</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>23</v>
+      </c>
+      <c r="K48" t="n">
+        <v>49</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>25</v>
+      </c>
+      <c r="R48" t="n">
+        <v>25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>21</v>
+      </c>
+      <c r="T48" t="n">
+        <v>12</v>
+      </c>
+      <c r="U48" t="n">
+        <v>16</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>19</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>43</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4</v>
+      </c>
+      <c r="P49" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>22</v>
+      </c>
+      <c r="R49" t="n">
         <v>20</v>
       </c>
-      <c r="U41" t="n">
-        <v>28</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2</v>
-      </c>
-      <c r="W41" t="n">
+      <c r="S49" t="n">
+        <v>21</v>
+      </c>
+      <c r="T49" t="n">
+        <v>11</v>
+      </c>
+      <c r="U49" t="n">
+        <v>16</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897699</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897699.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>20</v>
+      </c>
+      <c r="K50" t="n">
+        <v>46</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>33</v>
+      </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
+      <c r="S50" t="n">
+        <v>19</v>
+      </c>
+      <c r="T50" t="n">
+        <v>11</v>
+      </c>
+      <c r="U50" t="n">
+        <v>16</v>
+      </c>
+      <c r="V50" t="n">
         <v>5</v>
       </c>
-      <c r="X41" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z41" t="n">
+      <c r="W50" t="n">
         <v>5</v>
       </c>
-      <c r="AA41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB41" t="inlineStr">
+      <c r="X50" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897691</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897691.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33</v>
+      </c>
+      <c r="K51" t="n">
+        <v>54</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>30</v>
+      </c>
+      <c r="R51" t="n">
+        <v>25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>12</v>
+      </c>
+      <c r="U51" t="n">
+        <v>25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4</v>
+      </c>
+      <c r="X51" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC41" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>7.1</v>
+      <c r="AC51" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -5177,7 +6317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5330,271 +6470,271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>30.2</v>
+        <v>31.8</v>
       </c>
       <c r="H2" t="n">
-        <v>101.2</v>
+        <v>63.7</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.7</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>32.8</v>
+        <v>30.4</v>
       </c>
       <c r="K2" t="n">
-        <v>36.2</v>
+        <v>30.8</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.6</v>
+        <v>17.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>58.36</v>
+        <v>58.14000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6200000000000003</v>
+        <v>-2.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.316</v>
+        <v>0.27</v>
       </c>
       <c r="R2" t="n">
-        <v>0.042</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.738</v>
+        <v>0.9339999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06499999999999999</v>
+        <v>-0.06599999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.3</v>
+        <v>0.2</v>
       </c>
       <c r="W2" t="n">
-        <v>10.8</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.6</v>
+        <v>3.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.760000000000002</v>
+        <v>11.62</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.840000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.8</v>
       </c>
-      <c r="G3" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.6399999999999991</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.05</v>
       </c>
-      <c r="R3" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.01599999999999999</v>
-      </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5.2</v>
+        <v>15.2</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.6</v>
+        <v>-2.399999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.68</v>
+        <v>13.62</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.63</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39</v>
+      </c>
+      <c r="H4" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.160000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.2</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.300000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54.66</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-1.669999999999999</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>6</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.6</v>
-      </c>
       <c r="X4" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.6</v>
+        <v>10.72</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1600000000000001</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5604,85 +6744,85 @@
         <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>27.6</v>
+        <v>23.6</v>
       </c>
       <c r="H5" t="n">
-        <v>82.80000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.7</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="n">
-        <v>39.4</v>
+        <v>32.2</v>
       </c>
       <c r="K5" t="n">
-        <v>178.3</v>
+        <v>81.2</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.3</v>
+        <v>-4.4</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>23.8</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
-        <v>51.24000000000001</v>
+        <v>40.66</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1899999999999999</v>
+        <v>-2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.284</v>
+        <v>0.094</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.093</v>
+        <v>-0.028</v>
       </c>
       <c r="S5" t="n">
-        <v>0.75</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.067</v>
+        <v>-0.016</v>
       </c>
       <c r="U5" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.8</v>
+        <v>15.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.6</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.66</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.29</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5692,85 +6832,85 @@
         <v>2.2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="J6" t="n">
-        <v>33.2</v>
+        <v>44.4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>31.3</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="M6" t="n">
-        <v>19.8</v>
+        <v>17.2</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>-1.6</v>
       </c>
       <c r="O6" t="n">
-        <v>50.52</v>
+        <v>42.12</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5899999999999999</v>
+        <v>-1.140000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="S6" t="n">
-        <v>0.72</v>
+        <v>0.836</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05</v>
+        <v>0.073</v>
       </c>
       <c r="U6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="V6" t="n">
         <v>3.6</v>
       </c>
-      <c r="V6" t="n">
-        <v>-0.3</v>
-      </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>10.2</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.640000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9400000000000001</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5780,255 +6920,431 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>32.8</v>
+        <v>31.6</v>
       </c>
       <c r="H7" t="n">
-        <v>95.7</v>
+        <v>58.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>-0.9</v>
       </c>
       <c r="J7" t="n">
-        <v>28.4</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>30.3</v>
+        <v>54.5</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="M7" t="n">
-        <v>13.2</v>
+        <v>21.2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>40</v>
+        <v>57.44</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.24</v>
+        <v>0.3300000000000011</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.304</v>
+        <v>0.094</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.045</v>
+        <v>-0.08</v>
       </c>
       <c r="S7" t="n">
-        <v>0.884</v>
+        <v>0.834</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.025</v>
+        <v>-0.03299999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="V7" t="n">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="W7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.4</v>
       </c>
-      <c r="X7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.040000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.4699999999999999</v>
+        <v>-4.029999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F8" t="n">
         <v>-0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>28.2</v>
+        <v>35.2</v>
       </c>
       <c r="H8" t="n">
-        <v>41.7</v>
+        <v>52.69999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>32</v>
+        <v>29.4</v>
       </c>
       <c r="K8" t="n">
-        <v>63.5</v>
+        <v>23.3</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.2</v>
+        <v>-0.7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.4</v>
+        <v>11.8</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>46.54</v>
+        <v>48.48</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.879999999999999</v>
+        <v>-2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.236</v>
+        <v>0.23</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.141</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9</v>
+        <v>0.9219999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.03400000000000001</v>
+        <v>-0.022</v>
       </c>
       <c r="U8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="W8" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="X8" t="n">
-        <v>1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.8</v>
+        <v>-1.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>10.5</v>
+        <v>9.08</v>
       </c>
       <c r="AB8" t="n">
-        <v>-4.02</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>95.30000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.090000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.06300000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="W9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.3700000000000003</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29</v>
+      </c>
+      <c r="H10" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.234</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1000000000000002</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G11" t="n">
         <v>24.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="M9" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>44.88000000000001</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.029999999999999</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9719999999999999</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="H11" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I11" t="n">
         <v>-1.6</v>
       </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.29</v>
+      <c r="J11" t="n">
+        <v>24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.450000000000002</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8140000000000001</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.220000000000001</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.99</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,59 +609,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897749</v>
+        <v>897757</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897757.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="n">
         <v>36</v>
@@ -670,10 +670,10 @@
         <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="U2" t="n">
         <v>6</v>
@@ -682,30 +682,30 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
         <v>5</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>45.5</v>
+        <v>43.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>45.5</v>
+        <v>72.7</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -714,226 +714,226 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897742</v>
+        <v>897747</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897742.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7</v>
+      </c>
+      <c r="S3" t="n">
         <v>24</v>
       </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-      <c r="K3" t="n">
-        <v>64</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>12</v>
       </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>37</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13</v>
-      </c>
-      <c r="T3" t="n">
-        <v>8</v>
-      </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3</v>
       </c>
-      <c r="AA3" t="n">
-        <v>7</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>42.2</v>
+        <v>62.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897720</v>
+        <v>897738</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897720.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>43</v>
+      </c>
+      <c r="R4" t="n">
+        <v>13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U4" t="n">
+        <v>16</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
         <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>28</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>17</v>
-      </c>
-      <c r="T4" t="n">
-        <v>34</v>
-      </c>
-      <c r="U4" t="n">
-        <v>17</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5</v>
       </c>
       <c r="AA4" t="n">
         <v>8</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>46.2</v>
+        <v>43.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>66.7</v>
+        <v>44.8</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -942,101 +942,101 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897711</v>
+        <v>897724</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897711.html</t>
+          <t>https://text.khl.ru/text/897724.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R5" t="n">
         <v>21</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
         <v>14</v>
       </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>17</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>27</v>
-      </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,238 +1044,238 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>51.2</v>
+        <v>45.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>51.5</v>
+        <v>57.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897702</v>
+        <v>897709</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897702.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>53</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" t="n">
         <v>25</v>
       </c>
-      <c r="J6" t="n">
+      <c r="Q6" t="n">
         <v>38</v>
       </c>
-      <c r="K6" t="n">
-        <v>63</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>36</v>
-      </c>
       <c r="R6" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
         <v>14</v>
       </c>
-      <c r="T6" t="n">
-        <v>19</v>
-      </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
         <v>4</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>42.9</v>
+        <v>39.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>45.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897751</v>
+        <v>897754</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
+        <v>31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>61</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>17</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>28</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
         <v>26</v>
       </c>
-      <c r="K7" t="n">
-        <v>62</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>26</v>
-      </c>
-      <c r="R7" t="n">
-        <v>13</v>
-      </c>
-      <c r="S7" t="n">
-        <v>24</v>
-      </c>
-      <c r="T7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U7" t="n">
-        <v>12</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>56.7</v>
+        <v>70.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>45.5</v>
+        <v>46.2</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1284,101 +1284,101 @@
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897743</v>
+        <v>897745</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897745.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="U8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>36.4</v>
+        <v>57.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>41.7</v>
+        <v>61.4</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1398,124 +1398,124 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897732</v>
+        <v>897737</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K9" t="n">
         <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22</v>
+      </c>
+      <c r="U9" t="n">
+        <v>23</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y9" t="n">
         <v>19</v>
       </c>
-      <c r="T9" t="n">
-        <v>12</v>
-      </c>
-      <c r="U9" t="n">
-        <v>9</v>
-      </c>
-      <c r="V9" t="n">
-        <v>5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>61.1</v>
+        <v>53.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>57.1</v>
+        <v>48.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.8</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10">
@@ -1526,110 +1526,110 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897722</v>
+        <v>897721</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897722.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P10" t="n">
         <v>29</v>
       </c>
       <c r="Q10" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="V10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>46.8</v>
+        <v>55.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>37.5</v>
+        <v>35.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="11">
@@ -1640,98 +1640,98 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897713</v>
+        <v>897664</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897713.html</t>
+          <t>https://text.khl.ru/text/897664.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K11" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>63.8</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="n">
-        <v>43.9</v>
+        <v>56.2</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="12">
@@ -1754,87 +1754,87 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897749</v>
+        <v>897750</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897750.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K12" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13</v>
+      </c>
+      <c r="T12" t="n">
         <v>2</v>
       </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>30</v>
-      </c>
-      <c r="R12" t="n">
-        <v>11</v>
-      </c>
-      <c r="S12" t="n">
-        <v>15</v>
-      </c>
-      <c r="T12" t="n">
-        <v>6</v>
-      </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1842,22 +1842,22 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>54.5</v>
+        <v>59.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>54.5</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Амур</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1885,28 +1885,28 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
         <v>29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31</v>
       </c>
       <c r="K13" t="n">
         <v>60</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
@@ -1915,74 +1915,74 @@
         <v>6</v>
       </c>
       <c r="P13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="n">
         <v>30</v>
       </c>
-      <c r="Q13" t="n">
-        <v>24</v>
-      </c>
       <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
         <v>12</v>
       </c>
-      <c r="S13" t="n">
-        <v>11</v>
-      </c>
       <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
         <v>5</v>
       </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
       <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
         <v>5</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>3</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>14</v>
       </c>
-      <c r="Y13" t="n">
-        <v>3</v>
-      </c>
       <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
         <v>10</v>
       </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>55.6</v>
+        <v>44.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.3</v>
+        <v>16.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.4</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1991,69 +1991,69 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897731</v>
+        <v>897755</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R14" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
         <v>19</v>
       </c>
       <c r="U14" t="n">
+        <v>29</v>
+      </c>
+      <c r="V14" t="n">
+        <v>11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
         <v>12</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -2062,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2070,50 +2070,50 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>45.6</v>
+        <v>45.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>61.3</v>
+        <v>39.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897722</v>
+        <v>897748</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897722.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -2122,72 +2122,72 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
         <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9</v>
+      </c>
+      <c r="U15" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
         <v>11</v>
       </c>
-      <c r="T15" t="n">
-        <v>10</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
         <v>2</v>
       </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3</v>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>53.2</v>
+        <v>44.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>62.5</v>
+        <v>42.9</v>
       </c>
       <c r="AE15" t="n">
         <v>1</v>
@@ -2196,53 +2196,53 @@
         <v>0.25</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897709</v>
+        <v>897730</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897709.html</t>
+          <t>https://text.khl.ru/text/897730.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
       <c r="I16" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J16" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -2251,13 +2251,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -2266,97 +2266,97 @@
         <v>9</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T16" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>5</v>
       </c>
-      <c r="W16" t="n">
-        <v>6</v>
-      </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA16" t="n">
         <v>3</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>60.3</v>
+        <v>57.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>54.8</v>
+        <v>35.3</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897751</v>
+        <v>897726</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897726.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
         <v>36</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2365,160 +2365,160 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="S17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="n">
         <v>4</v>
       </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>5</v>
-      </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>43.3</v>
+        <v>50</v>
       </c>
       <c r="AD17" t="n">
-        <v>54.5</v>
+        <v>52.8</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897734</v>
+        <v>897664</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897664.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>67</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>4</v>
       </c>
-      <c r="I18" t="n">
-        <v>41</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19</v>
-      </c>
-      <c r="K18" t="n">
-        <v>60</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R18" t="n">
+        <v>17</v>
+      </c>
+      <c r="S18" t="n">
+        <v>17</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14</v>
+      </c>
+      <c r="U18" t="n">
         <v>18</v>
       </c>
-      <c r="S18" t="n">
-        <v>30</v>
-      </c>
-      <c r="T18" t="n">
-        <v>18</v>
-      </c>
-      <c r="U18" t="n">
-        <v>23</v>
-      </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>49.1</v>
+        <v>40</v>
       </c>
       <c r="AD18" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2538,53 +2538,53 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897719</v>
+        <v>897756</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897719.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K19" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2593,57 +2593,57 @@
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S19" t="n">
         <v>16</v>
       </c>
       <c r="T19" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="U19" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="n">
         <v>10</v>
       </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>44.4</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2652,167 +2652,167 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897712</v>
+        <v>897741</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K20" t="n">
         <v>61</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q20" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R20" t="n">
+        <v>15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21</v>
+      </c>
+      <c r="T20" t="n">
         <v>20</v>
       </c>
-      <c r="S20" t="n">
-        <v>24</v>
-      </c>
-      <c r="T20" t="n">
-        <v>22</v>
-      </c>
       <c r="U20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="n">
         <v>2</v>
       </c>
-      <c r="X20" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1</v>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>56.3</v>
+        <v>52.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>47.8</v>
+        <v>41.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897702</v>
+        <v>897733</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897702.html</t>
+          <t>https://text.khl.ru/text/897733.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K21" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2821,69 +2821,2457 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P21" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Q21" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R21" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S21" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="T21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>4</v>
       </c>
       <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897721</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897721.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>37</v>
+      </c>
+      <c r="K22" t="n">
+        <v>53</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>29</v>
+      </c>
+      <c r="R22" t="n">
+        <v>21</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17</v>
+      </c>
+      <c r="T22" t="n">
+        <v>29</v>
+      </c>
+      <c r="U22" t="n">
+        <v>16</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897713</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897713.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39</v>
+      </c>
+      <c r="K23" t="n">
+        <v>57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>37</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>12</v>
+      </c>
+      <c r="T23" t="n">
+        <v>23</v>
+      </c>
+      <c r="U23" t="n">
+        <v>18</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" t="n">
+        <v>71</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>34</v>
+      </c>
+      <c r="R24" t="n">
+        <v>23</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" t="n">
+        <v>31</v>
+      </c>
+      <c r="K25" t="n">
+        <v>55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>37</v>
+      </c>
+      <c r="R25" t="n">
+        <v>16</v>
+      </c>
+      <c r="S25" t="n">
+        <v>19</v>
+      </c>
+      <c r="T25" t="n">
+        <v>7</v>
+      </c>
+      <c r="U25" t="n">
+        <v>14</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897728</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897728.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>39</v>
+      </c>
+      <c r="K26" t="n">
+        <v>64</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>42</v>
+      </c>
+      <c r="R26" t="n">
+        <v>23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>20</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>39</v>
+      </c>
+      <c r="K27" t="n">
+        <v>72</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
         <v>30</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Q27" t="n">
+        <v>24</v>
+      </c>
+      <c r="R27" t="n">
+        <v>16</v>
+      </c>
+      <c r="S27" t="n">
+        <v>17</v>
+      </c>
+      <c r="T27" t="n">
+        <v>21</v>
+      </c>
+      <c r="U27" t="n">
+        <v>22</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897711</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897711.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22</v>
+      </c>
+      <c r="R28" t="n">
+        <v>15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14</v>
+      </c>
+      <c r="T28" t="n">
+        <v>16</v>
+      </c>
+      <c r="U28" t="n">
+        <v>17</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>46</v>
+      </c>
+      <c r="J29" t="n">
+        <v>25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>71</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>23</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897737</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897737.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="n">
+        <v>56</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>23</v>
+      </c>
+      <c r="U30" t="n">
+        <v>22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>62</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>23</v>
+      </c>
+      <c r="R31" t="n">
+        <v>10</v>
+      </c>
+      <c r="S31" t="n">
+        <v>23</v>
+      </c>
+      <c r="T31" t="n">
+        <v>31</v>
+      </c>
+      <c r="U31" t="n">
+        <v>38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
+        <v>80</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>32</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14</v>
+      </c>
+      <c r="T32" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" t="n">
+        <v>39</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4</v>
+      </c>
+      <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897699</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897699.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
         <v>26</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="K33" t="n">
+        <v>46</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>19</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>16</v>
+      </c>
+      <c r="U33" t="n">
+        <v>11</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897736</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897736.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J34" t="n">
+        <v>29</v>
+      </c>
+      <c r="K34" t="n">
+        <v>49</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>4</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>19</v>
+      </c>
+      <c r="S34" t="n">
+        <v>19</v>
+      </c>
+      <c r="T34" t="n">
+        <v>13</v>
+      </c>
+      <c r="U34" t="n">
+        <v>14</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
         <v>2</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="X34" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897728</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897728.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>39</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>64</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>12</v>
+      </c>
+      <c r="P35" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>29</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>23</v>
+      </c>
+      <c r="T35" t="n">
+        <v>20</v>
+      </c>
+      <c r="U35" t="n">
+        <v>12</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="AC35" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897720</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897720.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>24</v>
+      </c>
+      <c r="K36" t="n">
+        <v>48</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>24</v>
+      </c>
+      <c r="R36" t="n">
+        <v>17</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="n">
+        <v>17</v>
+      </c>
+      <c r="U36" t="n">
+        <v>34</v>
+      </c>
+      <c r="V36" t="n">
+        <v>9</v>
+      </c>
+      <c r="W36" t="n">
+        <v>8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897710</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897710.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>40</v>
+      </c>
+      <c r="J37" t="n">
+        <v>27</v>
+      </c>
+      <c r="K37" t="n">
+        <v>67</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>12</v>
+      </c>
+      <c r="P37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>21</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>19</v>
+      </c>
+      <c r="T37" t="n">
+        <v>27</v>
+      </c>
+      <c r="U37" t="n">
+        <v>14</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897757</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897757.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>40</v>
+      </c>
+      <c r="J38" t="n">
+        <v>29</v>
+      </c>
+      <c r="K38" t="n">
+        <v>69</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>28</v>
+      </c>
+      <c r="R38" t="n">
+        <v>15</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6</v>
+      </c>
+      <c r="U38" t="n">
+        <v>16</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897739</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897739.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19</v>
+      </c>
+      <c r="J39" t="n">
+        <v>37</v>
+      </c>
+      <c r="K39" t="n">
+        <v>56</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>29</v>
+      </c>
+      <c r="R39" t="n">
+        <v>14</v>
+      </c>
+      <c r="S39" t="n">
+        <v>9</v>
+      </c>
+      <c r="T39" t="n">
+        <v>33</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10</v>
+      </c>
+      <c r="V39" t="n">
+        <v>10</v>
+      </c>
+      <c r="W39" t="n">
+        <v>8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>29</v>
+      </c>
+      <c r="J40" t="n">
+        <v>33</v>
+      </c>
+      <c r="K40" t="n">
+        <v>62</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8</v>
+      </c>
+      <c r="P40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>25</v>
+      </c>
+      <c r="R40" t="n">
+        <v>23</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="n">
+        <v>38</v>
+      </c>
+      <c r="U40" t="n">
+        <v>31</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>9</v>
+      </c>
+      <c r="X40" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>30</v>
+      </c>
+      <c r="J41" t="n">
         <v>50</v>
       </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>2.6</v>
+      <c r="K41" t="n">
+        <v>80</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>38</v>
+      </c>
+      <c r="R41" t="n">
+        <v>14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>39</v>
+      </c>
+      <c r="U41" t="n">
+        <v>30</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897698</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897698.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>41</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>36</v>
+      </c>
+      <c r="R42" t="n">
+        <v>17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>22</v>
+      </c>
+      <c r="T42" t="n">
+        <v>20</v>
+      </c>
+      <c r="U42" t="n">
+        <v>17</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +5285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,353 +5438,793 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>27.4</v>
+        <v>37.6</v>
       </c>
       <c r="H2" t="n">
-        <v>42.3</v>
+        <v>166.8</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.7</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>31</v>
+        <v>25.8</v>
       </c>
       <c r="K2" t="n">
-        <v>76</v>
+        <v>87.20000000000002</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>-2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>16.6</v>
+        <v>14.2</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>45.60000000000001</v>
+        <v>46.94</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3799999999999997</v>
+        <v>-2.499999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.15</v>
+        <v>0.034</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.025</v>
+        <v>0.034</v>
       </c>
       <c r="S2" t="n">
-        <v>0.766</v>
+        <v>0.866</v>
       </c>
       <c r="T2" t="n">
-        <v>0.067</v>
+        <v>-0.03400000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.059999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.77</v>
+        <v>-0.3099999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35.6</v>
+        <v>30.8</v>
       </c>
       <c r="H3" t="n">
-        <v>11.3</v>
+        <v>18.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>21.8</v>
+        <v>27.8</v>
       </c>
       <c r="K3" t="n">
-        <v>10.2</v>
+        <v>47.7</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="M3" t="n">
-        <v>12.2</v>
+        <v>21.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7</v>
+        <v>-2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>52.96</v>
+        <v>59.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.459999999999999</v>
+        <v>-2.340000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1</v>
+        <v>0.094</v>
       </c>
       <c r="R3" t="n">
+        <v>0.01400000000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T3" t="n">
         <v>0.05</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.01100000000000001</v>
-      </c>
       <c r="U3" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="X3" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.54</v>
+        <v>10.56</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.43</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>29.4</v>
+        <v>32.5</v>
       </c>
       <c r="H4" t="n">
-        <v>64.8</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="J4" t="n">
-        <v>39.8</v>
+        <v>30.5</v>
       </c>
       <c r="K4" t="n">
-        <v>96.7</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.7</v>
+        <v>-3</v>
       </c>
       <c r="M4" t="n">
-        <v>11.4</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>-1</v>
       </c>
       <c r="O4" t="n">
-        <v>53.84</v>
+        <v>51.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9199999999999996</v>
+        <v>-14.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3179999999999999</v>
+        <v>0.165</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.04099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="S4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.05100000000000001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.1</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>2.2</v>
+        <v>-2</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.8</v>
+        <v>-2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.559999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.01</v>
+        <v>-2.100000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.6699999999999996</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.279999999999999</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1199999999999998</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-3.799999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.02599999999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="I7" t="n">
         <v>-0.1</v>
       </c>
-      <c r="G5" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44.69999999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="J7" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5925</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3303333333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="O5" t="n">
-        <v>50.04000000000001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.009999999999999998</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6839999999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.007999999999999997</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
         <v>2.8</v>
       </c>
-      <c r="V5" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AA5" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-0.6900000000000002</v>
+      <c r="F8" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.300000000000001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>22</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>52.67999999999999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.379999999999999</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>104.9166666666667</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.080000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.06599999999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8325</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.06699999999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>81.70000000000002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.399999999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-4.98</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.175</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.7799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -614,39 +614,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897755</v>
+        <v>897753</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -655,57 +655,57 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
         <v>33</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
+        <v>17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>41</v>
+      </c>
+      <c r="U2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="n">
-        <v>28</v>
-      </c>
-      <c r="T2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
         <v>3</v>
       </c>
-      <c r="AA2" t="n">
-        <v>5</v>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>54.1</v>
+        <v>47.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>60.4</v>
+        <v>57.7</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -728,36 +728,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897743</v>
+        <v>897741</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
         <v>61</v>
@@ -769,54 +769,54 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S3" t="n">
         <v>15</v>
       </c>
       <c r="T3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U3" t="n">
+        <v>20</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="n">
         <v>15</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="X3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>4</v>
       </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>63.6</v>
+        <v>47.4</v>
       </c>
       <c r="AD3" t="n">
         <v>58.3</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -842,338 +842,338 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897731</v>
+        <v>897734</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897734.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
         <v>41</v>
       </c>
       <c r="K4" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
         <v>6</v>
       </c>
-      <c r="O4" t="n">
-        <v>8</v>
-      </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>54.4</v>
+        <v>50.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>38.7</v>
+        <v>56.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.3</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897718</v>
+        <v>897727</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897718.html</t>
+          <t>https://text.khl.ru/text/897727.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>29</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
         <v>6</v>
       </c>
-      <c r="P5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>20</v>
-      </c>
-      <c r="R5" t="n">
-        <v>12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>22</v>
-      </c>
-      <c r="T5" t="n">
-        <v>27</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="AE5" t="n">
         <v>3</v>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
       <c r="AF5" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Авангард</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Барыс</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>897707</v>
+        <v>897718</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897718.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R6" t="n">
         <v>22</v>
       </c>
       <c r="S6" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z6" t="n">
         <v>3</v>
       </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>54.4</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="n">
-        <v>58.1</v>
+        <v>37.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>13.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -1184,99 +1184,99 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897753</v>
+        <v>897758</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897758.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>61</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32</v>
-      </c>
-      <c r="K7" t="n">
-        <v>84</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
+      <c r="R7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
-        <v>21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>33</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" t="n">
         <v>6</v>
       </c>
-      <c r="S7" t="n">
-        <v>17</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
+        <v>14</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AD7" t="n">
         <v>30</v>
       </c>
-      <c r="U7" t="n">
-        <v>41</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>42.3</v>
-      </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1298,110 +1298,107 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897745</v>
+        <v>897744</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897744.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K8" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>4</v>
       </c>
       <c r="P8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>35</v>
+      </c>
+      <c r="R8" t="n">
         <v>19</v>
       </c>
-      <c r="Q8" t="n">
-        <v>26</v>
-      </c>
-      <c r="R8" t="n">
-        <v>20</v>
-      </c>
       <c r="S8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="T8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>42.2</v>
+        <v>39.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>38.6</v>
+        <v>23.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="9">
@@ -1412,110 +1409,110 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897738</v>
+        <v>897739</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897738.html</t>
+          <t>https://text.khl.ru/text/897739.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
+        <v>37</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19</v>
+      </c>
+      <c r="K9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="n">
         <v>26</v>
       </c>
-      <c r="J9" t="n">
-        <v>34</v>
-      </c>
-      <c r="K9" t="n">
-        <v>60</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
+        <v>9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+      <c r="U9" t="n">
+        <v>33</v>
+      </c>
+      <c r="V9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z9" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>29</v>
-      </c>
-      <c r="S9" t="n">
-        <v>13</v>
-      </c>
-      <c r="T9" t="n">
-        <v>16</v>
-      </c>
-      <c r="U9" t="n">
-        <v>13</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8</v>
-      </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>56.6</v>
+        <v>52.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>55.2</v>
+        <v>23.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -1526,20 +1523,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897716</v>
+        <v>897717</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897716.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1549,64 +1546,64 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R10" t="n">
+        <v>16</v>
+      </c>
+      <c r="S10" t="n">
+        <v>18</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14</v>
+      </c>
+      <c r="U10" t="n">
+        <v>28</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
         <v>12</v>
       </c>
-      <c r="S10" t="n">
-        <v>23</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15</v>
-      </c>
-      <c r="U10" t="n">
-        <v>22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1614,227 +1611,227 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>65.5</v>
+        <v>53.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>40.5</v>
+        <v>33.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897706</v>
+        <v>897708</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897706.html</t>
+          <t>https://text.khl.ru/text/897708.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K11" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>20</v>
+      </c>
+      <c r="P11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>28</v>
+      </c>
+      <c r="R11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
+      <c r="S11" t="n">
+        <v>28</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6</v>
       </c>
-      <c r="P11" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>19</v>
-      </c>
-      <c r="R11" t="n">
-        <v>19</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="Z11" t="n">
         <v>9</v>
       </c>
-      <c r="T11" t="n">
-        <v>18</v>
-      </c>
-      <c r="U11" t="n">
-        <v>11</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="AA11" t="n">
         <v>5</v>
       </c>
-      <c r="X11" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>9</v>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>67.2</v>
+        <v>50</v>
       </c>
       <c r="AD11" t="n">
-        <v>62.1</v>
+        <v>6.7</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897759</v>
+        <v>897762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>59</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
         <v>21</v>
       </c>
-      <c r="K12" t="n">
-        <v>56</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8</v>
-      </c>
       <c r="P12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S12" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="T12" t="n">
+        <v>21</v>
+      </c>
+      <c r="U12" t="n">
         <v>17</v>
-      </c>
-      <c r="U12" t="n">
-        <v>16</v>
       </c>
       <c r="V12" t="n">
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1842,133 +1839,136 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>54.7</v>
+        <v>41.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>51.5</v>
+        <v>55.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.9</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897748</v>
+        <v>897752</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897752.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J13" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R13" t="n">
         <v>15</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
         <v>3</v>
       </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>55.1</v>
+        <v>57.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>57.1</v>
+        <v>55.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1979,110 +1979,110 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897735</v>
+        <v>897737</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897735.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>27</v>
+      </c>
+      <c r="K14" t="n">
+        <v>56</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>23</v>
+      </c>
+      <c r="U14" t="n">
+        <v>22</v>
+      </c>
+      <c r="V14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>24</v>
-      </c>
-      <c r="K14" t="n">
-        <v>75</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>27</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>28</v>
-      </c>
-      <c r="T14" t="n">
-        <v>15</v>
-      </c>
-      <c r="U14" t="n">
-        <v>20</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2</v>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>50</v>
+        <v>46.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>42.9</v>
+        <v>51.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH14" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="15">
@@ -2093,212 +2093,212 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897726</v>
+        <v>897729</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897726.html</t>
+          <t>https://text.khl.ru/text/897729.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K15" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R15" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="T15" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="V15" t="n">
+        <v>9</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="n">
         <v>3</v>
       </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="n">
         <v>3</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>5.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897715</v>
+        <v>897723</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897715.html</t>
+          <t>https://text.khl.ru/text/897723.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>24</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>43</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q16" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R16" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T16" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="U16" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
         <v>4</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>47.8</v>
+        <v>54.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>59.3</v>
+        <v>43.5</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2310,50 +2310,50 @@
         <v>0.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897760</v>
+        <v>897758</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897758.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K17" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2362,57 +2362,57 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S17" t="n">
         <v>9</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U17" t="n">
         <v>6</v>
       </c>
       <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="n">
         <v>2</v>
       </c>
-      <c r="W17" t="n">
-        <v>4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>4</v>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>40</v>
+        <v>46.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>53.8</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2424,95 +2424,95 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897751</v>
+        <v>897746</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897746.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K18" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Q18" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="R18" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA18" t="n">
         <v>1</v>
@@ -2523,71 +2523,68 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>43.3</v>
+        <v>69.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>54.5</v>
+        <v>66.7</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897734</v>
+        <v>897736</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897736.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>6</v>
@@ -2596,40 +2593,40 @@
         <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="n">
         <v>27</v>
       </c>
       <c r="R19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Z19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2637,10 +2634,10 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>49.1</v>
+        <v>54.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>43.9</v>
+        <v>51.9</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2649,112 +2646,112 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897719</v>
+        <v>897724</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897719.html</t>
+          <t>https://text.khl.ru/text/897724.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S20" t="n">
+        <v>21</v>
+      </c>
+      <c r="T20" t="n">
+        <v>12</v>
+      </c>
+      <c r="U20" t="n">
         <v>16</v>
-      </c>
-      <c r="T20" t="n">
-        <v>22</v>
-      </c>
-      <c r="U20" t="n">
-        <v>21</v>
       </c>
       <c r="V20" t="n">
         <v>5</v>
       </c>
       <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="n">
         <v>5</v>
       </c>
-      <c r="X20" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1</v>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>44.4</v>
+        <v>54.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>51.2</v>
+        <v>42.9</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2763,124 +2760,124 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>10.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897712</v>
+        <v>897715</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897715.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K21" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>2</v>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8</v>
-      </c>
       <c r="O21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R21" t="n">
         <v>20</v>
       </c>
       <c r="S21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T21" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
         <v>3</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z21" t="n">
         <v>2</v>
       </c>
-      <c r="X21" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>56.3</v>
+        <v>52.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>47.8</v>
+        <v>40.7</v>
       </c>
       <c r="AE21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.2</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -3047,353 +3044,353 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>32.8</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>125.7</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.9</v>
+        <v>0.6</v>
       </c>
       <c r="J2" t="n">
-        <v>34.4</v>
+        <v>37.6</v>
       </c>
       <c r="K2" t="n">
-        <v>34.8</v>
+        <v>124.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>-6</v>
       </c>
       <c r="M2" t="n">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2</v>
+        <v>-6.7</v>
       </c>
       <c r="O2" t="n">
-        <v>57.3</v>
+        <v>47.72</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3000000000000007</v>
+        <v>-1.049999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.166</v>
+        <v>0.236</v>
       </c>
       <c r="R2" t="n">
-        <v>0.083</v>
+        <v>0.09500000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8460000000000001</v>
+        <v>0.9339999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.009999999999999998</v>
+        <v>-0.06599999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="W2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>1.2</v>
+        <v>-3.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.26</v>
+        <v>9.320000000000002</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.19</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="E3" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>89.80000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.95999999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6300000000000004</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6675</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2209999999999999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>35</v>
-      </c>
-      <c r="H3" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>56.73999999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.8</v>
-      </c>
       <c r="Y3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.600000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.940000000000001</v>
+        <v>7.06</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.81</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>35.2</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>100.7</v>
+        <v>107.5</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.6</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>23.6</v>
+        <v>28.6</v>
       </c>
       <c r="K4" t="n">
-        <v>20.8</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>51.52</v>
+        <v>50.41999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.890000000000001</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="R4" t="n">
         <v>-0.02</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6875</v>
+        <v>0.794</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.04166666666666667</v>
+        <v>-0.08</v>
       </c>
       <c r="U4" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.720000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.81</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>26.4</v>
       </c>
       <c r="H5" t="n">
-        <v>34.5</v>
+        <v>20.8</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7</v>
+        <v>-2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>42.3</v>
+        <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1</v>
+        <v>-2.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>55.38</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.3299999999999997</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03299999999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
-        <v>46.62</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.05500000000000001</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6839999999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.2</v>
-      </c>
       <c r="X5" t="n">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.58</v>
+        <v>6.840000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.4</v>
+        <v>-0.6700000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,25 +609,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897753</v>
+        <v>897750</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897750.html</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -643,10 +643,10 @@
         <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -655,57 +655,57 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>47.8</v>
+        <v>40.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>57.7</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -728,87 +728,87 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897741</v>
+        <v>897742</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897742.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P3" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>27</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
         <v>6</v>
       </c>
-      <c r="P3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>30</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21</v>
-      </c>
-      <c r="S3" t="n">
-        <v>15</v>
-      </c>
-      <c r="T3" t="n">
-        <v>28</v>
-      </c>
-      <c r="U3" t="n">
-        <v>20</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>47.4</v>
+        <v>57.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>58.3</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
@@ -842,110 +842,110 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897734</v>
+        <v>897733</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897733.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36</v>
+      </c>
+      <c r="K4" t="n">
+        <v>71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23</v>
+      </c>
+      <c r="R4" t="n">
+        <v>17</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="W4" t="n">
         <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>26</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30</v>
-      </c>
-      <c r="S4" t="n">
-        <v>18</v>
-      </c>
-      <c r="T4" t="n">
-        <v>23</v>
-      </c>
-      <c r="U4" t="n">
-        <v>18</v>
-      </c>
-      <c r="V4" t="n">
-        <v>7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4</v>
       </c>
       <c r="X4" t="n">
         <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>50.9</v>
+        <v>58.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>56.1</v>
+        <v>68.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>21.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5">
@@ -956,12 +956,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Нефтехимик</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Барыс</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -973,40 +973,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
         <v>33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38</v>
       </c>
       <c r="K5" t="n">
         <v>71</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
-        <v>8</v>
-      </c>
       <c r="P5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="n">
         <v>32</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>29</v>
       </c>
       <c r="R5" t="n">
         <v>13</v>
@@ -1015,142 +1015,142 @@
         <v>13</v>
       </c>
       <c r="T5" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" t="n">
         <v>11</v>
       </c>
-      <c r="U5" t="n">
-        <v>8</v>
-      </c>
       <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
         <v>5</v>
       </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
       <c r="Z5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="n">
         <v>7</v>
       </c>
-      <c r="AA5" t="n">
-        <v>6</v>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>52.5</v>
+        <v>47.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>57.9</v>
+        <v>42.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897718</v>
+        <v>897712</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897718.html</t>
+          <t>https://text.khl.ru/text/897712.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>61</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
         <v>31</v>
       </c>
-      <c r="J6" t="n">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>52</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
+        <v>40</v>
+      </c>
+      <c r="R6" t="n">
+        <v>24</v>
+      </c>
+      <c r="S6" t="n">
         <v>20</v>
       </c>
-      <c r="P6" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>30</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
+        <v>24</v>
+      </c>
+      <c r="U6" t="n">
         <v>22</v>
       </c>
-      <c r="S6" t="n">
-        <v>12</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16</v>
-      </c>
-      <c r="U6" t="n">
-        <v>27</v>
-      </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1158,147 +1158,147 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>43.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>37.2</v>
+        <v>52.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897758</v>
+        <v>897768</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897758.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>27</v>
-      </c>
-      <c r="K7" t="n">
-        <v>61</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
-      </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="R7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="n">
         <v>20</v>
       </c>
-      <c r="T7" t="n">
-        <v>6</v>
-      </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2</v>
       </c>
-      <c r="AA7" t="n">
-        <v>7</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>53.8</v>
+        <v>40.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>47.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1307,30 +1307,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897744</v>
+        <v>897759</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897744.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
       <c r="I8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1342,54 +1342,54 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>39.7</v>
+        <v>54.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>23.7</v>
+        <v>51.5</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1398,145 +1398,145 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897739</v>
+        <v>897748</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897739.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30</v>
+      </c>
+      <c r="J9" t="n">
+        <v>31</v>
+      </c>
+      <c r="K9" t="n">
+        <v>61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>22</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9</v>
+      </c>
+      <c r="V9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>19</v>
-      </c>
-      <c r="K9" t="n">
-        <v>56</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2</v>
       </c>
-      <c r="O9" t="n">
-        <v>8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>26</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>14</v>
-      </c>
-      <c r="T9" t="n">
-        <v>10</v>
-      </c>
-      <c r="U9" t="n">
-        <v>33</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>4</v>
-      </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>52.7</v>
+        <v>55.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>23.3</v>
+        <v>57.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>13.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897717</v>
+        <v>897735</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897717.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1546,142 +1546,142 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24</v>
+      </c>
+      <c r="K10" t="n">
+        <v>75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>27</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>28</v>
-      </c>
-      <c r="J10" t="n">
-        <v>23</v>
-      </c>
-      <c r="K10" t="n">
-        <v>51</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>26</v>
-      </c>
-      <c r="R10" t="n">
-        <v>16</v>
-      </c>
-      <c r="S10" t="n">
-        <v>18</v>
-      </c>
-      <c r="T10" t="n">
-        <v>14</v>
-      </c>
-      <c r="U10" t="n">
-        <v>28</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
         <v>2</v>
       </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>5</v>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>53.6</v>
+        <v>50</v>
       </c>
       <c r="AD10" t="n">
-        <v>33.3</v>
+        <v>42.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897708</v>
+        <v>897726</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897708.html</t>
+          <t>https://text.khl.ru/text/897726.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P11" t="n">
         <v>28</v>
@@ -1690,45 +1690,45 @@
         <v>28</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="S11" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
         <v>5</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z11" t="n">
         <v>3</v>
       </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9</v>
-      </c>
       <c r="AA11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
         <v>50</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.7</v>
+        <v>47.2</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1737,238 +1737,226 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897762</v>
+        <v>897759</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R12" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="S12" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U12" t="n">
         <v>17</v>
       </c>
       <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="n">
         <v>4</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>41.9</v>
+        <v>45.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.1</v>
+        <v>48.5</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897752</v>
+        <v>897744</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897744.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>57.6</v>
+        <v>60.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
@@ -1979,20 +1967,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897737</v>
+        <v>897730</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897737.html</t>
+          <t>https://text.khl.ru/text/897730.html</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2002,111 +1990,111 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>39</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>34</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6</v>
+      </c>
+      <c r="V14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>27</v>
-      </c>
-      <c r="K14" t="n">
-        <v>56</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AH14" t="n">
         <v>8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>28</v>
-      </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>12</v>
-      </c>
-      <c r="T14" t="n">
-        <v>23</v>
-      </c>
-      <c r="U14" t="n">
-        <v>22</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC14" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897729</v>
+        <v>897725</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897729.html</t>
+          <t>https://text.khl.ru/text/897725.html</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2116,75 +2104,75 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K15" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="S15" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T15" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U15" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>52.1</v>
+        <v>42.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>44.9</v>
+        <v>67.5</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2193,226 +2181,226 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897723</v>
+        <v>897717</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897723.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>23</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28</v>
+      </c>
+      <c r="K16" t="n">
+        <v>51</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>30</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>16</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
         <v>5</v>
       </c>
-      <c r="I16" t="n">
-        <v>50</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="n">
-        <v>80</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>32</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>14</v>
-      </c>
-      <c r="T16" t="n">
-        <v>30</v>
-      </c>
-      <c r="U16" t="n">
-        <v>39</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" t="n">
         <v>1</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>54.3</v>
+        <v>46.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>43.5</v>
+        <v>66.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>4</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897758</v>
+        <v>897762</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897758.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>27</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>19</v>
+      </c>
+      <c r="T17" t="n">
+        <v>17</v>
+      </c>
+      <c r="U17" t="n">
+        <v>21</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>34</v>
-      </c>
-      <c r="K17" t="n">
-        <v>61</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
         <v>4</v>
       </c>
-      <c r="O17" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>28</v>
-      </c>
-      <c r="R17" t="n">
-        <v>20</v>
-      </c>
-      <c r="S17" t="n">
-        <v>9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>14</v>
-      </c>
-      <c r="U17" t="n">
-        <v>6</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>2</v>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>46.2</v>
+        <v>58.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>70</v>
+        <v>44.7</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2421,223 +2409,226 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897746</v>
+        <v>897754</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897746.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>31</v>
+      </c>
+      <c r="K18" t="n">
+        <v>61</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>17</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11</v>
+      </c>
+      <c r="S18" t="n">
+        <v>14</v>
+      </c>
+      <c r="T18" t="n">
         <v>24</v>
       </c>
-      <c r="K18" t="n">
-        <v>55</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
+        <v>28</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
         <v>16</v>
       </c>
-      <c r="R18" t="n">
-        <v>19</v>
-      </c>
-      <c r="S18" t="n">
-        <v>16</v>
-      </c>
-      <c r="T18" t="n">
-        <v>14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>69.8</v>
+        <v>70.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>66.7</v>
+        <v>46.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.67</v>
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897736</v>
+        <v>897745</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897736.html</t>
+          <t>https://text.khl.ru/text/897745.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J19" t="n">
+        <v>29</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19</v>
+      </c>
+      <c r="R19" t="n">
+        <v>21</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="n">
+        <v>27</v>
+      </c>
+      <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>29</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="X19" t="n">
         <v>20</v>
       </c>
-      <c r="K19" t="n">
-        <v>49</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>27</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="Y19" t="n">
         <v>19</v>
       </c>
-      <c r="S19" t="n">
-        <v>19</v>
-      </c>
-      <c r="T19" t="n">
-        <v>14</v>
-      </c>
-      <c r="U19" t="n">
-        <v>13</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>33</v>
-      </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
         <v>1</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>54.2</v>
+        <v>57.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>51.9</v>
+        <v>61.4</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2646,59 +2637,59 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897724</v>
+        <v>897737</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897724.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K20" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>8</v>
@@ -2707,106 +2698,106 @@
         <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="n">
+        <v>24</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="n">
+        <v>22</v>
+      </c>
+      <c r="U20" t="n">
+        <v>23</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
         <v>25</v>
       </c>
-      <c r="R20" t="n">
-        <v>25</v>
-      </c>
-      <c r="S20" t="n">
-        <v>21</v>
-      </c>
-      <c r="T20" t="n">
-        <v>12</v>
-      </c>
-      <c r="U20" t="n">
-        <v>16</v>
-      </c>
-      <c r="V20" t="n">
-        <v>5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>14</v>
-      </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>54.5</v>
+        <v>53.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>42.9</v>
+        <v>48.9</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897715</v>
+        <v>897721</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897715.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K21" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -2815,69 +2806,1203 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S21" t="n">
         <v>21</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U21" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>3</v>
       </c>
       <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
         <v>20</v>
       </c>
-      <c r="Y21" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="J22" t="n">
+        <v>55</v>
+      </c>
+      <c r="K22" t="n">
+        <v>75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>23</v>
+      </c>
+      <c r="R22" t="n">
+        <v>15</v>
+      </c>
+      <c r="S22" t="n">
+        <v>19</v>
+      </c>
+      <c r="T22" t="n">
+        <v>16</v>
+      </c>
+      <c r="U22" t="n">
+        <v>14</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>46</v>
+      </c>
+      <c r="K23" t="n">
+        <v>71</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>34</v>
+      </c>
+      <c r="R23" t="n">
+        <v>23</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>31</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>2</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>37</v>
+      </c>
+      <c r="R24" t="n">
+        <v>16</v>
+      </c>
+      <c r="S24" t="n">
+        <v>19</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>14</v>
+      </c>
+      <c r="V24" t="n">
         <v>2</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB24" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AC24" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897728</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897728.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>39</v>
+      </c>
+      <c r="K25" t="n">
+        <v>64</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>42</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>12</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33</v>
+      </c>
+      <c r="J26" t="n">
+        <v>39</v>
+      </c>
+      <c r="K26" t="n">
+        <v>72</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>17</v>
+      </c>
+      <c r="T26" t="n">
+        <v>21</v>
+      </c>
+      <c r="U26" t="n">
+        <v>22</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897764</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897764.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>43</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>31</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>17</v>
+      </c>
+      <c r="U27" t="n">
+        <v>14</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897757</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897757.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>29</v>
+      </c>
+      <c r="K28" t="n">
+        <v>69</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>28</v>
+      </c>
+      <c r="R28" t="n">
+        <v>15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>16</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897739</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897739.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
+      </c>
+      <c r="J29" t="n">
+        <v>37</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>29</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>33</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>29</v>
+      </c>
+      <c r="J30" t="n">
+        <v>33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>62</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>23</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="n">
+        <v>38</v>
+      </c>
+      <c r="U30" t="n">
+        <v>31</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9</v>
+      </c>
+      <c r="X30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" t="n">
+        <v>50</v>
+      </c>
+      <c r="K31" t="n">
+        <v>80</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>38</v>
+      </c>
+      <c r="R31" t="n">
+        <v>14</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>39</v>
+      </c>
+      <c r="U31" t="n">
+        <v>30</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AE31" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10.5</v>
+      <c r="AF31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +4016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,95 +4169,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>34.6</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>22.8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="n">
-        <v>37.6</v>
+        <v>32</v>
       </c>
       <c r="K2" t="n">
-        <v>124.3</v>
+        <v>21.5</v>
       </c>
       <c r="L2" t="n">
-        <v>-6</v>
+        <v>0.7</v>
       </c>
       <c r="M2" t="n">
-        <v>23.8</v>
+        <v>12.6</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.7</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>47.72</v>
+        <v>49.73999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.049999999999999</v>
+        <v>-0.4499999999999986</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.236</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09500000000000001</v>
+        <v>0.03299999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9339999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.06599999999999999</v>
+        <v>-0.105</v>
       </c>
       <c r="U2" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7</v>
+        <v>-1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.6</v>
+        <v>0.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.4</v>
+        <v>-0.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.320000000000002</v>
+        <v>5.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3142,255 +4267,431 @@
         <v>2.4</v>
       </c>
       <c r="D3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5999999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-3.2</v>
-      </c>
       <c r="J3" t="n">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="K3" t="n">
-        <v>89.80000000000001</v>
+        <v>27.8</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.2</v>
+        <v>-1.7</v>
       </c>
       <c r="M3" t="n">
-        <v>8.199999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>49.95999999999999</v>
+        <v>50.1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6300000000000004</v>
+        <v>1.389999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05</v>
+        <v>0.288</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0.176</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6675</v>
+        <v>0.5625</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2209999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="W3" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.06</v>
+        <v>7.18</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.04000000000000004</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>26.4</v>
       </c>
       <c r="H4" t="n">
-        <v>107.5</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>-1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>28.6</v>
+        <v>36.4</v>
       </c>
       <c r="K4" t="n">
-        <v>7.300000000000001</v>
+        <v>34.3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>50.41999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>-1.549999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02</v>
+        <v>-0.02499999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>0.794</v>
+        <v>0.8960000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.6</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.6</v>
+        <v>12.48</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>59.24000000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2.150000000000001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.06100000000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.005000000000000004</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.08000000000000007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>42</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="N6" t="n">
         <v>1.4</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7999999999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="O6" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.01999999999999957</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3036666666666667</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.03299999999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="J5" t="n">
-        <v>25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>55.38</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.3299999999999997</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.03299999999999999</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="W6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
         <v>-1</v>
       </c>
-      <c r="W5" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="G7" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U7" t="n">
         <v>4.8</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6.840000000000001</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-0.6700000000000002</v>
+      <c r="V7" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.3399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,92 +609,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897781</v>
+        <v>897790</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897790.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
         <v>11</v>
       </c>
-      <c r="T2" t="n">
-        <v>14</v>
-      </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,335 +702,341 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>39.3</v>
+        <v>55.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>56</v>
+        <v>34.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897771</v>
+        <v>897774</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897774.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+      <c r="K3" t="n">
+        <v>69</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>36</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>18</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18</v>
-      </c>
-      <c r="K3" t="n">
-        <v>56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>24</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>27</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>54.7</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>44.9</v>
+        <v>45.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897759</v>
+        <v>897761</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>21</v>
       </c>
       <c r="J4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
         <v>35</v>
       </c>
-      <c r="K4" t="n">
-        <v>56</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="S4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T4" t="n">
         <v>16</v>
       </c>
       <c r="U4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
         <v>4</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>45.3</v>
+        <v>42.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>48.5</v>
+        <v>55.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897744</v>
+        <v>897749</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897744.html</t>
+          <t>https://text.khl.ru/text/897749.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" t="n">
         <v>11</v>
       </c>
-      <c r="S5" t="n">
-        <v>19</v>
-      </c>
       <c r="T5" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1038,40 +1044,46 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>60.3</v>
+        <v>45.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>76.3</v>
+        <v>45.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897730</v>
+        <v>897742</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897730.html</t>
+          <t>https://text.khl.ru/text/897742.html</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1084,61 +1096,61 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" t="n">
         <v>64</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T6" t="n">
+        <v>8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1146,341 +1158,341 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>64.7</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.14</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897783</v>
+        <v>897788</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
+        <v>26</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>28</v>
+      </c>
+      <c r="R7" t="n">
         <v>21</v>
       </c>
-      <c r="K7" t="n">
-        <v>57</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>30</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11</v>
-      </c>
       <c r="S7" t="n">
+        <v>13</v>
+      </c>
+      <c r="T7" t="n">
+        <v>22</v>
+      </c>
+      <c r="U7" t="n">
+        <v>31</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
         <v>23</v>
       </c>
-      <c r="T7" t="n">
-        <v>27</v>
-      </c>
-      <c r="U7" t="n">
-        <v>20</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>49.2</v>
+        <v>54.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>57.4</v>
+        <v>41.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897772</v>
+        <v>897775</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P8" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>58</v>
+        <v>55.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>60.6</v>
+        <v>45.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897762</v>
+        <v>897761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="P9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V9" t="n">
         <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1488,113 +1500,113 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>58.1</v>
+        <v>57.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897754</v>
+        <v>897751</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897754.html</t>
+          <t>https://text.khl.ru/text/897751.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>26</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13</v>
+      </c>
+      <c r="S10" t="n">
+        <v>24</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
         <v>4</v>
       </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>17</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="X10" t="n">
         <v>11</v>
       </c>
-      <c r="S10" t="n">
-        <v>14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>24</v>
-      </c>
-      <c r="U10" t="n">
-        <v>28</v>
-      </c>
-      <c r="V10" t="n">
-        <v>7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1602,10 +1614,10 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>70.7</v>
+        <v>56.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1614,101 +1626,101 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897745</v>
+        <v>897743</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J11" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="R11" t="n">
+        <v>15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" t="n">
         <v>21</v>
       </c>
-      <c r="S11" t="n">
-        <v>20</v>
-      </c>
-      <c r="T11" t="n">
-        <v>27</v>
-      </c>
-      <c r="U11" t="n">
-        <v>17</v>
-      </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1716,10 +1728,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>57.8</v>
+        <v>36.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>61.4</v>
+        <v>41.7</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1728,101 +1740,101 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897783</v>
+        <v>897775</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26</v>
+      </c>
+      <c r="K12" t="n">
+        <v>49</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>36</v>
-      </c>
-      <c r="K12" t="n">
-        <v>57</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>29</v>
-      </c>
-      <c r="R12" t="n">
-        <v>23</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" t="n">
-        <v>20</v>
-      </c>
-      <c r="U12" t="n">
-        <v>27</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1830,10 +1842,10 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>50.8</v>
+        <v>44.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>42.6</v>
+        <v>54.5</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1842,112 +1854,112 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.3</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897763</v>
+        <v>897760</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897760.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R13" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>51.1</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="n">
-        <v>50</v>
+        <v>46.2</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1956,34 +1968,34 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897756</v>
+        <v>897749</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897756.html</t>
+          <t>https://text.khl.ru/text/897749.html</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1993,87 +2005,87 @@
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K14" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R14" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>51</v>
+        <v>54.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="15">
@@ -2084,87 +2096,87 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897741</v>
+        <v>897740</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897740.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K15" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P15" t="n">
         <v>30</v>
       </c>
       <c r="Q15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2172,10 +2184,10 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>52.6</v>
+        <v>55.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>41.7</v>
+        <v>83.3</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2184,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
@@ -2198,87 +2210,87 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897733</v>
+        <v>897731</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897731.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J16" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K16" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S16" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T16" t="n">
+        <v>19</v>
+      </c>
+      <c r="U16" t="n">
+        <v>12</v>
+      </c>
+      <c r="V16" t="n">
         <v>7</v>
       </c>
-      <c r="U16" t="n">
-        <v>15</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3</v>
-      </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2286,95 +2298,95 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>41.1</v>
+        <v>45.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>31.8</v>
+        <v>61.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897782</v>
+        <v>897787</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U17" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2383,16 +2395,16 @@
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2400,10 +2412,10 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>50</v>
+        <v>44.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>43.6</v>
+        <v>51.6</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2412,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="18">
@@ -2426,87 +2438,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897771</v>
+        <v>897773</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897773.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>30</v>
+      </c>
+      <c r="R18" t="n">
+        <v>15</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>20</v>
+      </c>
+      <c r="U18" t="n">
+        <v>20</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
         <v>18</v>
       </c>
-      <c r="J18" t="n">
-        <v>38</v>
-      </c>
-      <c r="K18" t="n">
-        <v>56</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>29</v>
-      </c>
-      <c r="R18" t="n">
-        <v>10</v>
-      </c>
-      <c r="S18" t="n">
-        <v>9</v>
-      </c>
-      <c r="T18" t="n">
-        <v>27</v>
-      </c>
-      <c r="U18" t="n">
-        <v>22</v>
-      </c>
-      <c r="V18" t="n">
-        <v>6</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>30</v>
-      </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2514,113 +2526,113 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>45.3</v>
+        <v>49.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>55.1</v>
+        <v>50</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>22.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897764</v>
+        <v>897768</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897764.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J19" t="n">
+        <v>33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
         <v>24</v>
       </c>
-      <c r="J19" t="n">
-        <v>43</v>
-      </c>
-      <c r="K19" t="n">
-        <v>67</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="Q19" t="n">
+        <v>35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>20</v>
+      </c>
+      <c r="U19" t="n">
+        <v>22</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>38</v>
-      </c>
-      <c r="R19" t="n">
-        <v>31</v>
-      </c>
-      <c r="S19" t="n">
-        <v>7</v>
-      </c>
-      <c r="T19" t="n">
-        <v>17</v>
-      </c>
-      <c r="U19" t="n">
-        <v>14</v>
-      </c>
-      <c r="V19" t="n">
-        <v>10</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9</v>
-      </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2628,22 +2640,22 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>30.9</v>
+        <v>40.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>54.8</v>
+        <v>47.6</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="20">
@@ -2654,87 +2666,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897757</v>
+        <v>897759</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897757.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
+        <v>21</v>
+      </c>
+      <c r="K20" t="n">
+        <v>56</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+      <c r="P20" t="n">
         <v>29</v>
       </c>
-      <c r="K20" t="n">
-        <v>69</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" t="n">
-        <v>36</v>
-      </c>
       <c r="Q20" t="n">
+        <v>24</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
         <v>28</v>
       </c>
-      <c r="R20" t="n">
-        <v>15</v>
-      </c>
-      <c r="S20" t="n">
-        <v>15</v>
-      </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
         <v>16</v>
       </c>
       <c r="V20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2742,10 +2754,10 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>56.2</v>
+        <v>54.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>27.3</v>
+        <v>51.5</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2753,54 +2765,51 @@
       <c r="AF20" t="n">
         <v>0</v>
       </c>
-      <c r="AG20" t="n">
-        <v>1</v>
-      </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897739</v>
+        <v>897748</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897739.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K21" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -2812,43 +2821,43 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="n">
+        <v>12</v>
+      </c>
+      <c r="U21" t="n">
         <v>9</v>
       </c>
-      <c r="T21" t="n">
-        <v>33</v>
-      </c>
-      <c r="U21" t="n">
-        <v>10</v>
-      </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2856,22 +2865,4570 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>47.3</v>
+        <v>55.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>76.7</v>
+        <v>57.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AG21" t="n">
         <v>0.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>21.1</v>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897785</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897785.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>42</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>24</v>
+      </c>
+      <c r="R22" t="n">
+        <v>12</v>
+      </c>
+      <c r="S22" t="n">
+        <v>13</v>
+      </c>
+      <c r="T22" t="n">
+        <v>15</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897778</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897778.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" t="n">
+        <v>34</v>
+      </c>
+      <c r="K23" t="n">
+        <v>61</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>40</v>
+      </c>
+      <c r="R23" t="n">
+        <v>25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>12</v>
+      </c>
+      <c r="T23" t="n">
+        <v>13</v>
+      </c>
+      <c r="U23" t="n">
+        <v>36</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="n">
+        <v>75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>28</v>
+      </c>
+      <c r="R24" t="n">
+        <v>19</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>16</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897757</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897757.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29</v>
+      </c>
+      <c r="J25" t="n">
+        <v>40</v>
+      </c>
+      <c r="K25" t="n">
+        <v>69</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>36</v>
+      </c>
+      <c r="R25" t="n">
+        <v>15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>16</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897747</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897747.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>49</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>63</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>23</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>18</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>49</v>
+      </c>
+      <c r="K27" t="n">
+        <v>82</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" t="n">
+        <v>17</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897780</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897780.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35</v>
+      </c>
+      <c r="J28" t="n">
+        <v>22</v>
+      </c>
+      <c r="K28" t="n">
+        <v>57</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>34</v>
+      </c>
+      <c r="R28" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" t="n">
+        <v>16</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897766</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897766.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>42</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>18</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>17</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>11</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09-11-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897750</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897750.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>34</v>
+      </c>
+      <c r="J30" t="n">
+        <v>32</v>
+      </c>
+      <c r="K30" t="n">
+        <v>66</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07-11-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897740</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897740.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>31</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>60</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>30</v>
+      </c>
+      <c r="R31" t="n">
+        <v>11</v>
+      </c>
+      <c r="S31" t="n">
+        <v>12</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897785</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897785.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20</v>
+      </c>
+      <c r="K32" t="n">
+        <v>42</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>35</v>
+      </c>
+      <c r="R32" t="n">
+        <v>13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
+      <c r="K33" t="n">
+        <v>49</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>13</v>
+      </c>
+      <c r="S33" t="n">
+        <v>20</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897769</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897769.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="n">
+        <v>52</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>29</v>
+      </c>
+      <c r="R34" t="n">
+        <v>21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>14</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8</v>
+      </c>
+      <c r="X34" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897758</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897758.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>34</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="n">
+        <v>61</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>24</v>
+      </c>
+      <c r="R35" t="n">
+        <v>9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" t="n">
+        <v>6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>14</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897744</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897744.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36</v>
+      </c>
+      <c r="J36" t="n">
+        <v>39</v>
+      </c>
+      <c r="K36" t="n">
+        <v>75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>35</v>
+      </c>
+      <c r="R36" t="n">
+        <v>19</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>29</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>17-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897781</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897781.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>54</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>47</v>
+      </c>
+      <c r="O37" t="n">
+        <v>29</v>
+      </c>
+      <c r="P37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>22</v>
+      </c>
+      <c r="R37" t="n">
+        <v>11</v>
+      </c>
+      <c r="S37" t="n">
+        <v>16</v>
+      </c>
+      <c r="T37" t="n">
+        <v>11</v>
+      </c>
+      <c r="U37" t="n">
+        <v>14</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897773</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897773.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>30</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24</v>
+      </c>
+      <c r="K38" t="n">
+        <v>54</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>29</v>
+      </c>
+      <c r="R38" t="n">
+        <v>12</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="n">
+        <v>20</v>
+      </c>
+      <c r="U38" t="n">
+        <v>20</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>20</v>
+      </c>
+      <c r="J39" t="n">
+        <v>55</v>
+      </c>
+      <c r="K39" t="n">
+        <v>75</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>23</v>
+      </c>
+      <c r="R39" t="n">
+        <v>15</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" t="n">
+        <v>16</v>
+      </c>
+      <c r="U39" t="n">
+        <v>14</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7</v>
+      </c>
+      <c r="X39" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+      <c r="J40" t="n">
+        <v>46</v>
+      </c>
+      <c r="K40" t="n">
+        <v>71</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>34</v>
+      </c>
+      <c r="R40" t="n">
+        <v>23</v>
+      </c>
+      <c r="S40" t="n">
+        <v>15</v>
+      </c>
+      <c r="T40" t="n">
+        <v>8</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>31</v>
+      </c>
+      <c r="K41" t="n">
+        <v>55</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>37</v>
+      </c>
+      <c r="R41" t="n">
+        <v>16</v>
+      </c>
+      <c r="S41" t="n">
+        <v>19</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7</v>
+      </c>
+      <c r="U41" t="n">
+        <v>14</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897787</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897787.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>28</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>19</v>
+      </c>
+      <c r="R42" t="n">
+        <v>12</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15</v>
+      </c>
+      <c r="T42" t="n">
+        <v>15</v>
+      </c>
+      <c r="U42" t="n">
+        <v>16</v>
+      </c>
+      <c r="V42" t="n">
+        <v>6</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897769</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897769.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>27</v>
+      </c>
+      <c r="J43" t="n">
+        <v>25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>52</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>12</v>
+      </c>
+      <c r="P43" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>22</v>
+      </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
+      <c r="S43" t="n">
+        <v>21</v>
+      </c>
+      <c r="T43" t="n">
+        <v>14</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897762</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897762.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>27</v>
+      </c>
+      <c r="J44" t="n">
+        <v>32</v>
+      </c>
+      <c r="K44" t="n">
+        <v>59</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>11</v>
+      </c>
+      <c r="O44" t="n">
+        <v>21</v>
+      </c>
+      <c r="P44" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>36</v>
+      </c>
+      <c r="R44" t="n">
+        <v>19</v>
+      </c>
+      <c r="S44" t="n">
+        <v>18</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>46</v>
+      </c>
+      <c r="J45" t="n">
+        <v>25</v>
+      </c>
+      <c r="K45" t="n">
+        <v>71</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="n">
+        <v>15</v>
+      </c>
+      <c r="S45" t="n">
+        <v>23</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10</v>
+      </c>
+      <c r="U45" t="n">
+        <v>8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897737</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897737.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>27</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8</v>
+      </c>
+      <c r="P46" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>28</v>
+      </c>
+      <c r="R46" t="n">
+        <v>15</v>
+      </c>
+      <c r="S46" t="n">
+        <v>12</v>
+      </c>
+      <c r="T46" t="n">
+        <v>23</v>
+      </c>
+      <c r="U46" t="n">
+        <v>22</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>6</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897788</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897788.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>34</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>8</v>
+      </c>
+      <c r="P47" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>34</v>
+      </c>
+      <c r="R47" t="n">
+        <v>13</v>
+      </c>
+      <c r="S47" t="n">
+        <v>21</v>
+      </c>
+      <c r="T47" t="n">
+        <v>31</v>
+      </c>
+      <c r="U47" t="n">
+        <v>22</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897779</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897779.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>43</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43</v>
+      </c>
+      <c r="K48" t="n">
+        <v>86</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>31</v>
+      </c>
+      <c r="R48" t="n">
+        <v>15</v>
+      </c>
+      <c r="S48" t="n">
+        <v>11</v>
+      </c>
+      <c r="T48" t="n">
+        <v>44</v>
+      </c>
+      <c r="U48" t="n">
+        <v>33</v>
+      </c>
+      <c r="V48" t="n">
+        <v>8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897764</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897764.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>43</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>67</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>11</v>
+      </c>
+      <c r="P49" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>17</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7</v>
+      </c>
+      <c r="S49" t="n">
+        <v>31</v>
+      </c>
+      <c r="T49" t="n">
+        <v>14</v>
+      </c>
+      <c r="U49" t="n">
+        <v>17</v>
+      </c>
+      <c r="V49" t="n">
+        <v>9</v>
+      </c>
+      <c r="W49" t="n">
+        <v>10</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897754</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897754.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>41</v>
+      </c>
+      <c r="R50" t="n">
+        <v>14</v>
+      </c>
+      <c r="S50" t="n">
+        <v>11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>28</v>
+      </c>
+      <c r="U50" t="n">
+        <v>24</v>
+      </c>
+      <c r="V50" t="n">
+        <v>8</v>
+      </c>
+      <c r="W50" t="n">
+        <v>7</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897736</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897736.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>20</v>
+      </c>
+      <c r="J51" t="n">
+        <v>29</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>32</v>
+      </c>
+      <c r="R51" t="n">
+        <v>19</v>
+      </c>
+      <c r="S51" t="n">
+        <v>19</v>
+      </c>
+      <c r="T51" t="n">
+        <v>13</v>
+      </c>
+      <c r="U51" t="n">
+        <v>14</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>49</v>
+      </c>
+      <c r="J52" t="n">
+        <v>33</v>
+      </c>
+      <c r="K52" t="n">
+        <v>82</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>19</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>17</v>
+      </c>
+      <c r="T52" t="n">
+        <v>15</v>
+      </c>
+      <c r="U52" t="n">
+        <v>10</v>
+      </c>
+      <c r="V52" t="n">
+        <v>7</v>
+      </c>
+      <c r="W52" t="n">
+        <v>6</v>
+      </c>
+      <c r="X52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12</v>
+      </c>
+      <c r="O53" t="n">
+        <v>12</v>
+      </c>
+      <c r="P53" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11</v>
+      </c>
+      <c r="S53" t="n">
+        <v>19</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18</v>
+      </c>
+      <c r="U53" t="n">
+        <v>15</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>13-11-2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>897767</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897767.html</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>21</v>
+      </c>
+      <c r="K54" t="n">
+        <v>56</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>34</v>
+      </c>
+      <c r="R54" t="n">
+        <v>14</v>
+      </c>
+      <c r="S54" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" t="n">
+        <v>20</v>
+      </c>
+      <c r="U54" t="n">
+        <v>28</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>11-11-2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>897760</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897760.html</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>36</v>
+      </c>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
+      <c r="K55" t="n">
+        <v>63</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>27</v>
+      </c>
+      <c r="R55" t="n">
+        <v>17</v>
+      </c>
+      <c r="S55" t="n">
+        <v>9</v>
+      </c>
+      <c r="T55" t="n">
+        <v>7</v>
+      </c>
+      <c r="U55" t="n">
+        <v>6</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2</v>
+      </c>
+      <c r="W55" t="n">
+        <v>4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>09-11-2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>897751</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897751.html</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>36</v>
+      </c>
+      <c r="K56" t="n">
+        <v>62</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8</v>
+      </c>
+      <c r="P56" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>34</v>
+      </c>
+      <c r="R56" t="n">
+        <v>24</v>
+      </c>
+      <c r="S56" t="n">
+        <v>13</v>
+      </c>
+      <c r="T56" t="n">
+        <v>12</v>
+      </c>
+      <c r="U56" t="n">
+        <v>10</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>897786</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897786.html</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25</v>
+      </c>
+      <c r="K57" t="n">
+        <v>40</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10</v>
+      </c>
+      <c r="P57" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="n">
+        <v>17</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>22</v>
+      </c>
+      <c r="U57" t="n">
+        <v>19</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3</v>
+      </c>
+      <c r="W57" t="n">
+        <v>5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
+        <v>22</v>
+      </c>
+      <c r="K58" t="n">
+        <v>49</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>8</v>
+      </c>
+      <c r="P58" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>23</v>
+      </c>
+      <c r="R58" t="n">
+        <v>20</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>897770</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897770.html</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" t="n">
+        <v>55</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>30</v>
+      </c>
+      <c r="R59" t="n">
+        <v>18</v>
+      </c>
+      <c r="S59" t="n">
+        <v>26</v>
+      </c>
+      <c r="T59" t="n">
+        <v>15</v>
+      </c>
+      <c r="U59" t="n">
+        <v>29</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>897758</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897758.html</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>27</v>
+      </c>
+      <c r="J60" t="n">
+        <v>34</v>
+      </c>
+      <c r="K60" t="n">
+        <v>61</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4</v>
+      </c>
+      <c r="P60" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>28</v>
+      </c>
+      <c r="R60" t="n">
+        <v>20</v>
+      </c>
+      <c r="S60" t="n">
+        <v>9</v>
+      </c>
+      <c r="T60" t="n">
+        <v>14</v>
+      </c>
+      <c r="U60" t="n">
+        <v>6</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>5</v>
+      </c>
+      <c r="X60" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>24</v>
+      </c>
+      <c r="K61" t="n">
+        <v>55</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>6</v>
+      </c>
+      <c r="P61" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>16</v>
+      </c>
+      <c r="R61" t="n">
+        <v>19</v>
+      </c>
+      <c r="S61" t="n">
+        <v>16</v>
+      </c>
+      <c r="T61" t="n">
+        <v>14</v>
+      </c>
+      <c r="U61" t="n">
+        <v>7</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2</v>
+      </c>
+      <c r="X61" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>12.9</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +7442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3038,183 +7595,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="E2" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>45.26000000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2.169999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z2" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>71.30000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.40000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.06750000000000002</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-7.9</v>
-      </c>
       <c r="AA2" t="n">
-        <v>9.98</v>
+        <v>10.64</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.9199999999999999</v>
+        <v>-3.699999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="E3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L3" t="n">
         <v>-0.1</v>
       </c>
-      <c r="F3" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.6</v>
-      </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="O3" t="n">
-        <v>58.76000000000001</v>
+        <v>52.19999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>2.989999999999999</v>
+        <v>-3.549999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.08</v>
+        <v>-0.017</v>
       </c>
       <c r="S3" t="n">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.05</v>
+        <v>0.025</v>
       </c>
       <c r="U3" t="n">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>-4.4</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
         <v>-0.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>14.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.6</v>
+        <v>0.3999999999999996</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.859999999999999</v>
+        <v>8.479999999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.33</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3227,164 +7784,868 @@
         <v>2.4</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>46.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>29.4</v>
+        <v>35.6</v>
       </c>
       <c r="K4" t="n">
-        <v>37.3</v>
+        <v>58.3</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.6</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>15.2</v>
+        <v>8.4</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>49.32</v>
+        <v>52.06</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.789999999999999</v>
+        <v>-0.2399999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8140000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="T4" t="n">
-        <v>0.113</v>
+        <v>-0.04899999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.6</v>
+        <v>-0.8000000000000002</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.2</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2.41</v>
+        <v>-0.3099999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.009999999999999998</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.2583333333333334</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>229</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>114</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-2.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.000000000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02600000000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.06599999999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28</v>
+      </c>
+      <c r="K8" t="n">
+        <v>47</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.7599999999999995</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>36</v>
+      </c>
+      <c r="K9" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.06000000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-5.199999999999999</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.299999999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>51.67999999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1.849999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8939999999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.8</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="V10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>26</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.310000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="U11" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>69.69999999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.4</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27</v>
-      </c>
-      <c r="H5" t="n">
-        <v>93</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>45.94</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="M12" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>50.23999999999999</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-5.480000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.279999999999999</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AA5" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.92</v>
+      <c r="G13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-3.13</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -7608,10 +7608,10 @@
         <v>2.8</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3</v>
+        <v>1.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G2" t="n">
         <v>29.2</v>
@@ -7620,7 +7620,7 @@
         <v>51.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
         <v>35.8</v>
@@ -7629,55 +7629,55 @@
         <v>14.7</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="M2" t="n">
         <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.6</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
         <v>45.26000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.169999999999999</v>
+        <v>2.169999999999999</v>
       </c>
       <c r="Q2" t="n">
         <v>0.234</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.017</v>
+        <v>0.017</v>
       </c>
       <c r="S2" t="n">
         <v>0.8099999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="U2" t="n">
         <v>3.6</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.1</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" t="n">
         <v>5.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" t="n">
         <v>10.64</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.699999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -7696,10 +7696,10 @@
         <v>1.8</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="G3" t="n">
         <v>33.2</v>
@@ -7708,7 +7708,7 @@
         <v>18.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="J3" t="n">
         <v>24</v>
@@ -7717,55 +7717,55 @@
         <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M3" t="n">
         <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="O3" t="n">
-        <v>52.19999999999999</v>
+        <v>52.2</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.549999999999999</v>
+        <v>3.549999999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>0.05600000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.017</v>
+        <v>0.017</v>
       </c>
       <c r="S3" t="n">
         <v>0.9</v>
       </c>
       <c r="T3" t="n">
-        <v>0.025</v>
+        <v>-0.025</v>
       </c>
       <c r="U3" t="n">
         <v>7.4</v>
       </c>
       <c r="V3" t="n">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="Y3" t="n">
         <v>14.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3999999999999996</v>
+        <v>-0.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.479999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.14</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -7784,10 +7784,10 @@
         <v>2.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>30.6</v>
@@ -7796,7 +7796,7 @@
         <v>46.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>-3.8</v>
       </c>
       <c r="J4" t="n">
         <v>35.6</v>
@@ -7805,55 +7805,55 @@
         <v>58.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="M4" t="n">
         <v>8.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="O4" t="n">
         <v>52.06</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2399999999999999</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="Q4" t="n">
         <v>0.234</v>
       </c>
       <c r="R4" t="n">
-        <v>0.134</v>
+        <v>-0.134</v>
       </c>
       <c r="S4" t="n">
         <v>0.85</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.04899999999999999</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="U4" t="n">
         <v>5.6</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.8000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" t="n">
         <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="AA4" t="n">
         <v>6.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.3099999999999999</v>
+        <v>0.3099999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -7872,7 +7872,7 @@
         <v>3.6</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7884,64 +7884,64 @@
         <v>16.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="J5" t="n">
         <v>29.2</v>
       </c>
       <c r="K5" t="n">
-        <v>22.2</v>
+        <v>22.20000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="M5" t="n">
         <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.1</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>48.78</v>
+        <v>48.77999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>2.73</v>
+        <v>-2.73</v>
       </c>
       <c r="Q5" t="n">
         <v>0.34</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.009999999999999998</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="S5" t="n">
         <v>0.6875</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.2583333333333334</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="U5" t="n">
         <v>2.6</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="W5" t="n">
         <v>4.4</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" t="n">
         <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="AA5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.04</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -7960,10 +7960,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="G6" t="n">
         <v>36</v>
@@ -7972,7 +7972,7 @@
         <v>229</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="J6" t="n">
         <v>26</v>
@@ -7981,55 +7981,55 @@
         <v>114</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>14</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="O6" t="n">
         <v>49.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>-1.43</v>
       </c>
       <c r="Q6" t="n">
         <v>0.05</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="S6" t="n">
         <v>0.9419999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>0.029</v>
+        <v>-0.029</v>
       </c>
       <c r="U6" t="n">
         <v>5.8</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="Y6" t="n">
         <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="AA6" t="n">
         <v>13.16</v>
       </c>
       <c r="AB6" t="n">
-        <v>-2.87</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7">
@@ -8048,10 +8048,10 @@
         <v>2.6</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>35</v>
@@ -8060,7 +8060,7 @@
         <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>29.2</v>
@@ -8069,55 +8069,55 @@
         <v>170.7</v>
       </c>
       <c r="L7" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>5.2</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
         <v>48.56</v>
       </c>
       <c r="P7" t="n">
-        <v>3.000000000000001</v>
+        <v>-3.000000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.318</v>
+        <v>0.3179999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02600000000000001</v>
+        <v>-0.026</v>
       </c>
       <c r="S7" t="n">
         <v>0.834</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06599999999999999</v>
+        <v>-0.06599999999999999</v>
       </c>
       <c r="U7" t="n">
         <v>7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="W7" t="n">
         <v>5.2</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="Y7" t="n">
         <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AA7" t="n">
         <v>11.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.16</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -8136,10 +8136,10 @@
         <v>2.4</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
         <v>27.8</v>
@@ -8148,7 +8148,7 @@
         <v>45.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="J8" t="n">
         <v>28</v>
@@ -8157,55 +8157,55 @@
         <v>47</v>
       </c>
       <c r="L8" t="n">
-        <v>3.8</v>
+        <v>-3.8</v>
       </c>
       <c r="M8" t="n">
         <v>6.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="O8" t="n">
         <v>44.3</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7599999999999995</v>
+        <v>-0.7599999999999995</v>
       </c>
       <c r="Q8" t="n">
         <v>0.134</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.067</v>
+        <v>0.067</v>
       </c>
       <c r="S8" t="n">
         <v>0.855</v>
       </c>
       <c r="T8" t="n">
-        <v>0.042</v>
+        <v>0.01400000000000001</v>
       </c>
       <c r="U8" t="n">
         <v>4.2</v>
       </c>
       <c r="V8" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
         <v>6.4</v>
       </c>
       <c r="X8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>4.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="AA8" t="n">
         <v>12.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>-3.24</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="9">
@@ -8224,10 +8224,10 @@
         <v>4.6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G9" t="n">
         <v>25.8</v>
@@ -8236,7 +8236,7 @@
         <v>18.2</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
       <c r="J9" t="n">
         <v>36</v>
@@ -8245,55 +8245,55 @@
         <v>193.5</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>-3.6</v>
       </c>
       <c r="M9" t="n">
         <v>12.4</v>
       </c>
       <c r="N9" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>47.8</v>
       </c>
       <c r="P9" t="n">
-        <v>-6.94</v>
+        <v>6.94</v>
       </c>
       <c r="Q9" t="n">
         <v>0.05</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06000000000000001</v>
+        <v>-0.04666666666666668</v>
       </c>
       <c r="S9" t="n">
         <v>0.748</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.066</v>
+        <v>0.066</v>
       </c>
       <c r="U9" t="n">
         <v>3.8</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="W9" t="n">
         <v>14.6</v>
       </c>
       <c r="X9" t="n">
-        <v>-8.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>-5.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AA9" t="n">
         <v>3.74</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.53</v>
+        <v>-0.5299999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -8312,10 +8312,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G10" t="n">
         <v>32</v>
@@ -8324,7 +8324,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="J10" t="n">
         <v>27.4</v>
@@ -8333,55 +8333,55 @@
         <v>8.299999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="M10" t="n">
         <v>16.6</v>
       </c>
       <c r="N10" t="n">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>51.67999999999999</v>
+        <v>51.68000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.849999999999999</v>
+        <v>1.849999999999999</v>
       </c>
       <c r="Q10" t="n">
         <v>0.136</v>
       </c>
       <c r="R10" t="n">
-        <v>0.017</v>
+        <v>-0.017</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8939999999999999</v>
+        <v>0.8940000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.08599999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="U10" t="n">
         <v>2.8</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="W10" t="n">
         <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="AA10" t="n">
         <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.01</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="11">
@@ -8400,10 +8400,10 @@
         <v>2.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="G11" t="n">
         <v>32.6</v>
@@ -8412,7 +8412,7 @@
         <v>105.3</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
         <v>32</v>
@@ -8421,55 +8421,55 @@
         <v>50.5</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.3</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
         <v>26</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.2</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
         <v>46.6</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.310000000000001</v>
+        <v>1.310000000000001</v>
       </c>
       <c r="Q11" t="n">
         <v>0.16</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="S11" t="n">
         <v>0.866</v>
       </c>
       <c r="T11" t="n">
-        <v>0.067</v>
+        <v>-0.067</v>
       </c>
       <c r="U11" t="n">
         <v>14.6</v>
       </c>
       <c r="V11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>5.4</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="AA11" t="n">
         <v>7.32</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.42</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="12">
@@ -8488,10 +8488,10 @@
         <v>2.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>37.2</v>
@@ -8500,7 +8500,7 @@
         <v>69.69999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>29.2</v>
@@ -8509,55 +8509,55 @@
         <v>33.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="M12" t="n">
         <v>14.4</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.7</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
         <v>50.23999999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>-5.480000000000001</v>
+        <v>5.480000000000001</v>
       </c>
       <c r="Q12" t="n">
         <v>0.182</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.016</v>
+        <v>0.016</v>
       </c>
       <c r="S12" t="n">
         <v>0.766</v>
       </c>
       <c r="T12" t="n">
-        <v>0.017</v>
+        <v>-0.017</v>
       </c>
       <c r="U12" t="n">
         <v>5.4</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="W12" t="n">
         <v>8.4</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="Y12" t="n">
         <v>7.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AA12" t="n">
         <v>6.279999999999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.39</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="13">
@@ -8576,10 +8576,10 @@
         <v>1.6</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="G13" t="n">
         <v>25.6</v>
@@ -8588,7 +8588,7 @@
         <v>37.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>-3.2</v>
       </c>
       <c r="J13" t="n">
         <v>26.4</v>
@@ -8597,55 +8597,55 @@
         <v>21.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M13" t="n">
         <v>14.4</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="O13" t="n">
-        <v>52.62</v>
+        <v>52.61999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>3.42</v>
+        <v>-3.42</v>
       </c>
       <c r="Q13" t="n">
         <v>0.414</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05400000000000001</v>
+        <v>-0.05400000000000001</v>
       </c>
       <c r="S13" t="n">
         <v>0.7875</v>
       </c>
       <c r="T13" t="n">
-        <v>0.121</v>
+        <v>-0.183</v>
       </c>
       <c r="U13" t="n">
         <v>4.2</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="W13" t="n">
         <v>4.6</v>
       </c>
       <c r="X13" t="n">
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="Y13" t="n">
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="AA13" t="n">
         <v>13.04</v>
       </c>
       <c r="AB13" t="n">
-        <v>-3.13</v>
+        <v>3.13</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -609,44 +609,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897796</v>
+        <v>897789</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897796.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -655,57 +655,57 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
         <v>12</v>
       </c>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>64</v>
+        <v>66.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -713,22 +713,19 @@
       <c r="AF2" t="n">
         <v>0</v>
       </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
       <c r="AH2" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -737,189 +734,189 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897788</v>
+        <v>897779</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897788.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>24</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>33</v>
+      </c>
+      <c r="U3" t="n">
+        <v>44</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>28</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>31</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>54.8</v>
+        <v>56.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>41.5</v>
+        <v>42.9</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897775</v>
+        <v>897767</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897767.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35</v>
+      </c>
+      <c r="K4" t="n">
+        <v>56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14</v>
+      </c>
+      <c r="T4" t="n">
+        <v>28</v>
+      </c>
+      <c r="U4" t="n">
+        <v>20</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
         <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7</v>
       </c>
       <c r="AA4" t="n">
         <v>4</v>
@@ -930,227 +927,227 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>55.4</v>
+        <v>52.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>45.5</v>
+        <v>58.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897761</v>
+        <v>897755</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>69</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="P5" t="n">
         <v>33</v>
       </c>
-      <c r="J5" t="n">
-        <v>21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>54</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>35</v>
-      </c>
-      <c r="P5" t="n">
-        <v>30</v>
-      </c>
       <c r="Q5" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="T5" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="U5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
         <v>3</v>
       </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
       <c r="AA5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>57.7</v>
+        <v>54.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>44.8</v>
+        <v>60.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Адмирал</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Трактор</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>897751</v>
+        <v>897743</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="U6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
         <v>4</v>
       </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
       <c r="AA6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1158,10 +1155,10 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>56.7</v>
+        <v>63.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>45.5</v>
+        <v>58.3</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1170,101 +1167,101 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897793</v>
+        <v>897799</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>48</v>
-      </c>
-      <c r="K7" t="n">
-        <v>72</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1272,341 +1269,341 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>46.2</v>
+        <v>40.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897775</v>
+        <v>897786</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
         <v>25</v>
       </c>
       <c r="Q8" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="U8" t="n">
+        <v>22</v>
+      </c>
+      <c r="V8" t="n">
         <v>5</v>
       </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
       <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z8" t="n">
         <v>5</v>
       </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH8" t="n">
         <v>4</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC8" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897760</v>
+        <v>897778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
+        <v>34</v>
+      </c>
+      <c r="J9" t="n">
         <v>27</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>22</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="n">
         <v>36</v>
       </c>
-      <c r="K9" t="n">
-        <v>63</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>13</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
         <v>6</v>
       </c>
-      <c r="O9" t="n">
-        <v>8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>18</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>17</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="AA9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>60</v>
+        <v>64.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>46.2</v>
+        <v>73.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AG9" t="n">
         <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897749</v>
+        <v>897768</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
+        <v>17</v>
+      </c>
+      <c r="T10" t="n">
+        <v>22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="T10" t="n">
-        <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1614,124 +1611,124 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>54.5</v>
+        <v>59.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>54.5</v>
+        <v>52.4</v>
       </c>
       <c r="AE10" t="n">
         <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897740</v>
+        <v>897753</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897740.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>52</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32</v>
+      </c>
+      <c r="K11" t="n">
+        <v>84</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>21</v>
+      </c>
+      <c r="P11" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17</v>
+      </c>
+      <c r="T11" t="n">
+        <v>30</v>
+      </c>
+      <c r="U11" t="n">
+        <v>41</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J11" t="n">
-        <v>31</v>
-      </c>
-      <c r="K11" t="n">
-        <v>60</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>24</v>
-      </c>
-      <c r="R11" t="n">
-        <v>12</v>
-      </c>
-      <c r="S11" t="n">
-        <v>11</v>
-      </c>
-      <c r="T11" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10</v>
-      </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>55.6</v>
+        <v>52.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>83.3</v>
+        <v>42.3</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1740,101 +1737,101 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897798</v>
+        <v>897800</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897798.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R12" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="S12" t="n">
         <v>19</v>
       </c>
       <c r="T12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
         <v>3</v>
       </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1842,46 +1839,46 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>46.8</v>
+        <v>57.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>46.4</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>26.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897785</v>
+        <v>897782</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897785.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1891,16 +1888,16 @@
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K13" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1909,160 +1906,160 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S13" t="n">
         <v>13</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>59.3</v>
+        <v>50</v>
       </c>
       <c r="AD13" t="n">
-        <v>75</v>
+        <v>56.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897778</v>
+        <v>897772</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897772.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
         <v>27</v>
       </c>
-      <c r="J14" t="n">
-        <v>34</v>
-      </c>
       <c r="K14" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P14" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
         <v>40</v>
       </c>
       <c r="R14" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="S14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T14" t="n">
         <v>13</v>
       </c>
       <c r="U14" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2070,124 +2067,124 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>35.5</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
-        <v>26.5</v>
+        <v>39.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>25.9</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897765</v>
+        <v>897750</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897765.html</t>
+          <t>https://text.khl.ru/text/897750.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>34</v>
+      </c>
+      <c r="K15" t="n">
+        <v>66</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>29</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
         <v>7</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>55</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20</v>
-      </c>
-      <c r="K15" t="n">
-        <v>75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>28</v>
-      </c>
-      <c r="R15" t="n">
-        <v>19</v>
-      </c>
-      <c r="S15" t="n">
-        <v>15</v>
-      </c>
-      <c r="T15" t="n">
-        <v>14</v>
-      </c>
-      <c r="U15" t="n">
-        <v>16</v>
-      </c>
-      <c r="V15" t="n">
-        <v>7</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>18</v>
-      </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>45.1</v>
+        <v>40.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>46.7</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2199,121 +2196,121 @@
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897757</v>
+        <v>897742</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897757.html</t>
+          <t>https://text.khl.ru/text/897742.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J16" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K16" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
+        <v>12</v>
+      </c>
+      <c r="P16" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>27</v>
+      </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>11</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="P16" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>36</v>
-      </c>
-      <c r="R16" t="n">
-        <v>15</v>
-      </c>
-      <c r="S16" t="n">
-        <v>15</v>
-      </c>
-      <c r="T16" t="n">
-        <v>16</v>
-      </c>
-      <c r="U16" t="n">
-        <v>6</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
       <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
         <v>3</v>
       </c>
-      <c r="AA16" t="n">
-        <v>5</v>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>43.8</v>
+        <v>57.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>72.7</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17">
@@ -2324,12 +2321,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Локомотив</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Драконы</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2341,28 +2338,28 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
       <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
         <v>49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14</v>
       </c>
       <c r="K17" t="n">
         <v>63</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>6</v>
@@ -2371,63 +2368,63 @@
         <v>6</v>
       </c>
       <c r="P17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="n">
         <v>39</v>
       </c>
-      <c r="Q17" t="n">
-        <v>18</v>
-      </c>
       <c r="R17" t="n">
+        <v>23</v>
+      </c>
+      <c r="S17" t="n">
         <v>13</v>
       </c>
-      <c r="S17" t="n">
-        <v>23</v>
-      </c>
       <c r="T17" t="n">
+        <v>29</v>
+      </c>
+      <c r="U17" t="n">
         <v>26</v>
       </c>
-      <c r="U17" t="n">
-        <v>29</v>
-      </c>
       <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
         <v>5</v>
       </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
       <c r="X17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="n">
         <v>16</v>
       </c>
-      <c r="Y17" t="n">
-        <v>36</v>
-      </c>
       <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
         <v>4</v>
       </c>
-      <c r="AA17" t="n">
-        <v>1</v>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>68.40000000000001</v>
+        <v>31.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>47.3</v>
+        <v>52.7</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="18">
@@ -2438,87 +2435,87 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897783</v>
+        <v>897781</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>29</v>
+      </c>
+      <c r="O18" t="n">
+        <v>47</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34</v>
+      </c>
+      <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>21</v>
-      </c>
-      <c r="K18" t="n">
-        <v>57</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>30</v>
-      </c>
-      <c r="R18" t="n">
-        <v>11</v>
-      </c>
-      <c r="S18" t="n">
-        <v>23</v>
-      </c>
-      <c r="T18" t="n">
-        <v>27</v>
-      </c>
-      <c r="U18" t="n">
-        <v>20</v>
-      </c>
-      <c r="V18" t="n">
-        <v>8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>3</v>
-      </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2526,22 +2523,22 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>49.2</v>
+        <v>39.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>57.4</v>
+        <v>56</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
@@ -2552,87 +2549,87 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897772</v>
+        <v>897771</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>4</v>
       </c>
       <c r="I19" t="n">
+        <v>38</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>24</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="n">
+        <v>22</v>
+      </c>
+      <c r="U19" t="n">
         <v>27</v>
       </c>
-      <c r="J19" t="n">
-        <v>31</v>
-      </c>
-      <c r="K19" t="n">
-        <v>58</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>29</v>
-      </c>
-      <c r="R19" t="n">
-        <v>13</v>
-      </c>
-      <c r="S19" t="n">
-        <v>17</v>
-      </c>
-      <c r="T19" t="n">
-        <v>20</v>
-      </c>
-      <c r="U19" t="n">
-        <v>13</v>
-      </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2640,110 +2637,110 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>58</v>
+        <v>54.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>60.6</v>
+        <v>44.9</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897762</v>
+        <v>897759</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K20" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>29</v>
+      </c>
+      <c r="R20" t="n">
+        <v>28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>12</v>
+      </c>
+      <c r="T20" t="n">
+        <v>16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
         <v>11</v>
       </c>
-      <c r="P20" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>26</v>
-      </c>
-      <c r="R20" t="n">
-        <v>18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>19</v>
-      </c>
-      <c r="T20" t="n">
-        <v>17</v>
-      </c>
-      <c r="U20" t="n">
-        <v>21</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>9</v>
-      </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
         <v>4</v>
@@ -2754,65 +2751,59 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>58.1</v>
+        <v>45.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897754</v>
+        <v>897744</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897754.html</t>
+          <t>https://text.khl.ru/text/897744.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J21" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K21" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2824,43 +2815,43 @@
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T21" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U21" t="n">
+        <v>9</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
         <v>28</v>
       </c>
-      <c r="V21" t="n">
-        <v>7</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>19</v>
-      </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2868,188 +2859,176 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>70.7</v>
+        <v>60.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="AG21" t="n">
         <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897794</v>
+        <v>897789</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897794.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>38</v>
+      </c>
+      <c r="K22" t="n">
+        <v>61</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>63</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>34</v>
+      </c>
+      <c r="R22" t="n">
+        <v>25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="n">
+        <v>9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>22</v>
+      </c>
+      <c r="V22" t="n">
         <v>3</v>
       </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>14</v>
-      </c>
-      <c r="P22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>40</v>
-      </c>
-      <c r="R22" t="n">
-        <v>16</v>
-      </c>
-      <c r="S22" t="n">
-        <v>18</v>
-      </c>
-      <c r="T22" t="n">
-        <v>5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>18</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>7</v>
       </c>
-      <c r="W22" t="n">
-        <v>6</v>
-      </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>40.3</v>
+        <v>33.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.43</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897784</v>
+        <v>897776</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897784.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J23" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K23" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
         <v>6</v>
@@ -3058,48 +3037,48 @@
         <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="R23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S23" t="n">
+        <v>13</v>
+      </c>
+      <c r="T23" t="n">
+        <v>12</v>
+      </c>
+      <c r="U23" t="n">
+        <v>13</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
         <v>8</v>
       </c>
-      <c r="T23" t="n">
-        <v>10</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>6</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AA23" t="n">
         <v>7</v>
       </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>4</v>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>38.8</v>
+        <v>32.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3108,101 +3087,101 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>12.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Металлург Мг</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>СКА</t>
-        </is>
-      </c>
       <c r="D24" t="n">
-        <v>897780</v>
+        <v>897766</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897780.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>42</v>
+      </c>
+      <c r="K24" t="n">
+        <v>56</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
         <v>4</v>
       </c>
-      <c r="I24" t="n">
-        <v>35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>22</v>
-      </c>
-      <c r="K24" t="n">
-        <v>57</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>10</v>
-      </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q24" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="R24" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="S24" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="n">
         <v>5</v>
       </c>
-      <c r="V24" t="n">
-        <v>4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3</v>
-      </c>
-      <c r="X24" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8</v>
-      </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -3210,113 +3189,113 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="n">
-        <v>66.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.6</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897766</v>
+        <v>897756</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K25" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
       </c>
       <c r="O25" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>26</v>
+      </c>
+      <c r="R25" t="n">
+        <v>16</v>
+      </c>
+      <c r="S25" t="n">
+        <v>18</v>
+      </c>
+      <c r="T25" t="n">
+        <v>14</v>
+      </c>
+      <c r="U25" t="n">
+        <v>14</v>
+      </c>
+      <c r="V25" t="n">
         <v>7</v>
       </c>
-      <c r="P25" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>18</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="W25" t="n">
         <v>4</v>
       </c>
-      <c r="S25" t="n">
-        <v>17</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>11</v>
-      </c>
-      <c r="V25" t="n">
-        <v>4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3</v>
-      </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3324,113 +3303,113 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AD25" t="n">
-        <v>21.4</v>
+        <v>50</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.86</v>
+        <v>0.2</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>14.3</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897750</v>
+        <v>897747</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897750.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>49</v>
+      </c>
+      <c r="K26" t="n">
+        <v>63</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>34</v>
-      </c>
-      <c r="J26" t="n">
-        <v>32</v>
-      </c>
-      <c r="K26" t="n">
-        <v>66</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>8</v>
       </c>
       <c r="P26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="R26" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3438,10 +3417,10 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>59.2</v>
+        <v>37.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3453,50 +3432,50 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897795</v>
+        <v>897799</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J27" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K27" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -3505,46 +3484,46 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q27" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R27" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S27" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3552,10 +3531,10 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>28.3</v>
+        <v>50</v>
       </c>
       <c r="AD27" t="n">
-        <v>40</v>
+        <v>59.5</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -3567,98 +3546,98 @@
         <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897781</v>
+        <v>897790</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897790.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J28" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K28" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P28" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R28" t="n">
+        <v>14</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13</v>
+      </c>
+      <c r="T28" t="n">
+        <v>21</v>
+      </c>
+      <c r="U28" t="n">
         <v>11</v>
       </c>
-      <c r="S28" t="n">
-        <v>16</v>
-      </c>
-      <c r="T28" t="n">
-        <v>11</v>
-      </c>
-      <c r="U28" t="n">
-        <v>14</v>
-      </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Z28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3666,124 +3645,124 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>60.7</v>
+        <v>44.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>44</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897773</v>
+        <v>897776</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J29" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K29" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>19</v>
+      </c>
+      <c r="R29" t="n">
+        <v>13</v>
+      </c>
+      <c r="S29" t="n">
+        <v>16</v>
+      </c>
+      <c r="T29" t="n">
+        <v>13</v>
+      </c>
+      <c r="U29" t="n">
+        <v>12</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA29" t="n">
         <v>8</v>
       </c>
-      <c r="O29" t="n">
-        <v>4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>12</v>
-      </c>
-      <c r="S29" t="n">
-        <v>15</v>
-      </c>
-      <c r="T29" t="n">
-        <v>20</v>
-      </c>
-      <c r="U29" t="n">
-        <v>20</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>50.8</v>
+        <v>67.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3792,112 +3771,112 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897765</v>
+        <v>897770</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897765.html</t>
+          <t>https://text.khl.ru/text/897770.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
         <v>55</v>
       </c>
-      <c r="K30" t="n">
-        <v>75</v>
-      </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" t="n">
         <v>23</v>
       </c>
       <c r="R30" t="n">
+        <v>26</v>
+      </c>
+      <c r="S30" t="n">
+        <v>18</v>
+      </c>
+      <c r="T30" t="n">
+        <v>29</v>
+      </c>
+      <c r="U30" t="n">
         <v>15</v>
-      </c>
-      <c r="S30" t="n">
-        <v>19</v>
-      </c>
-      <c r="T30" t="n">
-        <v>16</v>
-      </c>
-      <c r="U30" t="n">
-        <v>14</v>
       </c>
       <c r="V30" t="n">
         <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>54.9</v>
+        <v>56.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>53.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3906,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="31">
@@ -3920,84 +3899,84 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897752</v>
+        <v>897753</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>32</v>
+      </c>
+      <c r="J31" t="n">
+        <v>52</v>
+      </c>
+      <c r="K31" t="n">
+        <v>84</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>21</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>36</v>
+      </c>
+      <c r="R31" t="n">
+        <v>17</v>
+      </c>
+      <c r="S31" t="n">
         <v>6</v>
       </c>
-      <c r="I31" t="n">
+      <c r="T31" t="n">
+        <v>41</v>
+      </c>
+      <c r="U31" t="n">
+        <v>30</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6</v>
+      </c>
+      <c r="X31" t="n">
         <v>25</v>
       </c>
-      <c r="J31" t="n">
-        <v>46</v>
-      </c>
-      <c r="K31" t="n">
-        <v>71</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>10</v>
-      </c>
-      <c r="P31" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>34</v>
-      </c>
-      <c r="R31" t="n">
-        <v>23</v>
-      </c>
-      <c r="S31" t="n">
-        <v>15</v>
-      </c>
-      <c r="T31" t="n">
-        <v>8</v>
-      </c>
-      <c r="U31" t="n">
-        <v>10</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3</v>
-      </c>
-      <c r="X31" t="n">
-        <v>23</v>
-      </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
         <v>3</v>
@@ -4008,113 +3987,113 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>42.4</v>
+        <v>47.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>44.4</v>
+        <v>57.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897797</v>
+        <v>897800</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897797.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>31</v>
+      </c>
+      <c r="K32" t="n">
+        <v>58</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O32" t="n">
+        <v>12</v>
+      </c>
+      <c r="P32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>37</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14</v>
+      </c>
+      <c r="T32" t="n">
+        <v>11</v>
+      </c>
+      <c r="U32" t="n">
+        <v>9</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
         <v>3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>33</v>
-      </c>
-      <c r="J32" t="n">
-        <v>30</v>
-      </c>
-      <c r="K32" t="n">
-        <v>63</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>10</v>
-      </c>
-      <c r="P32" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>27</v>
-      </c>
-      <c r="R32" t="n">
-        <v>6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>17</v>
-      </c>
-      <c r="T32" t="n">
-        <v>19</v>
-      </c>
-      <c r="U32" t="n">
-        <v>26</v>
-      </c>
-      <c r="V32" t="n">
-        <v>16</v>
-      </c>
-      <c r="W32" t="n">
-        <v>15</v>
-      </c>
-      <c r="X32" t="n">
-        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>14</v>
       </c>
       <c r="Z32" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -4122,164 +4101,164 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>57.1</v>
+        <v>42.2</v>
       </c>
       <c r="AD32" t="n">
-        <v>42.2</v>
+        <v>55</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897787</v>
+        <v>897792</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
         <v>31</v>
       </c>
-      <c r="J33" t="n">
-        <v>28</v>
-      </c>
       <c r="K33" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
         <v>8</v>
       </c>
       <c r="P33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R33" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U33" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="V33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>55.8</v>
+        <v>39.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>48.4</v>
+        <v>35.7</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>12.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897769</v>
+        <v>897783</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897769.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -4288,58 +4267,58 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
+        <v>21</v>
+      </c>
+      <c r="J34" t="n">
+        <v>36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>57</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>29</v>
+      </c>
+      <c r="R34" t="n">
+        <v>23</v>
+      </c>
+      <c r="S34" t="n">
+        <v>11</v>
+      </c>
+      <c r="T34" t="n">
+        <v>20</v>
+      </c>
+      <c r="U34" t="n">
         <v>27</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>52</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>12</v>
-      </c>
-      <c r="P34" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>22</v>
-      </c>
-      <c r="R34" t="n">
-        <v>10</v>
-      </c>
-      <c r="S34" t="n">
-        <v>21</v>
-      </c>
-      <c r="T34" t="n">
-        <v>14</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>8</v>
       </c>
       <c r="W34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Z34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>3</v>
@@ -4350,22 +4329,22 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>56.9</v>
+        <v>50.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>87.5</v>
+        <v>42.6</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH34" t="n">
-        <v>11.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="35">
@@ -4376,110 +4355,110 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897762</v>
+        <v>897763</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J35" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K35" t="n">
         <v>59</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q35" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T35" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>41.9</v>
+        <v>51.1</v>
       </c>
       <c r="AD35" t="n">
-        <v>55.3</v>
+        <v>50</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH35" t="n">
-        <v>11.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="36">
@@ -4490,39 +4469,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897752</v>
+        <v>897756</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K36" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -4534,54 +4513,54 @@
         <v>10</v>
       </c>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P36" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
       </c>
       <c r="R36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S36" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T36" t="n">
+        <v>14</v>
+      </c>
+      <c r="U36" t="n">
+        <v>14</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7</v>
+      </c>
+      <c r="X36" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="n">
         <v>10</v>
       </c>
-      <c r="U36" t="n">
-        <v>8</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>3</v>
-      </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>57.6</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>55.6</v>
+        <v>50</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -4593,109 +4572,109 @@
         <v>0.8</v>
       </c>
       <c r="AH36" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897792</v>
+        <v>897796</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
         <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>14</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" t="n">
         <v>12</v>
       </c>
-      <c r="P37" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3</v>
+      </c>
+      <c r="X37" t="n">
         <v>21</v>
       </c>
-      <c r="R37" t="n">
-        <v>13</v>
-      </c>
-      <c r="S37" t="n">
-        <v>18</v>
-      </c>
-      <c r="T37" t="n">
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
         <v>36</v>
       </c>
-      <c r="U37" t="n">
-        <v>20</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC37" t="n">
-        <v>60.4</v>
-      </c>
       <c r="AD37" t="n">
-        <v>64.3</v>
+        <v>29.4</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4704,53 +4683,53 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897782</v>
+        <v>897785</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K38" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4759,57 +4738,57 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P38" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R38" t="n">
         <v>13</v>
       </c>
       <c r="S38" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T38" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U38" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
         <v>6</v>
       </c>
       <c r="Z38" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>50</v>
+        <v>40.7</v>
       </c>
       <c r="AD38" t="n">
-        <v>43.6</v>
+        <v>25</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -4818,34 +4797,34 @@
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897771</v>
+        <v>897777</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897777.html</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4855,61 +4834,61 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J39" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K39" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>6</v>
       </c>
       <c r="P39" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q39" t="n">
         <v>29</v>
       </c>
       <c r="R39" t="n">
+        <v>13</v>
+      </c>
+      <c r="S39" t="n">
+        <v>20</v>
+      </c>
+      <c r="T39" t="n">
         <v>10</v>
       </c>
-      <c r="S39" t="n">
-        <v>9</v>
-      </c>
-      <c r="T39" t="n">
-        <v>27</v>
-      </c>
       <c r="U39" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA39" t="n">
         <v>5</v>
@@ -4920,124 +4899,124 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>45.3</v>
+        <v>44.2</v>
       </c>
       <c r="AD39" t="n">
-        <v>55.1</v>
+        <v>58.8</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897764</v>
+        <v>897769</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897764.html</t>
+          <t>https://text.khl.ru/text/897769.html</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
       <c r="I40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K40" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O40" t="n">
         <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q40" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="R40" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="S40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T40" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
         <v>14</v>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X40" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AA40" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>30.9</v>
+        <v>43.1</v>
       </c>
       <c r="AD40" t="n">
-        <v>54.8</v>
+        <v>12.5</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -5046,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AH40" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -5060,39 +5039,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897757</v>
+        <v>897758</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897757.html</t>
+          <t>https://text.khl.ru/text/897758.html</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J41" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5101,46 +5080,46 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q41" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R41" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T41" t="n">
         <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V41" t="n">
         <v>5</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Y41" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Z41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -5148,10 +5127,10 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>56.2</v>
+        <v>53.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>27.3</v>
+        <v>30</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5163,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5309,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5340,695 +5319,695 @@
         <v>2.6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>31.8</v>
+        <v>33.8</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2</v>
+        <v>111.7</v>
       </c>
       <c r="I2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="L2" t="n">
         <v>-1.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.3</v>
-      </c>
       <c r="M2" t="n">
-        <v>12.4</v>
+        <v>26.6</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="O2" t="n">
-        <v>57.72000000000001</v>
+        <v>58.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.169999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05600000000000001</v>
+        <v>0.334</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.011</v>
+        <v>0.06699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9</v>
+        <v>0.9175</v>
       </c>
       <c r="T2" t="n">
-        <v>0.025</v>
+        <v>-0.03299999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.8</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>-4.5</v>
+        <v>0.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.739999999999998</v>
+        <v>8.08</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.1399999999999998</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.2</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>16.2</v>
+        <v>102.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>25.6</v>
       </c>
       <c r="K3" t="n">
-        <v>69.5</v>
+        <v>39.8</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>24.8</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4</v>
+        <v>-2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>49.6</v>
+        <v>55.62</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.450000000000001</v>
+        <v>-1.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3</v>
+        <v>0.294</v>
       </c>
       <c r="R3" t="n">
-        <v>0.15</v>
+        <v>-0.08199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.85</v>
+        <v>0.654</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.001000000000000012</v>
+        <v>-0.005999999999999994</v>
       </c>
       <c r="U3" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="V3" t="n">
-        <v>-2.1</v>
+        <v>-0.1</v>
       </c>
       <c r="W3" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.4</v>
+        <v>-0.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.98</v>
+        <v>9.080000000000002</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.279999999999999</v>
+        <v>-0.7200000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="E4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>32.4</v>
       </c>
       <c r="H4" t="n">
-        <v>214</v>
+        <v>20.3</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.5</v>
+        <v>-2.2</v>
       </c>
       <c r="J4" t="n">
-        <v>32.6</v>
+        <v>29.2</v>
       </c>
       <c r="K4" t="n">
-        <v>133.8</v>
+        <v>20.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="M4" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>46.1</v>
+        <v>49.67999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>0.9200000000000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.25</v>
+        <v>0.334</v>
       </c>
       <c r="R4" t="n">
-        <v>0.225</v>
+        <v>0.06599999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>0.876</v>
+        <v>0.9</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.06599999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="U4" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.42</v>
+        <v>7.42</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.55</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>34.8</v>
+        <v>27.2</v>
       </c>
       <c r="H5" t="n">
-        <v>73.7</v>
+        <v>119.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>-4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>24.8</v>
+        <v>33.6</v>
       </c>
       <c r="K5" t="n">
-        <v>53.2</v>
+        <v>125.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-4</v>
+        <v>2.1</v>
       </c>
       <c r="M5" t="n">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>1.4</v>
+        <v>-0.2</v>
       </c>
       <c r="O5" t="n">
-        <v>60.88</v>
+        <v>46.24</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.349999999999999</v>
+        <v>-6.339999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08</v>
+        <v>0.2433333333333333</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8140000000000001</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.05599999999999999</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.4</v>
+        <v>-0.7</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.860000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.2100000000000001</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>34.2</v>
+        <v>20.8</v>
       </c>
       <c r="H6" t="n">
-        <v>28.7</v>
+        <v>50.7</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>30.6</v>
+        <v>40.4</v>
       </c>
       <c r="K6" t="n">
-        <v>179.8</v>
+        <v>38.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4.3</v>
+        <v>-1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>12.8</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>-2</v>
       </c>
       <c r="O6" t="n">
-        <v>47.73999999999999</v>
+        <v>38.56</v>
       </c>
       <c r="P6" t="n">
-        <v>-5.900000000000001</v>
+        <v>-2.500000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.338</v>
+        <v>0.175</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>0.634</v>
+        <v>0.8280000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.183</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="V6" t="n">
         <v>0.7</v>
       </c>
       <c r="W6" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.1</v>
+        <v>-2</v>
       </c>
       <c r="AA6" t="n">
-        <v>13.06</v>
+        <v>12.98</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.12</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>24.6</v>
+        <v>32</v>
       </c>
       <c r="H7" t="n">
-        <v>30.8</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
         <v>-0.4</v>
       </c>
       <c r="J7" t="n">
-        <v>37.6</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>186.3</v>
+        <v>93.5</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.5</v>
+        <v>-3.7</v>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>25.8</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1</v>
+        <v>-3.999999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>47.42</v>
+        <v>53.26000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.239999999999999</v>
+        <v>-0.7499999999999993</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.106</v>
+        <v>0.1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.026</v>
+        <v>0.083</v>
       </c>
       <c r="S7" t="n">
-        <v>0.882</v>
+        <v>0.7</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.008999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="U7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
       <c r="W7" t="n">
-        <v>14.6</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>-3.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.08</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9399999999999998</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="E8" t="n">
         <v>-0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>32.8</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>61.19999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.2</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="K8" t="n">
-        <v>9.5</v>
+        <v>25.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O8" t="n">
-        <v>53.86</v>
+        <v>46.94</v>
       </c>
       <c r="P8" t="n">
-        <v>1.29</v>
+        <v>-2.909999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.126</v>
+        <v>0.05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03000000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="S8" t="n">
-        <v>0.96</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.07299999999999998</v>
       </c>
       <c r="U8" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="V8" t="n">
-        <v>2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>-1.3</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.44</v>
+        <v>7.480000000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.6</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.4</v>
       </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
       <c r="E9" t="n">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>-1.1</v>
       </c>
-      <c r="G9" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>73.80000000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0.8</v>
-      </c>
       <c r="J9" t="n">
-        <v>33.6</v>
+        <v>26.2</v>
       </c>
       <c r="K9" t="n">
-        <v>43.3</v>
+        <v>13.7</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.3</v>
+        <v>-0.1</v>
       </c>
       <c r="M9" t="n">
-        <v>22</v>
+        <v>5.6</v>
       </c>
       <c r="N9" t="n">
-        <v>6.7</v>
+        <v>0.1</v>
       </c>
       <c r="O9" t="n">
-        <v>48.56</v>
+        <v>43.56</v>
       </c>
       <c r="P9" t="n">
-        <v>2.749999999999999</v>
+        <v>-3.799999999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.578</v>
+        <v>0.884</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.095</v>
+        <v>0.007999999999999997</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="V9" t="n">
-        <v>-1.2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.82</v>
+        <v>12.48</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.6599999999999999</v>
+        <v>2.22</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,10 +605,3422 @@
           <t>SH_pct</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>_order_in_team</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>897804</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897804.html</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K2" t="n">
+        <v>69</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14</v>
+      </c>
+      <c r="U2" t="n">
+        <v>33</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>72</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>38</v>
+      </c>
+      <c r="R3" t="n">
+        <v>32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>897775</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897775.html</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11-11-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>897760</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897760.html</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36</v>
+      </c>
+      <c r="K5" t="n">
+        <v>63</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>18</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>09-11-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>897749</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897749.html</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>897795</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897795.html</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>32</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>897787</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897787.html</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>59</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>897773</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897773.html</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30</v>
+      </c>
+      <c r="K9" t="n">
+        <v>54</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U9" t="n">
+        <v>20</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13-11-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>897768</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897768.html</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20</v>
+      </c>
+      <c r="U10" t="n">
+        <v>22</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>897759</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897759.html</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>24</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12</v>
+      </c>
+      <c r="S11" t="n">
+        <v>28</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" t="n">
+        <v>16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>897804</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897804.html</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21</v>
+      </c>
+      <c r="K12" t="n">
+        <v>69</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>13</v>
+      </c>
+      <c r="S12" t="n">
+        <v>26</v>
+      </c>
+      <c r="T12" t="n">
+        <v>33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19-11-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>897791</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897791.html</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>23</v>
+      </c>
+      <c r="T13" t="n">
+        <v>26</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17-11-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>897783</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897783.html</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>57</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>30</v>
+      </c>
+      <c r="R14" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23</v>
+      </c>
+      <c r="T14" t="n">
+        <v>27</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>897772</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897772.html</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>58</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>29</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>17</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>897762</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897762.html</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>32</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>59</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>18</v>
+      </c>
+      <c r="S16" t="n">
+        <v>19</v>
+      </c>
+      <c r="T16" t="n">
+        <v>17</v>
+      </c>
+      <c r="U16" t="n">
+        <v>21</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>897780</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897780.html</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>57</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>897763</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897763.html</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n">
+        <v>59</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>23</v>
+      </c>
+      <c r="R18" t="n">
+        <v>15</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="n">
+        <v>15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>15</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>897755</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897755.html</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26</v>
+      </c>
+      <c r="J19" t="n">
+        <v>43</v>
+      </c>
+      <c r="K19" t="n">
+        <v>69</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>33</v>
+      </c>
+      <c r="R19" t="n">
+        <v>28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>19</v>
+      </c>
+      <c r="U19" t="n">
+        <v>29</v>
+      </c>
+      <c r="V19" t="n">
+        <v>11</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>897748</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897748.html</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30</v>
+      </c>
+      <c r="K20" t="n">
+        <v>61</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>27</v>
+      </c>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>12</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>897730</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897730.html</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>39</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14</v>
+      </c>
+      <c r="O21" t="n">
+        <v>16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>11</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897801</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897801.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>36</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>27</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>32</v>
+      </c>
+      <c r="U22" t="n">
+        <v>33</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897795</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897795.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39</v>
+      </c>
+      <c r="K23" t="n">
+        <v>57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>32</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
+        <v>15</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>17-11-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897781</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897781.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" t="n">
+        <v>24</v>
+      </c>
+      <c r="K24" t="n">
+        <v>54</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>47</v>
+      </c>
+      <c r="O24" t="n">
+        <v>29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>11</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11</v>
+      </c>
+      <c r="U24" t="n">
+        <v>14</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897773</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897773.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24</v>
+      </c>
+      <c r="K25" t="n">
+        <v>54</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>29</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>20</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="n">
+        <v>55</v>
+      </c>
+      <c r="K26" t="n">
+        <v>75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>23</v>
+      </c>
+      <c r="R26" t="n">
+        <v>15</v>
+      </c>
+      <c r="S26" t="n">
+        <v>19</v>
+      </c>
+      <c r="T26" t="n">
+        <v>16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>14</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897798</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897798.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>47</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19</v>
+      </c>
+      <c r="K27" t="n">
+        <v>66</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>29</v>
+      </c>
+      <c r="R27" t="n">
+        <v>19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>27</v>
+      </c>
+      <c r="T27" t="n">
+        <v>15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>13</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897786</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897786.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>17</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>22</v>
+      </c>
+      <c r="U28" t="n">
+        <v>19</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>22</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>23</v>
+      </c>
+      <c r="R29" t="n">
+        <v>20</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897770</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897770.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="n">
+        <v>55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" t="n">
+        <v>18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>26</v>
+      </c>
+      <c r="T30" t="n">
+        <v>15</v>
+      </c>
+      <c r="U30" t="n">
+        <v>29</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897758</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897758.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>27</v>
+      </c>
+      <c r="J31" t="n">
+        <v>34</v>
+      </c>
+      <c r="K31" t="n">
+        <v>61</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>28</v>
+      </c>
+      <c r="R31" t="n">
+        <v>20</v>
+      </c>
+      <c r="S31" t="n">
+        <v>9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>14</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +4034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +4184,534 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>84.80000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6675</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2663333333333334</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>61.74000000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8140000000000001</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-1.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>51.38000000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.03200000000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.559999999999999</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>49.45999999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.218</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -609,89 +609,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897804</v>
+        <v>897805</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897805.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12</v>
+      </c>
+      <c r="T2" t="n">
         <v>15</v>
       </c>
-      <c r="Q2" t="n">
-        <v>45</v>
-      </c>
-      <c r="R2" t="n">
-        <v>26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>13</v>
-      </c>
-      <c r="T2" t="n">
-        <v>14</v>
-      </c>
       <c r="U2" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
         <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
         <v>3</v>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>25</v>
+        <v>44.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>29.8</v>
+        <v>45.5</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -714,101 +714,101 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>28.6</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897793</v>
+        <v>897789</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>24</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>72</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="R3" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
         <v>12</v>
       </c>
-      <c r="T3" t="n">
-        <v>12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>13</v>
       </c>
-      <c r="Y3" t="n">
-        <v>24</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -816,22 +816,19 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>46.2</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4">
@@ -842,121 +839,121 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897775</v>
+        <v>897779</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>44.6</v>
+        <v>56.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>54.5</v>
+        <v>42.9</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.699999999999999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -965,303 +962,303 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897760</v>
+        <v>897767</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897767.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
+        <v>14</v>
+      </c>
+      <c r="T5" t="n">
+        <v>28</v>
+      </c>
+      <c r="U5" t="n">
+        <v>20</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
         <v>17</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Y5" t="n">
         <v>6</v>
       </c>
-      <c r="U5" t="n">
-        <v>7</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="Z5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="n">
         <v>4</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="AE5" t="n">
         <v>2</v>
       </c>
-      <c r="X5" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897749</v>
+        <v>897755</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>28</v>
+      </c>
+      <c r="T6" t="n">
+        <v>29</v>
+      </c>
+      <c r="U6" t="n">
+        <v>19</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
         <v>11</v>
       </c>
-      <c r="S6" t="n">
-        <v>15</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2</v>
-      </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
         <v>5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>2</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>54.5</v>
+        <v>54.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>54.5</v>
+        <v>60.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897795</v>
+        <v>897807</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>29</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
         <v>9</v>
       </c>
-      <c r="S7" t="n">
-        <v>32</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15</v>
-      </c>
-      <c r="U7" t="n">
-        <v>10</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1272,10 +1269,10 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>71.7</v>
+        <v>56.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>45.3</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1283,113 +1280,110 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
-      <c r="AG7" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897787</v>
+        <v>897799</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R8" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>44.2</v>
+        <v>50</v>
       </c>
       <c r="AD8" t="n">
-        <v>51.6</v>
+        <v>40.5</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1398,215 +1392,215 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897773</v>
+        <v>897786</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>23</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>17</v>
+      </c>
+      <c r="T9" t="n">
+        <v>19</v>
+      </c>
+      <c r="U9" t="n">
+        <v>22</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>24</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
-      <c r="K9" t="n">
-        <v>54</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>30</v>
-      </c>
-      <c r="R9" t="n">
-        <v>15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>12</v>
-      </c>
-      <c r="T9" t="n">
-        <v>20</v>
-      </c>
-      <c r="U9" t="n">
-        <v>20</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
         <v>18</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>49.2</v>
+        <v>52.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>50</v>
+        <v>46.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897768</v>
+        <v>897778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897768.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>36</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>60</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
         <v>6</v>
       </c>
-      <c r="P10" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>35</v>
-      </c>
-      <c r="R10" t="n">
-        <v>17</v>
-      </c>
-      <c r="S10" t="n">
-        <v>8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>20</v>
-      </c>
-      <c r="U10" t="n">
-        <v>22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1614,452 +1608,449 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>40.7</v>
+        <v>64.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>47.6</v>
+        <v>73.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.8</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Динамо М</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Драконы</t>
-        </is>
-      </c>
       <c r="D11" t="n">
-        <v>897759</v>
+        <v>897768</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
         <v>35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>21</v>
-      </c>
-      <c r="K11" t="n">
-        <v>56</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>29</v>
       </c>
       <c r="Q11" t="n">
         <v>24</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="T11" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
         <v>2</v>
       </c>
-      <c r="W11" t="n">
-        <v>4</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>4</v>
-      </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>54.7</v>
+        <v>59.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>51.5</v>
+        <v>52.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.9</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897804</v>
+        <v>897808</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>26</v>
+      </c>
+      <c r="R12" t="n">
+        <v>14</v>
+      </c>
+      <c r="S12" t="n">
+        <v>12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>21</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>69</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="AA12" t="n">
         <v>10</v>
       </c>
-      <c r="P12" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>13</v>
-      </c>
-      <c r="S12" t="n">
-        <v>26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>33</v>
-      </c>
-      <c r="U12" t="n">
-        <v>14</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>75</v>
+        <v>39.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>70.2</v>
+        <v>95.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897791</v>
+        <v>897789</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>61</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>49</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>63</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="R13" t="n">
+        <v>25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>22</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
         <v>13</v>
       </c>
-      <c r="S13" t="n">
-        <v>23</v>
-      </c>
-      <c r="T13" t="n">
-        <v>26</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AD13" t="n">
         <v>29</v>
       </c>
-      <c r="V13" t="n">
-        <v>5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC13" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897783</v>
+        <v>897776</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>41</v>
+      </c>
+      <c r="K14" t="n">
+        <v>72</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>39</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13</v>
+      </c>
+      <c r="V14" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>36</v>
-      </c>
-      <c r="J14" t="n">
-        <v>21</v>
-      </c>
-      <c r="K14" t="n">
-        <v>57</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>30</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11</v>
       </c>
-      <c r="S14" t="n">
-        <v>23</v>
-      </c>
-      <c r="T14" t="n">
-        <v>27</v>
-      </c>
-      <c r="U14" t="n">
-        <v>20</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="Z14" t="n">
         <v>8</v>
       </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3</v>
-      </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2067,227 +2058,227 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>49.2</v>
+        <v>32.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>57.4</v>
+        <v>48</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897772</v>
+        <v>897766</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>42</v>
+      </c>
+      <c r="K15" t="n">
+        <v>56</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
+      <c r="P15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="n">
         <v>27</v>
       </c>
-      <c r="J15" t="n">
-        <v>31</v>
-      </c>
-      <c r="K15" t="n">
-        <v>58</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="R15" t="n">
+        <v>17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y15" t="n">
         <v>8</v>
       </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="Z15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
         <v>40</v>
       </c>
-      <c r="Q15" t="n">
-        <v>29</v>
-      </c>
-      <c r="R15" t="n">
-        <v>13</v>
-      </c>
-      <c r="S15" t="n">
-        <v>17</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
-      <c r="X15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC15" t="n">
-        <v>58</v>
-      </c>
       <c r="AD15" t="n">
-        <v>60.6</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897762</v>
+        <v>897756</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>22</v>
+      </c>
+      <c r="J16" t="n">
         <v>32</v>
       </c>
-      <c r="J16" t="n">
-        <v>27</v>
-      </c>
       <c r="K16" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
         <v>26</v>
       </c>
       <c r="R16" t="n">
+        <v>16</v>
+      </c>
+      <c r="S16" t="n">
         <v>18</v>
       </c>
-      <c r="S16" t="n">
-        <v>19</v>
-      </c>
       <c r="T16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z16" t="n">
         <v>9</v>
       </c>
-      <c r="Y16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
       <c r="AA16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2295,124 +2286,124 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>58.1</v>
+        <v>49</v>
       </c>
       <c r="AD16" t="n">
-        <v>44.7</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.8</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897780</v>
+        <v>897806</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897780.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
         <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>34</v>
       </c>
       <c r="Q17" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" t="n">
         <v>5</v>
       </c>
-      <c r="U17" t="n">
-        <v>10</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA17" t="n">
         <v>4</v>
       </c>
-      <c r="X17" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>8</v>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>59.6</v>
+        <v>54.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>33.3</v>
+        <v>62.5</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2421,53 +2412,53 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897763</v>
+        <v>897799</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2482,40 +2473,40 @@
         <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="Q18" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S18" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="U18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2523,13 +2514,13 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>48.9</v>
+        <v>50</v>
       </c>
       <c r="AD18" t="n">
-        <v>50</v>
+        <v>59.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
         <v>0.33</v>
@@ -2538,197 +2529,197 @@
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897755</v>
+        <v>897790</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897790.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J19" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K19" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
+        <v>12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>26</v>
+      </c>
+      <c r="R19" t="n">
+        <v>14</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13</v>
+      </c>
+      <c r="T19" t="n">
+        <v>21</v>
+      </c>
+      <c r="U19" t="n">
+        <v>11</v>
+      </c>
+      <c r="V19" t="n">
         <v>6</v>
       </c>
-      <c r="P19" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>33</v>
-      </c>
-      <c r="R19" t="n">
-        <v>28</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>19</v>
-      </c>
-      <c r="U19" t="n">
-        <v>29</v>
-      </c>
-      <c r="V19" t="n">
-        <v>11</v>
-      </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
         <v>5</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>45.9</v>
+        <v>44.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>39.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897748</v>
+        <v>897776</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
+        <v>41</v>
+      </c>
+      <c r="J20" t="n">
         <v>31</v>
       </c>
-      <c r="J20" t="n">
-        <v>30</v>
-      </c>
       <c r="K20" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P20" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U20" t="n">
         <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
         <v>4</v>
@@ -2737,60 +2728,60 @@
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>44.9</v>
+        <v>67.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>42.9</v>
+        <v>52</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897730</v>
+        <v>897770</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897730.html</t>
+          <t>https://text.khl.ru/text/897770.html</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2803,61 +2794,61 @@
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K21" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="U21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2865,22 +2856,22 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>57.6</v>
+        <v>56.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>35.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="22">
@@ -2891,98 +2882,98 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897801</v>
+        <v>897803</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897801.html</t>
+          <t>https://text.khl.ru/text/897803.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>40</v>
+      </c>
+      <c r="K22" t="n">
+        <v>54</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>56</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P22" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q22" t="n">
         <v>27</v>
       </c>
       <c r="R22" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T22" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="U22" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>52.6</v>
+        <v>34.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>49.2</v>
+        <v>61.3</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -2991,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3005,20 +2996,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897795</v>
+        <v>897797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897797.html</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3028,16 +3019,16 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J23" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -3046,46 +3037,46 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>27</v>
+      </c>
+      <c r="R23" t="n">
         <v>6</v>
       </c>
-      <c r="O23" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
+        <v>17</v>
+      </c>
+      <c r="T23" t="n">
+        <v>19</v>
+      </c>
+      <c r="U23" t="n">
+        <v>26</v>
+      </c>
+      <c r="V23" t="n">
+        <v>16</v>
+      </c>
+      <c r="W23" t="n">
         <v>15</v>
       </c>
-      <c r="Q23" t="n">
-        <v>38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>32</v>
-      </c>
-      <c r="S23" t="n">
-        <v>9</v>
-      </c>
-      <c r="T23" t="n">
-        <v>10</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z23" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -3093,124 +3084,124 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>28.3</v>
+        <v>57.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>40</v>
+        <v>42.2</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AG23" t="n">
         <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897781</v>
+        <v>897787</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>31</v>
+      </c>
+      <c r="J24" t="n">
+        <v>28</v>
+      </c>
+      <c r="K24" t="n">
+        <v>59</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>19</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>15</v>
+      </c>
+      <c r="U24" t="n">
+        <v>16</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" t="n">
-        <v>24</v>
-      </c>
-      <c r="K24" t="n">
-        <v>54</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>47</v>
-      </c>
-      <c r="O24" t="n">
-        <v>29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>22</v>
-      </c>
-      <c r="R24" t="n">
-        <v>11</v>
-      </c>
-      <c r="S24" t="n">
-        <v>16</v>
-      </c>
-      <c r="T24" t="n">
-        <v>11</v>
-      </c>
-      <c r="U24" t="n">
-        <v>14</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>4</v>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>60.7</v>
+        <v>55.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>44</v>
+        <v>48.4</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3219,124 +3210,124 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897773</v>
+        <v>897769</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897769.html</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>52</v>
+      </c>
+      <c r="L25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12</v>
+      </c>
+      <c r="P25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>22</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" t="n">
+        <v>21</v>
+      </c>
+      <c r="T25" t="n">
+        <v>14</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
-        <v>30</v>
-      </c>
-      <c r="J25" t="n">
-        <v>24</v>
-      </c>
-      <c r="K25" t="n">
-        <v>54</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>29</v>
-      </c>
-      <c r="R25" t="n">
-        <v>12</v>
-      </c>
-      <c r="S25" t="n">
-        <v>15</v>
-      </c>
-      <c r="T25" t="n">
-        <v>20</v>
-      </c>
-      <c r="U25" t="n">
-        <v>20</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>50.8</v>
+        <v>56.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26">
@@ -3347,87 +3338,87 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897765</v>
+        <v>897762</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897765.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K26" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q26" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="R26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
         <v>3</v>
       </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3435,227 +3426,227 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>54.9</v>
+        <v>41.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>53.3</v>
+        <v>55.3</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG26" t="n">
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897798</v>
+        <v>897801</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897798.html</t>
+          <t>https://text.khl.ru/text/897801.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
       <c r="I27" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" t="n">
+        <v>8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>33</v>
+      </c>
+      <c r="U27" t="n">
+        <v>32</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" t="n">
         <v>2</v>
       </c>
-      <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>29</v>
-      </c>
-      <c r="R27" t="n">
-        <v>19</v>
-      </c>
-      <c r="S27" t="n">
-        <v>27</v>
-      </c>
-      <c r="T27" t="n">
-        <v>15</v>
-      </c>
-      <c r="U27" t="n">
-        <v>13</v>
-      </c>
-      <c r="V27" t="n">
-        <v>5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3</v>
-      </c>
-      <c r="X27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1</v>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>53.2</v>
+        <v>47.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>53.6</v>
+        <v>50.8</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897786</v>
+        <v>897792</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897786.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J28" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T28" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="U28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3663,124 +3654,124 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>47.9</v>
+        <v>60.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>53.7</v>
+        <v>64.3</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>26.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897777</v>
+        <v>897782</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897777.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J29" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K29" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="n">
-        <v>6</v>
-      </c>
       <c r="O29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P29" t="n">
         <v>29</v>
       </c>
       <c r="Q29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
         <v>3</v>
       </c>
-      <c r="Y29" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>5</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>55.8</v>
+        <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>41.2</v>
+        <v>43.6</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3789,226 +3780,226 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897770</v>
+        <v>897771</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897770.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
+        <v>38</v>
+      </c>
+      <c r="K30" t="n">
+        <v>56</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>29</v>
+      </c>
+      <c r="R30" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" t="n">
+        <v>9</v>
+      </c>
+      <c r="T30" t="n">
         <v>27</v>
       </c>
-      <c r="K30" t="n">
-        <v>55</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="U30" t="n">
+        <v>22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>6</v>
+      </c>
+      <c r="W30" t="n">
         <v>2</v>
       </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="X30" t="n">
         <v>30</v>
       </c>
-      <c r="R30" t="n">
-        <v>18</v>
-      </c>
-      <c r="S30" t="n">
-        <v>26</v>
-      </c>
-      <c r="T30" t="n">
-        <v>15</v>
-      </c>
-      <c r="U30" t="n">
-        <v>29</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="Y30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA30" t="n">
         <v>5</v>
       </c>
-      <c r="W30" t="n">
-        <v>3</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>4</v>
-      </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>43.4</v>
+        <v>45.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>34.1</v>
+        <v>55.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.1</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897758</v>
+        <v>897764</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897758.html</t>
+          <t>https://text.khl.ru/text/897764.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J31" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K31" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>4</v>
       </c>
       <c r="P31" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q31" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="R31" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S31" t="n">
+        <v>7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>17</v>
+      </c>
+      <c r="U31" t="n">
+        <v>14</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10</v>
+      </c>
+      <c r="W31" t="n">
         <v>9</v>
       </c>
-      <c r="T31" t="n">
-        <v>14</v>
-      </c>
-      <c r="U31" t="n">
-        <v>6</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5</v>
-      </c>
       <c r="X31" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Y31" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>46.2</v>
+        <v>30.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>70</v>
+        <v>54.8</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4017,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -4187,529 +4178,529 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.6</v>
+        <v>34.6</v>
       </c>
       <c r="H2" t="n">
-        <v>21.8</v>
+        <v>95.3</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.7</v>
+        <v>-1.3</v>
       </c>
       <c r="J2" t="n">
-        <v>39.4</v>
+        <v>30.6</v>
       </c>
       <c r="K2" t="n">
-        <v>84.80000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>-1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>8.800000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>-3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>43.48</v>
+        <v>54.72000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.57</v>
+        <v>-0.5599999999999994</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3</v>
+        <v>0.334</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.836</v>
+        <v>0.9175</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.105</v>
+        <v>0.01099999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="W2" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.02</v>
+        <v>10.82</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.03</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3</v>
+        <v>-0.9</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6</v>
+        <v>32.2</v>
       </c>
       <c r="H3" t="n">
-        <v>38.3</v>
+        <v>22.7</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J3" t="n">
-        <v>26.6</v>
+        <v>23.8</v>
       </c>
       <c r="K3" t="n">
-        <v>44.3</v>
+        <v>27.2</v>
       </c>
       <c r="L3" t="n">
         <v>-0.8</v>
       </c>
       <c r="M3" t="n">
-        <v>17.6</v>
+        <v>23.6</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>52.1</v>
+        <v>56.42</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>-2.069999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3</v>
+        <v>0.294</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1</v>
+        <v>-0.229</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6675</v>
+        <v>0.5675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2663333333333334</v>
+        <v>0.161</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8</v>
+        <v>-1.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1899999999999999</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1</v>
+        <v>-1.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>38.4</v>
+        <v>22.6</v>
       </c>
       <c r="H4" t="n">
-        <v>95.3</v>
+        <v>36.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>22.8</v>
+        <v>36.4</v>
       </c>
       <c r="K4" t="n">
-        <v>42.2</v>
+        <v>32.3</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.9</v>
+        <v>-1</v>
       </c>
       <c r="M4" t="n">
-        <v>24.6</v>
+        <v>13.4</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>61.74000000000001</v>
+        <v>38.92</v>
       </c>
       <c r="P4" t="n">
-        <v>4.42</v>
+        <v>-2.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08</v>
+        <v>-0.07666666666666667</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8140000000000001</v>
+        <v>0.8280000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>0.037</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="W4" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>-4</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2</v>
+        <v>-2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.859999999999999</v>
+        <v>11.56</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1.49</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>29.4</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>40.3</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.6</v>
+        <v>-0.4</v>
       </c>
       <c r="J5" t="n">
-        <v>32.6</v>
+        <v>31.2</v>
       </c>
       <c r="K5" t="n">
-        <v>46.3</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>10.8</v>
+        <v>20.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="O5" t="n">
-        <v>51.38000000000001</v>
+        <v>54.66</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8</v>
+        <v>-2.080000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.016</v>
+        <v>0.033</v>
       </c>
       <c r="S5" t="n">
-        <v>0.852</v>
+        <v>0.6639999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03200000000000001</v>
+        <v>0.164</v>
       </c>
       <c r="U5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
         <v>1.4</v>
       </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-1.6</v>
-      </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3</v>
+        <v>1.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.559999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.47</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.6</v>
+        <v>26.4</v>
       </c>
       <c r="H6" t="n">
-        <v>34.8</v>
+        <v>54.8</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="J6" t="n">
-        <v>35.6</v>
+        <v>31</v>
       </c>
       <c r="K6" t="n">
-        <v>164.3</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>49.45999999999999</v>
+        <v>49.16</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.71</v>
+        <v>-1.539999999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.066</v>
+        <v>0.126</v>
       </c>
       <c r="R6" t="n">
-        <v>0.033</v>
+        <v>-0.033</v>
       </c>
       <c r="S6" t="n">
-        <v>0.882</v>
+        <v>0.9</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U6" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="V6" t="n">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.68</v>
+        <v>8.84</v>
       </c>
       <c r="AB6" t="n">
-        <v>3</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="H7" t="n">
-        <v>132.2</v>
+        <v>55.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>25.4</v>
+        <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>32.3</v>
+        <v>80.19999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.2</v>
+        <v>-5.4</v>
       </c>
       <c r="M7" t="n">
-        <v>14.6</v>
+        <v>27.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>49.3</v>
+        <v>46.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.85</v>
+        <v>4.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006000000000000005</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.63</v>
+        <v>0.578</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.218</v>
+        <v>0.116</v>
       </c>
       <c r="U7" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.5</v>
+        <v>-1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9</v>
+        <v>-1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>11.32</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.34</v>
+        <v>-3.51</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,103 +609,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897805</v>
+        <v>897802</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897802.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K2" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R2" t="n">
+        <v>13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="n">
         <v>16</v>
       </c>
-      <c r="S2" t="n">
-        <v>12</v>
-      </c>
-      <c r="T2" t="n">
-        <v>15</v>
-      </c>
       <c r="U2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="n">
         <v>6</v>
       </c>
-      <c r="X2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3</v>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>44.1</v>
+        <v>54.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>45.5</v>
+        <v>72.7</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -714,53 +714,53 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.9</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897789</v>
+        <v>897796</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -769,57 +769,57 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="T3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
         <v>9</v>
       </c>
-      <c r="V3" t="n">
-        <v>7</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3</v>
       </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>66.7</v>
+        <v>64</v>
       </c>
       <c r="AD3" t="n">
-        <v>71</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -827,19 +827,22 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
       <c r="AH3" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -848,189 +851,189 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897779</v>
+        <v>897788</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897779.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>22</v>
+      </c>
+      <c r="U4" t="n">
+        <v>31</v>
+      </c>
+      <c r="V4" t="n">
         <v>9</v>
       </c>
-      <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>33</v>
-      </c>
-      <c r="U4" t="n">
-        <v>44</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4</v>
-      </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>42.9</v>
+        <v>41.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897767</v>
+        <v>897775</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897767.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K5" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>12</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
         <v>6</v>
       </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>31</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>14</v>
-      </c>
-      <c r="T5" t="n">
-        <v>28</v>
-      </c>
-      <c r="U5" t="n">
-        <v>20</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
         <v>4</v>
@@ -1041,160 +1044,160 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>52.3</v>
+        <v>55.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>58.3</v>
+        <v>45.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.3</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897755</v>
+        <v>897761</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13</v>
+      </c>
+      <c r="U6" t="n">
+        <v>16</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
         <v>6</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Z6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>28</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>28</v>
-      </c>
-      <c r="T6" t="n">
-        <v>29</v>
-      </c>
-      <c r="U6" t="n">
-        <v>19</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>11</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>3</v>
       </c>
-      <c r="AA6" t="n">
-        <v>5</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>54.1</v>
+        <v>57.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>60.4</v>
+        <v>44.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG6" t="n">
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897807</v>
+        <v>897809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1204,61 +1207,61 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
+        <v>31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>62</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
         <v>23</v>
       </c>
-      <c r="K7" t="n">
-        <v>61</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>27</v>
-      </c>
       <c r="Q7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1269,110 +1272,113 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>56.2</v>
+        <v>40.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>45.3</v>
+        <v>39.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.33</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897799</v>
+        <v>897804</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897799.html</t>
+          <t>https://text.khl.ru/text/897804.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>45</v>
+      </c>
+      <c r="R8" t="n">
+        <v>26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14</v>
+      </c>
+      <c r="U8" t="n">
         <v>33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>33</v>
-      </c>
-      <c r="R8" t="n">
-        <v>28</v>
-      </c>
-      <c r="S8" t="n">
-        <v>25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>17</v>
-      </c>
-      <c r="U8" t="n">
-        <v>25</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1380,10 +1386,10 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AD8" t="n">
-        <v>40.5</v>
+        <v>29.8</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1392,124 +1398,124 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.699999999999999</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897786</v>
+        <v>897793</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897786.html</t>
+          <t>https://text.khl.ru/text/897793.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="R9" t="n">
+        <v>32</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>12</v>
+      </c>
+      <c r="U9" t="n">
+        <v>14</v>
+      </c>
+      <c r="V9" t="n">
         <v>8</v>
       </c>
-      <c r="S9" t="n">
-        <v>17</v>
-      </c>
-      <c r="T9" t="n">
-        <v>19</v>
-      </c>
-      <c r="U9" t="n">
-        <v>22</v>
-      </c>
-      <c r="V9" t="n">
-        <v>5</v>
-      </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>3</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>52.1</v>
+        <v>33.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1520,84 +1526,84 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897778</v>
+        <v>897775</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R10" t="n">
         <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T10" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -1608,341 +1614,341 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>64.5</v>
+        <v>44.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>73.5</v>
+        <v>54.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897768</v>
+        <v>897760</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897768.html</t>
+          <t>https://text.khl.ru/text/897760.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K11" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S11" t="n">
         <v>17</v>
       </c>
       <c r="T11" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>59.3</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="n">
-        <v>52.4</v>
+        <v>46.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897808</v>
+        <v>897809</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>23</v>
+      </c>
+      <c r="R12" t="n">
         <v>17</v>
       </c>
-      <c r="Q12" t="n">
-        <v>26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>14</v>
-      </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="T12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>39.5</v>
+        <v>59.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>95.5</v>
+        <v>60.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897789</v>
+        <v>897795</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897795.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J13" t="n">
+        <v>18</v>
+      </c>
+      <c r="K13" t="n">
+        <v>57</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
         <v>38</v>
       </c>
-      <c r="K13" t="n">
-        <v>61</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>32</v>
+      </c>
+      <c r="T13" t="n">
+        <v>15</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>34</v>
-      </c>
-      <c r="R13" t="n">
-        <v>25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>20</v>
-      </c>
-      <c r="T13" t="n">
-        <v>9</v>
-      </c>
-      <c r="U13" t="n">
-        <v>22</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7</v>
-      </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1950,40 +1956,46 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>33.3</v>
+        <v>71.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897776</v>
+        <v>897787</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897776.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1993,16 +2005,16 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
         <v>31</v>
       </c>
-      <c r="J14" t="n">
-        <v>41</v>
-      </c>
       <c r="K14" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2011,57 +2023,57 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>19</v>
       </c>
       <c r="Q14" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="R14" t="n">
+        <v>15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
         <v>16</v>
       </c>
-      <c r="S14" t="n">
-        <v>13</v>
-      </c>
-      <c r="T14" t="n">
-        <v>12</v>
-      </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>32.8</v>
+        <v>44.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>48</v>
+        <v>51.6</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2073,109 +2085,109 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897766</v>
+        <v>897773</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897773.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>42</v>
-      </c>
-      <c r="K15" t="n">
-        <v>56</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>30</v>
+      </c>
+      <c r="R15" t="n">
+        <v>15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>20</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
         <v>18</v>
       </c>
-      <c r="Q15" t="n">
-        <v>27</v>
-      </c>
-      <c r="R15" t="n">
-        <v>17</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8</v>
-      </c>
       <c r="Z15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>40</v>
+        <v>49.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>78.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="n">
         <v>0.5</v>
@@ -2184,124 +2196,124 @@
         <v>0.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>28.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897756</v>
+        <v>897768</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897756.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
+        <v>27</v>
+      </c>
+      <c r="J16" t="n">
+        <v>33</v>
+      </c>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>17</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>20</v>
+      </c>
+      <c r="U16" t="n">
         <v>22</v>
       </c>
-      <c r="J16" t="n">
-        <v>32</v>
-      </c>
-      <c r="K16" t="n">
-        <v>54</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>26</v>
-      </c>
-      <c r="R16" t="n">
-        <v>16</v>
-      </c>
-      <c r="S16" t="n">
-        <v>18</v>
-      </c>
-      <c r="T16" t="n">
-        <v>14</v>
-      </c>
-      <c r="U16" t="n">
-        <v>14</v>
-      </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>49</v>
+        <v>40.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>50</v>
+        <v>47.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>22.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="17">
@@ -2312,87 +2324,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897806</v>
+        <v>897807</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897806.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K17" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R17" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="U17" t="n">
+        <v>24</v>
+      </c>
+      <c r="V17" t="n">
         <v>9</v>
-      </c>
-      <c r="V17" t="n">
-        <v>4</v>
       </c>
       <c r="W17" t="n">
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2400,65 +2412,59 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>54.8</v>
+        <v>43.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>3.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897799</v>
+        <v>897791</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897799.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K18" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2467,57 +2473,57 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S18" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="T18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U18" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="V18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>50</v>
+        <v>31.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>59.5</v>
+        <v>52.7</v>
       </c>
       <c r="AE18" t="n">
         <v>1</v>
@@ -2529,31 +2535,31 @@
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897790</v>
+        <v>897781</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897790.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2563,133 +2569,133 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O19" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R19" t="n">
+        <v>16</v>
+      </c>
+      <c r="S19" t="n">
+        <v>11</v>
+      </c>
+      <c r="T19" t="n">
         <v>14</v>
-      </c>
-      <c r="S19" t="n">
-        <v>13</v>
-      </c>
-      <c r="T19" t="n">
-        <v>21</v>
       </c>
       <c r="U19" t="n">
         <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
         <v>12</v>
       </c>
-      <c r="X19" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>25</v>
-      </c>
       <c r="Z19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>44.7</v>
+        <v>39.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>65.59999999999999</v>
+        <v>56</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897776</v>
+        <v>897771</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897776.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2698,385 +2704,379 @@
         <v>6</v>
       </c>
       <c r="O20" t="n">
+        <v>13</v>
+      </c>
+      <c r="P20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>24</v>
+      </c>
+      <c r="R20" t="n">
         <v>9</v>
       </c>
-      <c r="P20" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>19</v>
-      </c>
-      <c r="R20" t="n">
-        <v>13</v>
-      </c>
       <c r="S20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="U20" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA20" t="n">
         <v>4</v>
       </c>
-      <c r="W20" t="n">
-        <v>4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>8</v>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>67.2</v>
+        <v>54.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>52</v>
+        <v>44.9</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897770</v>
+        <v>897759</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897770.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J21" t="n">
+        <v>35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>56</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>29</v>
+      </c>
+      <c r="R21" t="n">
         <v>28</v>
       </c>
-      <c r="K21" t="n">
-        <v>55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>23</v>
-      </c>
-      <c r="R21" t="n">
-        <v>26</v>
-      </c>
       <c r="S21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T21" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="U21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA21" t="n">
         <v>4</v>
       </c>
-      <c r="AA21" t="n">
-        <v>2</v>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>56.6</v>
+        <v>45.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897803</v>
+        <v>897811</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897803.html</t>
+          <t>https://text.khl.ru/text/897811.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J22" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K22" t="n">
         <v>54</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P22" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>30</v>
+      </c>
+      <c r="R22" t="n">
         <v>14</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
+        <v>21</v>
+      </c>
+      <c r="T22" t="n">
         <v>27</v>
       </c>
-      <c r="R22" t="n">
-        <v>9</v>
-      </c>
-      <c r="S22" t="n">
-        <v>13</v>
-      </c>
-      <c r="T22" t="n">
-        <v>19</v>
-      </c>
       <c r="U22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>34.1</v>
+        <v>50.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>61.3</v>
+        <v>61.4</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897797</v>
+        <v>897804</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897797.html</t>
+          <t>https://text.khl.ru/text/897804.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J23" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="R23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="T23" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="U23" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="V23" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -3084,124 +3084,124 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>57.1</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="n">
-        <v>42.2</v>
+        <v>70.2</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AG23" t="n">
         <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897787</v>
+        <v>897791</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
       <c r="I24" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K24" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="U24" t="n">
+        <v>29</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
         <v>16</v>
       </c>
-      <c r="V24" t="n">
-        <v>6</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>55.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>48.4</v>
+        <v>47.3</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3210,53 +3210,53 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897769</v>
+        <v>897783</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897769.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
       <c r="I25" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -3265,63 +3265,63 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P25" t="n">
         <v>29</v>
       </c>
       <c r="Q25" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T25" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V25" t="n">
         <v>8</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>56.9</v>
+        <v>49.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>87.5</v>
+        <v>57.4</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AG25" t="n">
         <v>1</v>
@@ -3333,158 +3333,158 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897762</v>
+        <v>897772</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897772.html</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
         <v>27</v>
       </c>
       <c r="J26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Q26" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
         <v>3</v>
       </c>
-      <c r="X26" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>41.9</v>
+        <v>58</v>
       </c>
       <c r="AD26" t="n">
-        <v>55.3</v>
+        <v>60.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897801</v>
+        <v>897810</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897801.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3496,54 +3496,54 @@
         <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T27" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
         <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>47.4</v>
+        <v>28</v>
       </c>
       <c r="AD27" t="n">
-        <v>50.8</v>
+        <v>36.8</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -3555,98 +3555,98 @@
         <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897792</v>
+        <v>897780</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897780.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J28" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K28" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T28" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="U28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>60.4</v>
+        <v>59.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>64.3</v>
+        <v>33.3</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3666,38 +3666,38 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897782</v>
+        <v>897763</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3706,61 +3706,61 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>2</v>
       </c>
       <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>23</v>
+      </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20</v>
+      </c>
+      <c r="T29" t="n">
+        <v>15</v>
+      </c>
+      <c r="U29" t="n">
+        <v>15</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z29" t="n">
         <v>7</v>
       </c>
-      <c r="P29" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>13</v>
-      </c>
-      <c r="S29" t="n">
-        <v>18</v>
-      </c>
-      <c r="T29" t="n">
-        <v>24</v>
-      </c>
-      <c r="U29" t="n">
-        <v>31</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
       <c r="AA29" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3768,113 +3768,113 @@
         </is>
       </c>
       <c r="AC29" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AD29" t="n">
         <v>50</v>
       </c>
-      <c r="AD29" t="n">
-        <v>43.6</v>
-      </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897771</v>
+        <v>897755</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>26</v>
+      </c>
+      <c r="J30" t="n">
+        <v>43</v>
+      </c>
+      <c r="K30" t="n">
+        <v>69</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>4</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>18</v>
-      </c>
-      <c r="J30" t="n">
-        <v>38</v>
-      </c>
-      <c r="K30" t="n">
-        <v>56</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
+        <v>33</v>
+      </c>
+      <c r="R30" t="n">
+        <v>28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>19</v>
+      </c>
+      <c r="U30" t="n">
         <v>29</v>
       </c>
-      <c r="R30" t="n">
-        <v>10</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="V30" t="n">
+        <v>11</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="n">
         <v>9</v>
       </c>
-      <c r="T30" t="n">
-        <v>27</v>
-      </c>
-      <c r="U30" t="n">
-        <v>22</v>
-      </c>
-      <c r="V30" t="n">
-        <v>6</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2</v>
-      </c>
-      <c r="X30" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>30</v>
-      </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>45.3</v>
+        <v>45.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>55.1</v>
+        <v>39.6</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3894,34 +3894,34 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>22.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897764</v>
+        <v>897748</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897764.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3931,87 +3931,1227 @@
         <v>3</v>
       </c>
       <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>31</v>
+      </c>
+      <c r="J31" t="n">
+        <v>30</v>
+      </c>
+      <c r="K31" t="n">
+        <v>61</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>27</v>
+      </c>
+      <c r="R31" t="n">
+        <v>20</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="n">
+        <v>9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>12</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897808</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897808.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>29</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="n">
+        <v>52</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>17</v>
+      </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>21</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897796</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897796.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
+        <v>30</v>
+      </c>
+      <c r="K33" t="n">
+        <v>60</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>32</v>
+      </c>
+      <c r="R33" t="n">
+        <v>14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
         <v>5</v>
       </c>
-      <c r="I31" t="n">
+      <c r="U33" t="n">
+        <v>12</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897785</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897785.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="n">
+        <v>42</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
         <v>24</v>
       </c>
-      <c r="J31" t="n">
-        <v>43</v>
-      </c>
-      <c r="K31" t="n">
-        <v>67</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="Q34" t="n">
+        <v>35</v>
+      </c>
+      <c r="R34" t="n">
+        <v>13</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>15</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
         <v>3</v>
       </c>
-      <c r="N31" t="n">
+      <c r="X34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z34" t="n">
         <v>11</v>
       </c>
-      <c r="O31" t="n">
+      <c r="AA34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
         <v>4</v>
       </c>
-      <c r="P31" t="n">
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="n">
+        <v>49</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>29</v>
+      </c>
+      <c r="R35" t="n">
+        <v>13</v>
+      </c>
+      <c r="S35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897769</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897769.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>27</v>
+      </c>
+      <c r="K36" t="n">
+        <v>52</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>29</v>
+      </c>
+      <c r="R36" t="n">
+        <v>21</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
+        <v>14</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>48</v>
+      </c>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>72</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>19</v>
+      </c>
+      <c r="R37" t="n">
+        <v>12</v>
+      </c>
+      <c r="S37" t="n">
+        <v>32</v>
+      </c>
+      <c r="T37" t="n">
+        <v>14</v>
+      </c>
+      <c r="U37" t="n">
+        <v>12</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>49</v>
+      </c>
+      <c r="J38" t="n">
+        <v>33</v>
+      </c>
+      <c r="K38" t="n">
+        <v>82</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>19</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8</v>
+      </c>
+      <c r="S38" t="n">
         <v>17</v>
       </c>
-      <c r="Q31" t="n">
-        <v>38</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="T38" t="n">
+        <v>15</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>40</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29</v>
+      </c>
+      <c r="K39" t="n">
+        <v>69</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>12</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12</v>
+      </c>
+      <c r="P39" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18</v>
+      </c>
+      <c r="U39" t="n">
+        <v>15</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897767</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897767.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>35</v>
+      </c>
+      <c r="J40" t="n">
+        <v>21</v>
+      </c>
+      <c r="K40" t="n">
+        <v>56</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" t="n">
         <v>31</v>
       </c>
-      <c r="S31" t="n">
+      <c r="Q40" t="n">
+        <v>34</v>
+      </c>
+      <c r="R40" t="n">
+        <v>14</v>
+      </c>
+      <c r="S40" t="n">
+        <v>6</v>
+      </c>
+      <c r="T40" t="n">
+        <v>20</v>
+      </c>
+      <c r="U40" t="n">
+        <v>28</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>11-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897760</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897760.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>36</v>
+      </c>
+      <c r="J41" t="n">
+        <v>27</v>
+      </c>
+      <c r="K41" t="n">
+        <v>63</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>27</v>
+      </c>
+      <c r="R41" t="n">
+        <v>17</v>
+      </c>
+      <c r="S41" t="n">
+        <v>9</v>
+      </c>
+      <c r="T41" t="n">
         <v>7</v>
       </c>
-      <c r="T31" t="n">
-        <v>17</v>
-      </c>
-      <c r="U31" t="n">
-        <v>14</v>
-      </c>
-      <c r="V31" t="n">
-        <v>10</v>
-      </c>
-      <c r="W31" t="n">
-        <v>9</v>
-      </c>
-      <c r="X31" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC31" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>12.5</v>
+      <c r="U41" t="n">
+        <v>6</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +5165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4178,529 +5318,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>34.6</v>
+        <v>28.4</v>
       </c>
       <c r="H2" t="n">
-        <v>95.3</v>
+        <v>37.3</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.3</v>
+        <v>-2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>30.6</v>
+        <v>28.2</v>
       </c>
       <c r="K2" t="n">
-        <v>68.3</v>
+        <v>62.7</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.2</v>
+        <v>4.7</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4</v>
+        <v>13.6</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.4</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>54.72000000000001</v>
+        <v>57.27999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5599999999999994</v>
+        <v>0.2199999999999996</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.334</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1</v>
+        <v>-0.039</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9175</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01099999999999999</v>
+        <v>-0.022</v>
       </c>
       <c r="U2" t="n">
-        <v>8.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.82</v>
+        <v>11.34</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.94</v>
+        <v>-0.5099999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="n">
         <v>3.8</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>32.2</v>
+        <v>25.2</v>
       </c>
       <c r="H3" t="n">
-        <v>22.7</v>
+        <v>15.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>23.8</v>
+        <v>37.8</v>
       </c>
       <c r="K3" t="n">
-        <v>27.2</v>
+        <v>99.2</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>23.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>56.42</v>
+        <v>40.66</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.069999999999999</v>
+        <v>-5.880000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.294</v>
+        <v>0.266</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.229</v>
+        <v>0.066</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5675</v>
+        <v>0.756</v>
       </c>
       <c r="T3" t="n">
-        <v>0.161</v>
+        <v>-0.103</v>
       </c>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.5</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.1</v>
+        <v>0.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.5</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.89</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>-0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>22.6</v>
+        <v>29.8</v>
       </c>
       <c r="H4" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K4" t="n">
         <v>36.3</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32.3</v>
-      </c>
       <c r="L4" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="M4" t="n">
-        <v>13.4</v>
+        <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>38.92</v>
+        <v>53.08000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.57</v>
+        <v>6.029999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.175</v>
+        <v>0.38</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.07666666666666667</v>
+        <v>-0.17</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8280000000000001</v>
+        <v>0.6679999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="U4" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2</v>
+        <v>0.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.56</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>-7.4</v>
+        <v>-0.8600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>76.5</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4</v>
+        <v>-2</v>
       </c>
       <c r="J5" t="n">
-        <v>31.2</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>4.199999999999999</v>
+        <v>128.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="M5" t="n">
-        <v>20.6</v>
+        <v>22</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.6</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>54.66</v>
+        <v>42.94</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.080000000000001</v>
+        <v>-2.61</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1</v>
+        <v>0.2433333333333333</v>
       </c>
       <c r="R5" t="n">
-        <v>0.033</v>
+        <v>-0.115</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6639999999999999</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.164</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>10.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>13.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.62</v>
+        <v>14.82</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.1</v>
+        <v>0.2700000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>60.28000000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.139999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.6</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>31</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>49.16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-1.539999999999999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.033</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.8</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.84</v>
+        <v>8.58</v>
       </c>
       <c r="AB6" t="n">
-        <v>-2.42</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>45.45999999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-2.009999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.659999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.06599999999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
         <v>2.4</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>80.19999999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-3.51</v>
+      <c r="D9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>54.91999999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5660000000000001</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5800000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -609,92 +609,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897802</v>
+        <v>897814</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897802.html</t>
+          <t>https://text.khl.ru/text/897814.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="U2" t="n">
+        <v>24</v>
+      </c>
+      <c r="V2" t="n">
         <v>6</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,65 +702,65 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>54.5</v>
+        <v>62.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>72.7</v>
+        <v>48.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897796</v>
+        <v>897805</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897796.html</t>
+          <t>https://text.khl.ru/text/897805.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -769,57 +769,57 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33</v>
+      </c>
+      <c r="R3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>18</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="n">
         <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>18</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15</v>
-      </c>
-      <c r="S3" t="n">
-        <v>14</v>
-      </c>
-      <c r="T3" t="n">
-        <v>12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>3</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>64</v>
+        <v>44.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>70.59999999999999</v>
+        <v>45.5</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.7</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="4">
@@ -842,98 +842,98 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897788</v>
+        <v>897789</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897788.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>34</v>
       </c>
       <c r="Q4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="R4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T4" t="n">
         <v>22</v>
       </c>
       <c r="U4" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>54.8</v>
+        <v>66.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>41.5</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -941,11 +941,8 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
-      <c r="AG4" t="n">
-        <v>0.75</v>
-      </c>
       <c r="AH4" t="n">
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5">
@@ -956,87 +953,87 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897775</v>
+        <v>897779</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="K5" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P5" t="n">
         <v>31</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S5" t="n">
         <v>15</v>
       </c>
-      <c r="S5" t="n">
-        <v>12</v>
-      </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,227 +1041,227 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.5</v>
+        <v>42.9</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AG5" t="n">
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897761</v>
+        <v>897767</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897767.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>56</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>54</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>35</v>
-      </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
         <v>14</v>
       </c>
-      <c r="S6" t="n">
-        <v>16</v>
-      </c>
       <c r="T6" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="U6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
       </c>
       <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>4</v>
       </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>57.7</v>
+        <v>52.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>44.8</v>
+        <v>58.3</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897809</v>
+        <v>897794</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897794.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="R7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1272,147 +1269,147 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>40.4</v>
+        <v>59.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>39.3</v>
+        <v>78.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897804</v>
+        <v>897790</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897790.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>66</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="P8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="n">
         <v>21</v>
       </c>
-      <c r="J8" t="n">
-        <v>48</v>
-      </c>
-      <c r="K8" t="n">
-        <v>69</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>45</v>
-      </c>
       <c r="R8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="V8" t="n">
+        <v>12</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="n">
         <v>5</v>
       </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>3</v>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>25</v>
+        <v>55.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>29.8</v>
+        <v>34.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="AH8" t="n">
-        <v>28.6</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1421,78 +1418,78 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897793</v>
+        <v>897774</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897774.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29</v>
+      </c>
+      <c r="J9" t="n">
+        <v>40</v>
+      </c>
+      <c r="K9" t="n">
+        <v>69</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>19</v>
+      </c>
+      <c r="S9" t="n">
+        <v>11</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U9" t="n">
+        <v>18</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>24</v>
-      </c>
-      <c r="J9" t="n">
-        <v>48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>72</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>32</v>
-      </c>
-      <c r="S9" t="n">
-        <v>12</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>14</v>
       </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1500,33 +1497,33 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>33.3</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1535,89 +1532,89 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897775</v>
+        <v>897761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K10" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
+        <v>35</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>30</v>
+      </c>
+      <c r="R10" t="n">
+        <v>16</v>
+      </c>
+      <c r="S10" t="n">
+        <v>14</v>
+      </c>
+      <c r="T10" t="n">
+        <v>16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
         <v>12</v>
       </c>
-      <c r="O10" t="n">
-        <v>8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>31</v>
-      </c>
-      <c r="R10" t="n">
-        <v>12</v>
-      </c>
-      <c r="S10" t="n">
-        <v>15</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5</v>
-      </c>
       <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
         <v>4</v>
       </c>
-      <c r="AA10" t="n">
-        <v>7</v>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>44.6</v>
+        <v>42.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>54.5</v>
+        <v>55.2</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1626,101 +1623,101 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Амур</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Трактор</t>
-        </is>
-      </c>
       <c r="D11" t="n">
-        <v>897760</v>
+        <v>897749</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897749.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>72</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="n">
         <v>36</v>
       </c>
-      <c r="K11" t="n">
-        <v>63</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
+        <v>15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>11</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>18</v>
-      </c>
-      <c r="R11" t="n">
-        <v>9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>17</v>
-      </c>
-      <c r="T11" t="n">
-        <v>6</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
         <v>7</v>
       </c>
-      <c r="V11" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1728,10 +1725,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1740,226 +1737,226 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897809</v>
+        <v>897805</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897805.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>54</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>26</v>
+      </c>
+      <c r="R12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>16</v>
+      </c>
+      <c r="T12" t="n">
+        <v>18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>15</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>23</v>
-      </c>
-      <c r="R12" t="n">
-        <v>17</v>
-      </c>
-      <c r="S12" t="n">
-        <v>23</v>
-      </c>
-      <c r="T12" t="n">
-        <v>17</v>
-      </c>
-      <c r="U12" t="n">
-        <v>11</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>3</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>59.6</v>
+        <v>55.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>60.7</v>
+        <v>54.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>12.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897795</v>
+        <v>897800</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>27</v>
+      </c>
+      <c r="K13" t="n">
+        <v>58</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>27</v>
+      </c>
+      <c r="R13" t="n">
+        <v>14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>19</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18</v>
-      </c>
-      <c r="K13" t="n">
-        <v>57</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>15</v>
-      </c>
-      <c r="R13" t="n">
-        <v>9</v>
-      </c>
-      <c r="S13" t="n">
-        <v>32</v>
-      </c>
-      <c r="T13" t="n">
-        <v>15</v>
-      </c>
-      <c r="U13" t="n">
-        <v>10</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>5</v>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>71.7</v>
+        <v>57.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1968,118 +1965,118 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897787</v>
+        <v>897782</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>28</v>
       </c>
       <c r="J14" t="n">
+        <v>34</v>
+      </c>
+      <c r="K14" t="n">
+        <v>62</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>29</v>
+      </c>
+      <c r="R14" t="n">
+        <v>18</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
         <v>31</v>
       </c>
-      <c r="K14" t="n">
-        <v>59</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>24</v>
       </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>12</v>
-      </c>
-      <c r="T14" t="n">
-        <v>16</v>
-      </c>
-      <c r="U14" t="n">
-        <v>15</v>
-      </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
         <v>6</v>
       </c>
-      <c r="X14" t="n">
-        <v>17</v>
-      </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>44.2</v>
+        <v>50</v>
       </c>
       <c r="AD14" t="n">
-        <v>51.6</v>
+        <v>56.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
@@ -2096,39 +2093,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897773</v>
+        <v>897772</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897772.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -2137,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
@@ -2146,34 +2143,34 @@
         <v>29</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="U15" t="n">
         <v>20</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
         <v>1</v>
@@ -2184,13 +2181,13 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>49.2</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>39.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
         <v>0.5</v>
@@ -2199,95 +2196,95 @@
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897768</v>
+        <v>897750</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897768.html</t>
+          <t>https://text.khl.ru/text/897750.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>29</v>
+      </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
+      <c r="S16" t="n">
         <v>6</v>
       </c>
-      <c r="P16" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>17</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>8</v>
       </c>
-      <c r="T16" t="n">
-        <v>20</v>
-      </c>
       <c r="U16" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>2</v>
@@ -2298,176 +2295,182 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>47.6</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897807</v>
+        <v>897813</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897813.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>34</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
         <v>23</v>
       </c>
-      <c r="J17" t="n">
-        <v>38</v>
-      </c>
-      <c r="K17" t="n">
-        <v>61</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>21</v>
-      </c>
       <c r="Q17" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>43.8</v>
+        <v>41.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>54.7</v>
+        <v>52.8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.33</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.699999999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897791</v>
+        <v>897808</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K18" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2476,318 +2479,312 @@
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R18" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="S18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T18" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U18" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>31.6</v>
+        <v>39.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>52.7</v>
+        <v>95.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897781</v>
+        <v>897789</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K19" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q19" t="n">
         <v>34</v>
       </c>
       <c r="R19" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>39.3</v>
+        <v>33.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>56</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0.09</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897771</v>
+        <v>897776</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31</v>
+      </c>
+      <c r="J20" t="n">
+        <v>41</v>
+      </c>
+      <c r="K20" t="n">
+        <v>72</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>39</v>
+      </c>
+      <c r="R20" t="n">
+        <v>16</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" t="n">
+        <v>12</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13</v>
+      </c>
+      <c r="V20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>18</v>
-      </c>
-      <c r="K20" t="n">
-        <v>56</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>13</v>
-      </c>
-      <c r="P20" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>24</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9</v>
-      </c>
-      <c r="S20" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" t="n">
-        <v>22</v>
-      </c>
-      <c r="U20" t="n">
-        <v>27</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>54.7</v>
+        <v>32.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>44.9</v>
+        <v>48</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897759</v>
+        <v>897766</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2797,127 +2794,133 @@
         <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K21" t="n">
         <v>56</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R21" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="S21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
         <v>4</v>
       </c>
-      <c r="W21" t="n">
-        <v>2</v>
-      </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>45.3</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="n">
-        <v>48.5</v>
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897811</v>
+        <v>897802</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897811.html</t>
+          <t>https://text.khl.ru/text/897802.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J22" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2926,223 +2929,223 @@
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
       </c>
       <c r="R22" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T22" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>3</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>50.8</v>
+        <v>45.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>61.4</v>
+        <v>27.3</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="AG22" t="n">
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897804</v>
+        <v>897794</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897794.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" t="n">
+        <v>36</v>
+      </c>
+      <c r="K23" t="n">
+        <v>63</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
-        <v>48</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>69</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
       <c r="O23" t="n">
+        <v>14</v>
+      </c>
+      <c r="P23" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>40</v>
+      </c>
+      <c r="R23" t="n">
+        <v>16</v>
+      </c>
+      <c r="S23" t="n">
+        <v>18</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>18</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z23" t="n">
         <v>10</v>
       </c>
-      <c r="P23" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>13</v>
-      </c>
-      <c r="S23" t="n">
-        <v>26</v>
-      </c>
-      <c r="T23" t="n">
-        <v>33</v>
-      </c>
-      <c r="U23" t="n">
-        <v>14</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AE23" t="n">
         <v>3</v>
       </c>
-      <c r="AA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>2</v>
-      </c>
       <c r="AF23" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.300000000000001</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897791</v>
+        <v>897784</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897784.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
       <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
         <v>49</v>
       </c>
-      <c r="J24" t="n">
-        <v>14</v>
-      </c>
       <c r="K24" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3157,51 +3160,51 @@
         <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10</v>
+      </c>
+      <c r="U24" t="n">
+        <v>15</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
         <v>23</v>
       </c>
-      <c r="T24" t="n">
-        <v>26</v>
-      </c>
-      <c r="U24" t="n">
-        <v>29</v>
-      </c>
-      <c r="V24" t="n">
-        <v>5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6</v>
-      </c>
-      <c r="X24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>36</v>
-      </c>
       <c r="Z24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="n">
         <v>4</v>
       </c>
-      <c r="AA24" t="n">
-        <v>1</v>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>68.40000000000001</v>
+        <v>38.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>47.3</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3213,47 +3216,47 @@
         <v>0.67</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897783</v>
+        <v>897780</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897780.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="n">
         <v>57</v>
@@ -3265,60 +3268,60 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>10</v>
       </c>
       <c r="P25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="n">
+        <v>34</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" t="n">
+        <v>16</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
         <v>30</v>
       </c>
-      <c r="R25" t="n">
-        <v>11</v>
-      </c>
-      <c r="S25" t="n">
-        <v>23</v>
-      </c>
-      <c r="T25" t="n">
-        <v>27</v>
-      </c>
-      <c r="U25" t="n">
-        <v>20</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="Y25" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z25" t="n">
         <v>8</v>
       </c>
-      <c r="W25" t="n">
-        <v>8</v>
-      </c>
-      <c r="X25" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>3</v>
-      </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>49.2</v>
+        <v>40.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>57.4</v>
+        <v>66.7</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="n">
         <v>0.4</v>
@@ -3327,337 +3330,337 @@
         <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>11.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897772</v>
+        <v>897766</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
+        <v>42</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>56</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7</v>
+      </c>
+      <c r="P26" t="n">
         <v>27</v>
       </c>
-      <c r="J26" t="n">
-        <v>31</v>
-      </c>
-      <c r="K26" t="n">
-        <v>58</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>40</v>
-      </c>
       <c r="Q26" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
         <v>17</v>
       </c>
       <c r="T26" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
         <v>5</v>
       </c>
-      <c r="W26" t="n">
-        <v>6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AE26" t="n">
         <v>3</v>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC26" t="n">
-        <v>58</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AG26" t="n">
         <v>0.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897810</v>
+        <v>897806</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897810.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>11</v>
+      </c>
+      <c r="P27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>34</v>
+      </c>
+      <c r="R27" t="n">
+        <v>15</v>
+      </c>
+      <c r="S27" t="n">
+        <v>18</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>23</v>
-      </c>
-      <c r="J27" t="n">
-        <v>23</v>
-      </c>
-      <c r="K27" t="n">
-        <v>46</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="n">
         <v>6</v>
       </c>
-      <c r="O27" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>36</v>
-      </c>
-      <c r="R27" t="n">
-        <v>10</v>
-      </c>
-      <c r="S27" t="n">
-        <v>13</v>
-      </c>
-      <c r="T27" t="n">
-        <v>7</v>
-      </c>
-      <c r="U27" t="n">
-        <v>12</v>
-      </c>
-      <c r="V27" t="n">
-        <v>6</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>5</v>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>28</v>
+        <v>45.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>36.8</v>
+        <v>37.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AG27" t="n">
         <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897780</v>
+        <v>897800</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897780.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>31</v>
+      </c>
+      <c r="K28" t="n">
+        <v>58</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12</v>
+      </c>
+      <c r="P28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>37</v>
+      </c>
+      <c r="R28" t="n">
+        <v>19</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14</v>
+      </c>
+      <c r="T28" t="n">
+        <v>11</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>22</v>
-      </c>
-      <c r="J28" t="n">
-        <v>35</v>
-      </c>
-      <c r="K28" t="n">
-        <v>57</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>10</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>23</v>
-      </c>
-      <c r="R28" t="n">
-        <v>16</v>
-      </c>
-      <c r="S28" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" t="n">
-        <v>5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>10</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="Y28" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z28" t="n">
         <v>3</v>
       </c>
-      <c r="W28" t="n">
-        <v>4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>9</v>
       </c>
-      <c r="AA28" t="n">
-        <v>8</v>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>59.6</v>
+        <v>42.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>33.3</v>
+        <v>55</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3666,34 +3669,34 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897763</v>
+        <v>897792</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3706,13 +3709,13 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K29" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -3721,46 +3724,46 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q29" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R29" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
         <v>20</v>
       </c>
-      <c r="T29" t="n">
-        <v>15</v>
-      </c>
       <c r="U29" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3768,124 +3771,124 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>48.9</v>
+        <v>39.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>50</v>
+        <v>35.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AG29" t="n">
         <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897755</v>
+        <v>897783</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K30" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="R30" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>3</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>45.9</v>
+        <v>50.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>39.6</v>
+        <v>42.6</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3894,71 +3897,71 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH30" t="n">
-        <v>3.8</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>СКА</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
       <c r="D31" t="n">
-        <v>897748</v>
+        <v>897763</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K31" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q31" t="n">
         <v>22</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>27</v>
       </c>
       <c r="R31" t="n">
         <v>20</v>
@@ -3967,28 +3970,28 @@
         <v>15</v>
       </c>
       <c r="T31" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -3996,113 +3999,113 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>44.9</v>
+        <v>51.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.699999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897808</v>
+        <v>897812</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897812.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J32" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K32" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>6</v>
       </c>
       <c r="P32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q32" t="n">
+        <v>24</v>
+      </c>
+      <c r="R32" t="n">
+        <v>14</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>10</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y32" t="n">
         <v>17</v>
       </c>
-      <c r="R32" t="n">
-        <v>12</v>
-      </c>
-      <c r="S32" t="n">
-        <v>14</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>21</v>
-      </c>
-      <c r="V32" t="n">
-        <v>11</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8</v>
-      </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -4110,92 +4113,92 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>60.5</v>
+        <v>54.7</v>
       </c>
       <c r="AD32" t="n">
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897796</v>
+        <v>897803</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897796.html</t>
+          <t>https://text.khl.ru/text/897803.html</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P33" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R33" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="U33" t="n">
         <v>12</v>
@@ -4204,30 +4207,30 @@
         <v>4</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
         <v>3</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>36</v>
+        <v>34.1</v>
       </c>
       <c r="AD33" t="n">
-        <v>29.4</v>
+        <v>61.3</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -4236,215 +4239,215 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897785</v>
+        <v>897797</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897785.html</t>
+          <t>https://text.khl.ru/text/897797.html</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
       <c r="I34" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>8</v>
       </c>
       <c r="O34" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>27</v>
+      </c>
+      <c r="R34" t="n">
         <v>6</v>
       </c>
-      <c r="P34" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>35</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
+        <v>17</v>
+      </c>
+      <c r="T34" t="n">
+        <v>19</v>
+      </c>
+      <c r="U34" t="n">
+        <v>26</v>
+      </c>
+      <c r="V34" t="n">
+        <v>16</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15</v>
+      </c>
+      <c r="X34" t="n">
         <v>13</v>
       </c>
-      <c r="S34" t="n">
-        <v>12</v>
-      </c>
-      <c r="T34" t="n">
-        <v>5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>15</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2</v>
-      </c>
-      <c r="W34" t="n">
-        <v>3</v>
-      </c>
-      <c r="X34" t="n">
-        <v>17</v>
-      </c>
       <c r="Y34" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>40.7</v>
+        <v>57.1</v>
       </c>
       <c r="AD34" t="n">
-        <v>25</v>
+        <v>42.2</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>18.2</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897777</v>
+        <v>897787</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897777.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
         <v>8</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>19</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>15</v>
+      </c>
+      <c r="U35" t="n">
+        <v>16</v>
+      </c>
+      <c r="V35" t="n">
         <v>6</v>
       </c>
-      <c r="P35" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>29</v>
-      </c>
-      <c r="R35" t="n">
-        <v>13</v>
-      </c>
-      <c r="S35" t="n">
-        <v>20</v>
-      </c>
-      <c r="T35" t="n">
-        <v>10</v>
-      </c>
-      <c r="U35" t="n">
-        <v>7</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y35" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
         <v>5</v>
       </c>
       <c r="AA35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
@@ -4452,22 +4455,22 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>44.2</v>
+        <v>55.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>58.8</v>
+        <v>48.4</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>18.2</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="36">
@@ -4478,12 +4481,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Северсталь</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Спартак</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -4495,58 +4498,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
       <c r="I36" t="n">
+        <v>27</v>
+      </c>
+      <c r="J36" t="n">
         <v>25</v>
-      </c>
-      <c r="J36" t="n">
-        <v>27</v>
       </c>
       <c r="K36" t="n">
         <v>52</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="n">
         <v>12</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>22</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" t="n">
+        <v>21</v>
+      </c>
+      <c r="T36" t="n">
+        <v>14</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8</v>
+      </c>
+      <c r="W36" t="n">
         <v>4</v>
-      </c>
-      <c r="P36" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>29</v>
-      </c>
-      <c r="R36" t="n">
-        <v>21</v>
-      </c>
-      <c r="S36" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>14</v>
-      </c>
-      <c r="V36" t="n">
-        <v>4</v>
-      </c>
-      <c r="W36" t="n">
-        <v>8</v>
       </c>
       <c r="X36" t="n">
         <v>27</v>
@@ -4555,238 +4558,238 @@
         <v>27</v>
       </c>
       <c r="Z36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="n">
         <v>3</v>
       </c>
-      <c r="AA36" t="n">
-        <v>1</v>
-      </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>43.1</v>
+        <v>56.9</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>87.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>16</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897793</v>
+        <v>897810</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>23</v>
+      </c>
+      <c r="K37" t="n">
+        <v>46</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>6</v>
       </c>
-      <c r="I37" t="n">
-        <v>48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>24</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>14</v>
+      </c>
+      <c r="R37" t="n">
+        <v>13</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="n">
+        <v>12</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
         <v>72</v>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P37" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>19</v>
-      </c>
-      <c r="R37" t="n">
-        <v>12</v>
-      </c>
-      <c r="S37" t="n">
-        <v>32</v>
-      </c>
-      <c r="T37" t="n">
-        <v>14</v>
-      </c>
-      <c r="U37" t="n">
-        <v>12</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2</v>
-      </c>
-      <c r="W37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X37" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC37" t="n">
-        <v>66.7</v>
-      </c>
       <c r="AD37" t="n">
-        <v>53.8</v>
+        <v>63.2</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.300000000000001</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897784</v>
+        <v>897798</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897784.html</t>
+          <t>https://text.khl.ru/text/897798.html</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>47</v>
+      </c>
+      <c r="J38" t="n">
+        <v>19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>66</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
         <v>4</v>
-      </c>
-      <c r="I38" t="n">
-        <v>49</v>
-      </c>
-      <c r="J38" t="n">
-        <v>33</v>
-      </c>
-      <c r="K38" t="n">
-        <v>82</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6</v>
       </c>
       <c r="O38" t="n">
         <v>6</v>
       </c>
       <c r="P38" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q38" t="n">
+        <v>29</v>
+      </c>
+      <c r="R38" t="n">
         <v>19</v>
       </c>
-      <c r="R38" t="n">
-        <v>8</v>
-      </c>
       <c r="S38" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="T38" t="n">
         <v>15</v>
       </c>
       <c r="U38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
         <v>4</v>
       </c>
       <c r="AA38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4794,10 +4797,10 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>61.2</v>
+        <v>53.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>60</v>
+        <v>53.6</v>
       </c>
       <c r="AE38" t="n">
         <v>1</v>
@@ -4806,212 +4809,212 @@
         <v>0.33</v>
       </c>
       <c r="AG38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897774</v>
+        <v>897786</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
+        <v>15</v>
+      </c>
+      <c r="J39" t="n">
+        <v>25</v>
+      </c>
+      <c r="K39" t="n">
         <v>40</v>
       </c>
-      <c r="J39" t="n">
-        <v>29</v>
-      </c>
-      <c r="K39" t="n">
-        <v>69</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P39" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
       </c>
       <c r="R39" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S39" t="n">
+        <v>8</v>
+      </c>
+      <c r="T39" t="n">
+        <v>22</v>
+      </c>
+      <c r="U39" t="n">
         <v>19</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" t="n">
+        <v>5</v>
+      </c>
+      <c r="X39" t="n">
         <v>18</v>
       </c>
-      <c r="U39" t="n">
-        <v>15</v>
-      </c>
-      <c r="V39" t="n">
-        <v>4</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>11</v>
-      </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Z39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>59</v>
+        <v>47.9</v>
       </c>
       <c r="AD39" t="n">
-        <v>54.5</v>
+        <v>53.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.5</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897767</v>
+        <v>897777</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897767.html</t>
+          <t>https://text.khl.ru/text/897777.html</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>27</v>
+      </c>
+      <c r="J40" t="n">
+        <v>22</v>
+      </c>
+      <c r="K40" t="n">
+        <v>49</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8</v>
+      </c>
+      <c r="P40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>23</v>
+      </c>
+      <c r="R40" t="n">
+        <v>20</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
         <v>3</v>
       </c>
-      <c r="I40" t="n">
-        <v>35</v>
-      </c>
-      <c r="J40" t="n">
-        <v>21</v>
-      </c>
-      <c r="K40" t="n">
-        <v>56</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4</v>
-      </c>
-      <c r="O40" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>34</v>
-      </c>
-      <c r="R40" t="n">
-        <v>14</v>
-      </c>
-      <c r="S40" t="n">
-        <v>6</v>
-      </c>
-      <c r="T40" t="n">
-        <v>20</v>
-      </c>
-      <c r="U40" t="n">
-        <v>28</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>6</v>
-      </c>
       <c r="Y40" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA40" t="n">
         <v>5</v>
@@ -5022,46 +5025,46 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>47.7</v>
+        <v>55.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF40" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
       <c r="AH40" t="n">
-        <v>5.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897760</v>
+        <v>897770</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897770.html</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5071,87 +5074,87 @@
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J41" t="n">
         <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>30</v>
+      </c>
+      <c r="R41" t="n">
         <v>18</v>
       </c>
-      <c r="Q41" t="n">
-        <v>27</v>
-      </c>
-      <c r="R41" t="n">
-        <v>17</v>
-      </c>
       <c r="S41" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U41" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X41" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AA41" t="n">
         <v>4</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>40</v>
+        <v>43.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>53.8</v>
+        <v>34.1</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
         <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -5318,95 +5321,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>28.4</v>
+        <v>33.2</v>
       </c>
       <c r="H2" t="n">
-        <v>37.3</v>
+        <v>75.69999999999999</v>
       </c>
       <c r="I2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>56.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8500000000000014</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4279999999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8674999999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1143333333333333</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
         <v>-2.4</v>
       </c>
-      <c r="J2" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="W2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13.6</v>
       </c>
-      <c r="N2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.27999999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.2199999999999996</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.05600000000000001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.039</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9279999999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11.34</v>
-      </c>
       <c r="AB2" t="n">
-        <v>-0.5099999999999998</v>
+        <v>0.3099999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5416,525 +5419,525 @@
         <v>3.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>25.2</v>
+        <v>31.6</v>
       </c>
       <c r="H3" t="n">
-        <v>15.2</v>
+        <v>48.8</v>
       </c>
       <c r="I3" t="n">
         <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>37.8</v>
+        <v>33.2</v>
       </c>
       <c r="K3" t="n">
-        <v>99.2</v>
+        <v>21.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>-1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>40.66</v>
+        <v>48.76000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.880000000000001</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.266</v>
+        <v>0.334</v>
       </c>
       <c r="R3" t="n">
-        <v>0.066</v>
+        <v>0.25</v>
       </c>
       <c r="S3" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.103</v>
+        <v>0.007999999999999985</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.199999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6</v>
+        <v>-0.3000000000000002</v>
       </c>
       <c r="Y3" t="n">
         <v>5.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>11.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.55</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G4" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="H4" t="n">
-        <v>32.7</v>
+        <v>6.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>-1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>36.3</v>
+        <v>13.5</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.6</v>
+        <v>15.8</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.1</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
-        <v>53.08000000000001</v>
+        <v>49.3</v>
       </c>
       <c r="P4" t="n">
-        <v>6.029999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.17</v>
+        <v>-0.05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6679999999999999</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="W4" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>-0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>7.460000000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.8600000000000001</v>
+        <v>0.2800000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
       <c r="E5" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="H5" t="n">
-        <v>76.5</v>
+        <v>37.2</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>36.8</v>
       </c>
       <c r="K5" t="n">
-        <v>128.5</v>
+        <v>28.7</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7</v>
+        <v>-2.8</v>
       </c>
       <c r="M5" t="n">
-        <v>22</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>42.94</v>
+        <v>37.34</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.61</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2433333333333333</v>
+        <v>0.2075</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.115</v>
+        <v>-0.1723333333333333</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.728</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="W5" t="n">
-        <v>10.2</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.2</v>
+        <v>3.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.82</v>
+        <v>11.02</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2700000000000001</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="n">
         <v>3.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>36.6</v>
+        <v>35.6</v>
       </c>
       <c r="H6" t="n">
-        <v>140.3</v>
+        <v>37.8</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="n">
-        <v>23.6</v>
+        <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>53.8</v>
+        <v>204.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="n">
-        <v>26.6</v>
+        <v>6.8</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>60.28000000000001</v>
+        <v>45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.139999999999999</v>
+        <v>-2.91</v>
       </c>
       <c r="Q6" t="n">
         <v>0.36</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2</v>
+        <v>-0.147</v>
       </c>
       <c r="S6" t="n">
-        <v>0.834</v>
+        <v>0.634</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.6</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AA6" t="n">
-        <v>8.58</v>
+        <v>12.16</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.2</v>
+        <v>-0.4100000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-2.2</v>
-      </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>45.45999999999999</v>
+        <v>45.77999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.009999999999999</v>
+        <v>-2.039999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.116</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.05</v>
+        <v>0.036</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8539999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8</v>
+        <v>-1.9</v>
       </c>
       <c r="W7" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.5</v>
+        <v>7.42</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.98</v>
+        <v>-0.5800000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="G8" t="n">
         <v>25.6</v>
       </c>
       <c r="H8" t="n">
-        <v>14.3</v>
+        <v>56.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>-2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>25.4</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>15.3</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.5</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
-        <v>4.6</v>
+        <v>15.4</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="O8" t="n">
-        <v>44.9</v>
+        <v>51.71999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>2.659999999999999</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.134</v>
+        <v>0.172</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.067</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.884</v>
+        <v>0.9</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06599999999999999</v>
+        <v>-0.05</v>
       </c>
       <c r="U8" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="W8" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="X8" t="n">
-        <v>-2.4</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.86</v>
+        <v>7.48</v>
       </c>
       <c r="AB8" t="n">
-        <v>-2.64</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5944,79 +5947,79 @@
         <v>2.4</v>
       </c>
       <c r="D9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28</v>
+      </c>
+      <c r="H9" t="n">
+        <v>139</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.460000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.167</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03300000000000001</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.8</v>
       </c>
-      <c r="E9" t="n">
+      <c r="V9" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X9" t="n">
         <v>0.6</v>
       </c>
-      <c r="M9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>54.91999999999999</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.5660000000000001</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>6.4</v>
       </c>
-      <c r="X9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Z9" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.64</v>
+        <v>10.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5800000000000002</v>
+        <v>-1.24</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,87 +614,87 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897814</v>
+        <v>897812</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897814.html</t>
+          <t>https://text.khl.ru/text/897812.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23</v>
+      </c>
+      <c r="K2" t="n">
+        <v>55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
-        <v>36</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40</v>
-      </c>
-      <c r="K2" t="n">
-        <v>76</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20</v>
-      </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
         <v>15</v>
       </c>
-      <c r="T2" t="n">
-        <v>23</v>
-      </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>62.7</v>
+        <v>45.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>48.9</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -728,39 +728,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897805</v>
+        <v>897807</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -769,57 +769,57 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21</v>
+      </c>
+      <c r="R3" t="n">
         <v>12</v>
       </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>16</v>
-      </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="U3" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V3" t="n">
         <v>5</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>44.1</v>
+        <v>56.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -827,35 +827,32 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
       <c r="AH3" t="n">
-        <v>17.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897789</v>
+        <v>897799</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -865,64 +862,64 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
       </c>
       <c r="T4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -930,10 +927,10 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>71</v>
+        <v>40.5</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -941,146 +938,149 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.67</v>
+      </c>
       <c r="AH4" t="n">
-        <v>7.9</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897779</v>
+        <v>897786</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897779.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>23</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17</v>
+      </c>
+      <c r="T5" t="n">
+        <v>19</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
         <v>3</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>24</v>
-      </c>
-      <c r="R5" t="n">
-        <v>11</v>
-      </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>33</v>
-      </c>
-      <c r="U5" t="n">
-        <v>44</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH5" t="n">
         <v>4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897767</v>
+        <v>897778</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897767.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1090,292 +1090,292 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>36</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6</v>
       </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>31</v>
-      </c>
-      <c r="R6" t="n">
-        <v>6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>14</v>
-      </c>
-      <c r="T6" t="n">
-        <v>28</v>
-      </c>
-      <c r="U6" t="n">
-        <v>20</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>52.3</v>
+        <v>64.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>58.3</v>
+        <v>73.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897794</v>
+        <v>897803</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897794.html</t>
+          <t>https://text.khl.ru/text/897803.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>13</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9</v>
+      </c>
+      <c r="W7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>27</v>
-      </c>
-      <c r="K7" t="n">
-        <v>63</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="X7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>14</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>27</v>
-      </c>
-      <c r="R7" t="n">
-        <v>18</v>
-      </c>
-      <c r="S7" t="n">
-        <v>16</v>
-      </c>
-      <c r="T7" t="n">
-        <v>18</v>
-      </c>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>10</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>59.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>78.3</v>
+        <v>38.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897790</v>
+        <v>897798</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897790.html</t>
+          <t>https://text.khl.ru/text/897798.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
         <v>66</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="R8" t="n">
+        <v>27</v>
+      </c>
+      <c r="S8" t="n">
+        <v>19</v>
+      </c>
+      <c r="T8" t="n">
         <v>13</v>
       </c>
-      <c r="S8" t="n">
-        <v>14</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
+        <v>15</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="U8" t="n">
-        <v>21</v>
-      </c>
-      <c r="V8" t="n">
-        <v>12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>25</v>
-      </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1383,65 +1383,65 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>55.3</v>
+        <v>46.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>34.4</v>
+        <v>46.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.2</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897774</v>
+        <v>897785</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1450,171 +1450,171 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
         <v>12</v>
       </c>
-      <c r="O9" t="n">
-        <v>12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>19</v>
-      </c>
       <c r="S9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2</v>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>59.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>45.5</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AG9" t="n">
         <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897761</v>
+        <v>897778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
         <v>22</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U10" t="n">
+        <v>36</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
         <v>13</v>
       </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="n">
         <v>6</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>42.3</v>
+        <v>35.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>55.2</v>
+        <v>26.5</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1623,112 +1623,112 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897749</v>
+        <v>897765</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897765.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>19</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7</v>
+      </c>
+      <c r="W11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>39</v>
-      </c>
-      <c r="J11" t="n">
-        <v>33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>72</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>15</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="X11" t="n">
         <v>11</v>
       </c>
-      <c r="T11" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>6</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z11" t="n">
         <v>7</v>
       </c>
-      <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2</v>
-      </c>
       <c r="AA11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>45.5</v>
+        <v>45.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>45.5</v>
+        <v>46.7</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1737,80 +1737,80 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897805</v>
+        <v>897816</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897816.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K12" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U12" t="n">
         <v>15</v>
@@ -1819,19 +1819,19 @@
         <v>6</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>55.9</v>
+        <v>48.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>54.5</v>
+        <v>57.1</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1851,34 +1851,34 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897800</v>
+        <v>897807</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897800.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1888,16 +1888,16 @@
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="n">
         <v>27</v>
@@ -1921,97 +1921,91 @@
         <v>14</v>
       </c>
       <c r="S13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="T13" t="n">
+        <v>29</v>
+      </c>
+      <c r="U13" t="n">
+        <v>24</v>
+      </c>
+      <c r="V13" t="n">
         <v>9</v>
       </c>
-      <c r="U13" t="n">
-        <v>11</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Y13" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>57.8</v>
+        <v>43.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="AG13" t="n">
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897782</v>
+        <v>897791</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K14" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -2020,46 +2014,46 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="R14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S14" t="n">
         <v>13</v>
       </c>
       <c r="T14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V14" t="n">
         <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2067,113 +2061,113 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>50</v>
+        <v>31.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>56.4</v>
+        <v>52.7</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897772</v>
+        <v>897781</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24</v>
+      </c>
+      <c r="J15" t="n">
+        <v>30</v>
+      </c>
+      <c r="K15" t="n">
+        <v>54</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>29</v>
+      </c>
+      <c r="O15" t="n">
+        <v>47</v>
+      </c>
+      <c r="P15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>34</v>
+      </c>
+      <c r="R15" t="n">
+        <v>16</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11</v>
+      </c>
+      <c r="T15" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>31</v>
-      </c>
-      <c r="J15" t="n">
-        <v>27</v>
-      </c>
-      <c r="K15" t="n">
-        <v>58</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P15" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>40</v>
-      </c>
-      <c r="R15" t="n">
-        <v>17</v>
-      </c>
-      <c r="S15" t="n">
-        <v>13</v>
-      </c>
-      <c r="T15" t="n">
-        <v>13</v>
-      </c>
-      <c r="U15" t="n">
-        <v>20</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>3</v>
-      </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2181,113 +2175,113 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>39.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>39.4</v>
+        <v>56</v>
       </c>
       <c r="AE15" t="n">
-        <v>2</v>
+        <v>0.08</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897750</v>
+        <v>897771</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897750.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P16" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="n">
+        <v>22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>27</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
         <v>6</v>
       </c>
-      <c r="T16" t="n">
-        <v>8</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8</v>
-      </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2295,341 +2289,341 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>40.8</v>
+        <v>54.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>80</v>
+        <v>44.9</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG16" t="n">
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897813</v>
+        <v>897815</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897815.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U17" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>41.1</v>
+        <v>64.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>52.8</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897808</v>
+        <v>897811</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897811.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R18" t="n">
         <v>14</v>
       </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="T18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>39.5</v>
+        <v>50.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>95.5</v>
+        <v>61.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897789</v>
+        <v>897804</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897804.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>48</v>
+      </c>
+      <c r="J19" t="n">
+        <v>21</v>
+      </c>
+      <c r="K19" t="n">
+        <v>69</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>13</v>
+      </c>
+      <c r="S19" t="n">
+        <v>26</v>
+      </c>
+      <c r="T19" t="n">
+        <v>33</v>
+      </c>
+      <c r="U19" t="n">
+        <v>14</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z19" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
-        <v>23</v>
-      </c>
-      <c r="J19" t="n">
-        <v>38</v>
-      </c>
-      <c r="K19" t="n">
-        <v>61</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>34</v>
-      </c>
-      <c r="R19" t="n">
-        <v>25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9</v>
-      </c>
-      <c r="U19" t="n">
-        <v>22</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>7</v>
-      </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2637,118 +2631,124 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>33.3</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>70.2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.4</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897776</v>
+        <v>897791</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897776.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J20" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q20" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="R20" t="n">
+        <v>13</v>
+      </c>
+      <c r="S20" t="n">
+        <v>23</v>
+      </c>
+      <c r="T20" t="n">
+        <v>26</v>
+      </c>
+      <c r="U20" t="n">
+        <v>29</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="n">
         <v>16</v>
       </c>
-      <c r="S20" t="n">
-        <v>13</v>
-      </c>
-      <c r="T20" t="n">
-        <v>12</v>
-      </c>
-      <c r="U20" t="n">
-        <v>13</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="n">
         <v>4</v>
       </c>
-      <c r="W20" t="n">
-        <v>4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>8</v>
-      </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>32.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2757,490 +2757,490 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897766</v>
+        <v>897783</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
       </c>
       <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21</v>
+      </c>
+      <c r="K21" t="n">
+        <v>57</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>6</v>
       </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>42</v>
-      </c>
-      <c r="K21" t="n">
-        <v>56</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>30</v>
+      </c>
+      <c r="R21" t="n">
+        <v>11</v>
+      </c>
+      <c r="S21" t="n">
+        <v>23</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27</v>
+      </c>
+      <c r="U21" t="n">
+        <v>20</v>
+      </c>
+      <c r="V21" t="n">
+        <v>8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="n">
-        <v>7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>27</v>
-      </c>
-      <c r="R21" t="n">
-        <v>17</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>11</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>4</v>
-      </c>
-      <c r="X21" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>5</v>
-      </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>40</v>
+        <v>49.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>78.59999999999999</v>
+        <v>57.4</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>28.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897802</v>
+        <v>897814</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897802.html</t>
+          <t>https://text.khl.ru/text/897814.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K22" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T22" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V22" t="n">
         <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>45.5</v>
+        <v>37.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>27.3</v>
+        <v>51.1</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.11</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897794</v>
+        <v>897806</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897794.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>32</v>
+      </c>
+      <c r="J23" t="n">
+        <v>33</v>
+      </c>
+      <c r="K23" t="n">
+        <v>65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>15</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
         <v>5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>27</v>
-      </c>
-      <c r="J23" t="n">
-        <v>36</v>
-      </c>
-      <c r="K23" t="n">
-        <v>63</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>14</v>
-      </c>
-      <c r="P23" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>40</v>
-      </c>
-      <c r="R23" t="n">
-        <v>16</v>
-      </c>
-      <c r="S23" t="n">
-        <v>18</v>
-      </c>
-      <c r="T23" t="n">
-        <v>5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>18</v>
-      </c>
-      <c r="V23" t="n">
-        <v>7</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>10</v>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>40.3</v>
+        <v>54.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>21.7</v>
+        <v>62.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897784</v>
+        <v>897799</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897784.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R24" t="n">
+        <v>25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>28</v>
+      </c>
+      <c r="T24" t="n">
+        <v>25</v>
+      </c>
+      <c r="U24" t="n">
         <v>17</v>
       </c>
-      <c r="S24" t="n">
-        <v>8</v>
-      </c>
-      <c r="T24" t="n">
-        <v>10</v>
-      </c>
-      <c r="U24" t="n">
-        <v>15</v>
-      </c>
       <c r="V24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>38.8</v>
+        <v>50</v>
       </c>
       <c r="AD24" t="n">
-        <v>40</v>
+        <v>59.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>12.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897780</v>
+        <v>897790</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897780.html</t>
+          <t>https://text.khl.ru/text/897790.html</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -3250,61 +3250,61 @@
         <v>3</v>
       </c>
       <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>33</v>
+      </c>
+      <c r="K25" t="n">
+        <v>66</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
         <v>4</v>
       </c>
-      <c r="I25" t="n">
-        <v>35</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22</v>
-      </c>
-      <c r="K25" t="n">
-        <v>57</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2</v>
-      </c>
       <c r="O25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>26</v>
+      </c>
+      <c r="R25" t="n">
+        <v>14</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13</v>
+      </c>
+      <c r="T25" t="n">
+        <v>21</v>
+      </c>
+      <c r="U25" t="n">
+        <v>11</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>12</v>
+      </c>
+      <c r="X25" t="n">
         <v>23</v>
       </c>
-      <c r="Q25" t="n">
-        <v>34</v>
-      </c>
-      <c r="R25" t="n">
-        <v>10</v>
-      </c>
-      <c r="S25" t="n">
-        <v>16</v>
-      </c>
-      <c r="T25" t="n">
-        <v>10</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="Y25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z25" t="n">
         <v>5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>8</v>
       </c>
       <c r="AA25" t="n">
         <v>9</v>
@@ -3315,33 +3315,33 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>40.4</v>
+        <v>44.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>66.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="AE25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3350,192 +3350,192 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897766</v>
+        <v>897776</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>41</v>
+      </c>
+      <c r="J26" t="n">
+        <v>31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>72</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>6</v>
       </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>42</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14</v>
-      </c>
-      <c r="K26" t="n">
-        <v>56</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4</v>
-      </c>
       <c r="O26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P26" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="U26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V26" t="n">
         <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA26" t="n">
         <v>8</v>
       </c>
-      <c r="Y26" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>5</v>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>60</v>
+        <v>67.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21.4</v>
+        <v>52</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>14.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897806</v>
+        <v>897817</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897806.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J27" t="n">
+        <v>35</v>
+      </c>
+      <c r="K27" t="n">
+        <v>60</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" t="n">
         <v>32</v>
       </c>
-      <c r="K27" t="n">
-        <v>65</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
         <v>10</v>
       </c>
-      <c r="O27" t="n">
-        <v>11</v>
-      </c>
-      <c r="P27" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>34</v>
-      </c>
-      <c r="R27" t="n">
-        <v>15</v>
-      </c>
-      <c r="S27" t="n">
-        <v>18</v>
-      </c>
-      <c r="T27" t="n">
-        <v>9</v>
-      </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Y27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3543,65 +3543,65 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>45.2</v>
+        <v>56.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>37.5</v>
+        <v>58.8</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897800</v>
+        <v>897810</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897800.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J28" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K28" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3610,57 +3610,57 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>36</v>
+      </c>
+      <c r="R28" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7</v>
+      </c>
+      <c r="U28" t="n">
         <v>12</v>
       </c>
-      <c r="O28" t="n">
-        <v>12</v>
-      </c>
-      <c r="P28" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>37</v>
-      </c>
-      <c r="R28" t="n">
-        <v>19</v>
-      </c>
-      <c r="S28" t="n">
-        <v>14</v>
-      </c>
-      <c r="T28" t="n">
-        <v>11</v>
-      </c>
-      <c r="U28" t="n">
-        <v>9</v>
-      </c>
       <c r="V28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
         <v>3</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>42.2</v>
+        <v>28</v>
       </c>
       <c r="AD28" t="n">
-        <v>55</v>
+        <v>36.8</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3672,212 +3672,212 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.7</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897792</v>
+        <v>897780</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897780.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
+        <v>22</v>
+      </c>
+      <c r="J29" t="n">
+        <v>35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>57</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>23</v>
+      </c>
+      <c r="R29" t="n">
+        <v>16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="n">
         <v>30</v>
       </c>
-      <c r="J29" t="n">
-        <v>31</v>
-      </c>
-      <c r="K29" t="n">
-        <v>61</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>12</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="Z29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA29" t="n">
         <v>8</v>
       </c>
-      <c r="P29" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>32</v>
-      </c>
-      <c r="R29" t="n">
-        <v>18</v>
-      </c>
-      <c r="S29" t="n">
-        <v>13</v>
-      </c>
-      <c r="T29" t="n">
-        <v>20</v>
-      </c>
-      <c r="U29" t="n">
-        <v>36</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>4</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>39.6</v>
+        <v>59.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>35.7</v>
+        <v>33.3</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.3</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Салават Юлаев</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Локомотив</t>
-        </is>
-      </c>
       <c r="D30" t="n">
-        <v>897783</v>
+        <v>897763</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J30" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
         <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R30" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S30" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U30" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3885,113 +3885,113 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>50.8</v>
+        <v>48.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>42.6</v>
+        <v>50</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897763</v>
+        <v>897755</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J31" t="n">
+        <v>43</v>
+      </c>
+      <c r="K31" t="n">
+        <v>69</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>33</v>
+      </c>
+      <c r="R31" t="n">
+        <v>28</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>19</v>
+      </c>
+      <c r="U31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>59</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>22</v>
-      </c>
-      <c r="R31" t="n">
-        <v>20</v>
-      </c>
-      <c r="S31" t="n">
-        <v>15</v>
-      </c>
-      <c r="T31" t="n">
-        <v>15</v>
-      </c>
-      <c r="U31" t="n">
-        <v>15</v>
-      </c>
       <c r="V31" t="n">
+        <v>11</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
         <v>5</v>
       </c>
-      <c r="W31" t="n">
-        <v>2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>15</v>
-      </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -3999,10 +3999,10 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>51.1</v>
+        <v>45.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>50</v>
+        <v>39.6</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4011,226 +4011,226 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897812</v>
+        <v>897817</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J32" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
         <v>6</v>
       </c>
       <c r="O32" t="n">
+        <v>8</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>32</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>18</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6</v>
       </c>
-      <c r="P32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>24</v>
-      </c>
-      <c r="R32" t="n">
-        <v>14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8</v>
-      </c>
-      <c r="T32" t="n">
+      <c r="Z32" t="n">
         <v>10</v>
       </c>
-      <c r="U32" t="n">
-        <v>15</v>
-      </c>
-      <c r="V32" t="n">
-        <v>4</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>5</v>
-      </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>54.7</v>
+        <v>43.9</v>
       </c>
       <c r="AD32" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="AE32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG32" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF32" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1</v>
-      </c>
       <c r="AH32" t="n">
-        <v>4.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897803</v>
+        <v>897808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897803.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>29</v>
+      </c>
+      <c r="J33" t="n">
+        <v>23</v>
+      </c>
+      <c r="K33" t="n">
+        <v>52</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
         <v>6</v>
       </c>
-      <c r="I33" t="n">
+      <c r="P33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>17</v>
+      </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
+      <c r="S33" t="n">
         <v>14</v>
       </c>
-      <c r="J33" t="n">
-        <v>40</v>
-      </c>
-      <c r="K33" t="n">
-        <v>54</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>21</v>
+      </c>
+      <c r="V33" t="n">
+        <v>11</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y33" t="n">
         <v>8</v>
       </c>
-      <c r="O33" t="n">
-        <v>8</v>
-      </c>
-      <c r="P33" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>27</v>
-      </c>
-      <c r="R33" t="n">
-        <v>9</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13</v>
-      </c>
-      <c r="T33" t="n">
-        <v>19</v>
-      </c>
-      <c r="U33" t="n">
-        <v>12</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4</v>
-      </c>
-      <c r="W33" t="n">
-        <v>9</v>
-      </c>
-      <c r="X33" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>14</v>
-      </c>
       <c r="Z33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
         <v>4</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>34.1</v>
+        <v>60.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>61.3</v>
+        <v>4.5</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34">
@@ -4253,110 +4253,110 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897797</v>
+        <v>897796</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897797.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
         <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>14</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
         <v>10</v>
-      </c>
-      <c r="P34" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>27</v>
-      </c>
-      <c r="R34" t="n">
-        <v>6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>17</v>
-      </c>
-      <c r="T34" t="n">
-        <v>19</v>
-      </c>
-      <c r="U34" t="n">
-        <v>26</v>
-      </c>
-      <c r="V34" t="n">
-        <v>16</v>
-      </c>
-      <c r="W34" t="n">
-        <v>15</v>
-      </c>
-      <c r="X34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC34" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>9.1</v>
       </c>
     </row>
     <row r="35">
@@ -4367,24 +4367,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897787</v>
+        <v>897785</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -4393,72 +4393,72 @@
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K35" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P35" t="n">
         <v>24</v>
       </c>
       <c r="Q35" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="R35" t="n">
+        <v>13</v>
+      </c>
+      <c r="S35" t="n">
         <v>12</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
+        <v>5</v>
+      </c>
+      <c r="U35" t="n">
         <v>15</v>
       </c>
-      <c r="T35" t="n">
-        <v>15</v>
-      </c>
-      <c r="U35" t="n">
-        <v>16</v>
-      </c>
       <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y35" t="n">
         <v>6</v>
       </c>
-      <c r="W35" t="n">
-        <v>1</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA35" t="n">
         <v>8</v>
       </c>
-      <c r="Y35" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>3</v>
-      </c>
       <c r="AB35" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>55.8</v>
+        <v>40.7</v>
       </c>
       <c r="AD35" t="n">
-        <v>48.4</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -4467,53 +4467,53 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>12.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897769</v>
+        <v>897777</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897769.html</t>
+          <t>https://text.khl.ru/text/897777.html</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
       <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
         <v>27</v>
       </c>
-      <c r="J36" t="n">
-        <v>25</v>
-      </c>
       <c r="K36" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L36" t="n">
         <v>2</v>
@@ -4522,171 +4522,171 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="n">
         <v>29</v>
       </c>
-      <c r="Q36" t="n">
-        <v>22</v>
-      </c>
       <c r="R36" t="n">
+        <v>13</v>
+      </c>
+      <c r="S36" t="n">
+        <v>20</v>
+      </c>
+      <c r="T36" t="n">
         <v>10</v>
       </c>
-      <c r="S36" t="n">
-        <v>21</v>
-      </c>
-      <c r="T36" t="n">
-        <v>14</v>
-      </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>56.9</v>
+        <v>44.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>87.5</v>
+        <v>58.8</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AG36" t="n">
         <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>11.1</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897810</v>
+        <v>897797</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897810.html</t>
+          <t>https://text.khl.ru/text/897797.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K37" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>36</v>
+      </c>
+      <c r="R37" t="n">
+        <v>17</v>
+      </c>
+      <c r="S37" t="n">
         <v>6</v>
       </c>
-      <c r="O37" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="T37" t="n">
+        <v>26</v>
+      </c>
+      <c r="U37" t="n">
+        <v>19</v>
+      </c>
+      <c r="V37" t="n">
+        <v>15</v>
+      </c>
+      <c r="W37" t="n">
+        <v>16</v>
+      </c>
+      <c r="X37" t="n">
         <v>14</v>
       </c>
-      <c r="R37" t="n">
+      <c r="Y37" t="n">
         <v>13</v>
       </c>
-      <c r="S37" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" t="n">
-        <v>12</v>
-      </c>
-      <c r="U37" t="n">
-        <v>7</v>
-      </c>
-      <c r="V37" t="n">
-        <v>6</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6</v>
-      </c>
-      <c r="X37" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>21</v>
-      </c>
       <c r="Z37" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AA37" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>72</v>
+        <v>42.9</v>
       </c>
       <c r="AD37" t="n">
-        <v>63.2</v>
+        <v>57.8</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4695,101 +4695,101 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH37" t="n">
-        <v>4.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897798</v>
+        <v>897788</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897798.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P38" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R38" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S38" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T38" t="n">
+        <v>31</v>
+      </c>
+      <c r="U38" t="n">
+        <v>22</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>9</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z38" t="n">
         <v>15</v>
       </c>
-      <c r="U38" t="n">
-        <v>13</v>
-      </c>
-      <c r="V38" t="n">
-        <v>5</v>
-      </c>
-      <c r="W38" t="n">
-        <v>3</v>
-      </c>
-      <c r="X38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>4</v>
-      </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4797,364 +4797,1504 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>53.2</v>
+        <v>45.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>53.6</v>
+        <v>58.5</v>
       </c>
       <c r="AE38" t="n">
         <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH38" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897786</v>
+        <v>897779</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897786.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>43</v>
+      </c>
+      <c r="J39" t="n">
+        <v>43</v>
+      </c>
+      <c r="K39" t="n">
+        <v>86</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>31</v>
+      </c>
+      <c r="R39" t="n">
+        <v>15</v>
+      </c>
+      <c r="S39" t="n">
+        <v>11</v>
+      </c>
+      <c r="T39" t="n">
+        <v>44</v>
+      </c>
+      <c r="U39" t="n">
+        <v>33</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8</v>
+      </c>
+      <c r="W39" t="n">
         <v>4</v>
       </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15</v>
-      </c>
-      <c r="J39" t="n">
-        <v>25</v>
-      </c>
-      <c r="K39" t="n">
-        <v>40</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="X39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y39" t="n">
         <v>10</v>
       </c>
-      <c r="P39" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>17</v>
-      </c>
-      <c r="S39" t="n">
-        <v>8</v>
-      </c>
-      <c r="T39" t="n">
+      <c r="Z39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA39" t="n">
         <v>22</v>
       </c>
-      <c r="U39" t="n">
-        <v>19</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3</v>
-      </c>
-      <c r="W39" t="n">
-        <v>5</v>
-      </c>
-      <c r="X39" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>5</v>
-      </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>47.9</v>
+        <v>43.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>53.7</v>
+        <v>57.1</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="AH39" t="n">
-        <v>26.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897777</v>
+        <v>897764</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897777.html</t>
+          <t>https://text.khl.ru/text/897764.html</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>43</v>
+      </c>
+      <c r="J40" t="n">
+        <v>24</v>
+      </c>
+      <c r="K40" t="n">
+        <v>67</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>4</v>
       </c>
-      <c r="I40" t="n">
-        <v>27</v>
-      </c>
-      <c r="J40" t="n">
-        <v>22</v>
-      </c>
-      <c r="K40" t="n">
-        <v>49</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6</v>
-      </c>
       <c r="O40" t="n">
+        <v>11</v>
+      </c>
+      <c r="P40" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>17</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>31</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14</v>
+      </c>
+      <c r="U40" t="n">
+        <v>17</v>
+      </c>
+      <c r="V40" t="n">
+        <v>9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>10</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
         <v>8</v>
       </c>
-      <c r="P40" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>23</v>
-      </c>
-      <c r="R40" t="n">
-        <v>20</v>
-      </c>
-      <c r="S40" t="n">
+      <c r="Z40" t="n">
         <v>13</v>
       </c>
-      <c r="T40" t="n">
-        <v>7</v>
-      </c>
-      <c r="U40" t="n">
-        <v>10</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>5</v>
-      </c>
       <c r="AA40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>55.8</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>41.2</v>
+        <v>45.2</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH40" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897770</v>
+        <v>897754</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897770.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30</v>
+      </c>
+      <c r="K41" t="n">
+        <v>61</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>41</v>
+      </c>
+      <c r="R41" t="n">
+        <v>14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>11</v>
+      </c>
+      <c r="T41" t="n">
+        <v>28</v>
+      </c>
+      <c r="U41" t="n">
+        <v>24</v>
+      </c>
+      <c r="V41" t="n">
+        <v>8</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>26-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897816</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897816.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>48</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+      <c r="K42" t="n">
+        <v>75</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>13</v>
+      </c>
+      <c r="P42" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>29</v>
+      </c>
+      <c r="R42" t="n">
+        <v>14</v>
+      </c>
+      <c r="S42" t="n">
+        <v>17</v>
+      </c>
+      <c r="T42" t="n">
+        <v>15</v>
+      </c>
+      <c r="U42" t="n">
+        <v>20</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>48</v>
+      </c>
+      <c r="J43" t="n">
+        <v>24</v>
+      </c>
+      <c r="K43" t="n">
+        <v>72</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>19</v>
+      </c>
+      <c r="R43" t="n">
+        <v>12</v>
+      </c>
+      <c r="S43" t="n">
+        <v>32</v>
+      </c>
+      <c r="T43" t="n">
+        <v>14</v>
+      </c>
+      <c r="U43" t="n">
+        <v>12</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z43" t="n">
         <v>3</v>
       </c>
-      <c r="I41" t="n">
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>49</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33</v>
+      </c>
+      <c r="K44" t="n">
+        <v>82</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>19</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>17</v>
+      </c>
+      <c r="T44" t="n">
+        <v>15</v>
+      </c>
+      <c r="U44" t="n">
+        <v>10</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7</v>
+      </c>
+      <c r="W44" t="n">
+        <v>6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>40</v>
+      </c>
+      <c r="J45" t="n">
+        <v>29</v>
+      </c>
+      <c r="K45" t="n">
+        <v>69</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12</v>
+      </c>
+      <c r="O45" t="n">
+        <v>12</v>
+      </c>
+      <c r="P45" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="n">
+        <v>11</v>
+      </c>
+      <c r="S45" t="n">
+        <v>19</v>
+      </c>
+      <c r="T45" t="n">
+        <v>18</v>
+      </c>
+      <c r="U45" t="n">
+        <v>15</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>13-11-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897767</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897767.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>21</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>34</v>
+      </c>
+      <c r="R46" t="n">
+        <v>14</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6</v>
+      </c>
+      <c r="T46" t="n">
+        <v>20</v>
+      </c>
+      <c r="U46" t="n">
         <v>28</v>
       </c>
-      <c r="J41" t="n">
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>25-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897813</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897813.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>34</v>
+      </c>
+      <c r="J47" t="n">
+        <v>25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>59</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>23</v>
+      </c>
+      <c r="R47" t="n">
+        <v>15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="n">
+        <v>25</v>
+      </c>
+      <c r="U47" t="n">
+        <v>28</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4</v>
+      </c>
+      <c r="W47" t="n">
+        <v>7</v>
+      </c>
+      <c r="X47" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897801</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897801.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>20</v>
+      </c>
+      <c r="K48" t="n">
+        <v>56</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>8</v>
+      </c>
+      <c r="P48" t="n">
         <v>27</v>
       </c>
-      <c r="K41" t="n">
-        <v>55</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2</v>
-      </c>
-      <c r="P41" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="Q48" t="n">
         <v>30</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R48" t="n">
+        <v>8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>17</v>
+      </c>
+      <c r="T48" t="n">
+        <v>33</v>
+      </c>
+      <c r="U48" t="n">
+        <v>32</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>19-11-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897792</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897792.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>31</v>
+      </c>
+      <c r="J49" t="n">
+        <v>30</v>
+      </c>
+      <c r="K49" t="n">
+        <v>61</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8</v>
+      </c>
+      <c r="O49" t="n">
+        <v>12</v>
+      </c>
+      <c r="P49" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>21</v>
+      </c>
+      <c r="R49" t="n">
+        <v>13</v>
+      </c>
+      <c r="S49" t="n">
         <v>18</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T49" t="n">
+        <v>36</v>
+      </c>
+      <c r="U49" t="n">
+        <v>20</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>17-11-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897782</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897782.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28</v>
+      </c>
+      <c r="K50" t="n">
+        <v>62</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>29</v>
+      </c>
+      <c r="R50" t="n">
+        <v>13</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18</v>
+      </c>
+      <c r="T50" t="n">
+        <v>24</v>
+      </c>
+      <c r="U50" t="n">
+        <v>31</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6</v>
+      </c>
+      <c r="X50" t="n">
         <v>26</v>
       </c>
-      <c r="T41" t="n">
-        <v>15</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="Y50" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897771</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897771.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18</v>
+      </c>
+      <c r="J51" t="n">
+        <v>38</v>
+      </c>
+      <c r="K51" t="n">
+        <v>56</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>13</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q51" t="n">
         <v>29</v>
       </c>
-      <c r="V41" t="n">
+      <c r="R51" t="n">
+        <v>10</v>
+      </c>
+      <c r="S51" t="n">
+        <v>9</v>
+      </c>
+      <c r="T51" t="n">
+        <v>27</v>
+      </c>
+      <c r="U51" t="n">
+        <v>22</v>
+      </c>
+      <c r="V51" t="n">
+        <v>6</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA51" t="n">
         <v>5</v>
       </c>
-      <c r="W41" t="n">
-        <v>3</v>
-      </c>
-      <c r="X41" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC41" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>7.1</v>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>22.2</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +6308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,183 +6461,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>-1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>33.2</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>75.69999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="J2" t="n">
-        <v>33.4</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>75.3</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2</v>
+        <v>22.2</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.8</v>
+        <v>-3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>56.44</v>
+        <v>53.62</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8500000000000014</v>
+        <v>-3.430000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4279999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.173</v>
+        <v>-0.076</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8674999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1143333333333333</v>
+        <v>-0.09666666666666666</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>-0.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.6</v>
+        <v>5.56</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3099999999999998</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>-0.4</v>
       </c>
       <c r="F3" t="n">
+        <v>-0.09999999999999995</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>232.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50.52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.290000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.003999999999999992</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G3" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>48.76000000000001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.140000000000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.007999999999999985</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.3000000000000002</v>
-      </c>
       <c r="Y3" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.2</v>
+        <v>17.98</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.09</v>
+        <v>0.5000000000000003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5507,519 +6647,695 @@
         <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>29.6</v>
+        <v>25.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6.3</v>
+        <v>74.7</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.2</v>
+        <v>-2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>36.6</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5</v>
+        <v>168.8</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.2</v>
+        <v>6.8</v>
       </c>
       <c r="M4" t="n">
-        <v>15.8</v>
+        <v>22.8</v>
       </c>
       <c r="N4" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>49.3</v>
+        <v>43.54</v>
       </c>
       <c r="P4" t="n">
-        <v>4.6</v>
+        <v>-0.8300000000000012</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3</v>
+        <v>0.1825</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.05</v>
+        <v>-0.019</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0.06200000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="W4" t="n">
-        <v>6.2</v>
+        <v>11.2</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.2</v>
+        <v>-1.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>14.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.2</v>
+        <v>-5.700000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.460000000000001</v>
+        <v>11.02</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2800000000000001</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="G5" t="n">
-        <v>23.2</v>
+        <v>35.8</v>
       </c>
       <c r="H5" t="n">
-        <v>37.2</v>
+        <v>162.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>-5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>36.8</v>
+        <v>23.8</v>
       </c>
       <c r="K5" t="n">
-        <v>28.7</v>
+        <v>57.7</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.8</v>
+        <v>3.9</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>-0.9</v>
       </c>
       <c r="O5" t="n">
-        <v>37.34</v>
+        <v>61.62</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8900000000000006</v>
+        <v>1.339999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2075</v>
+        <v>0.36</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1723333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="S5" t="n">
-        <v>0.728</v>
+        <v>0.9119999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="U5" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="V5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z5" t="n">
         <v>-1</v>
       </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
       <c r="AA5" t="n">
-        <v>11.02</v>
+        <v>8.58</v>
       </c>
       <c r="AB5" t="n">
-        <v>-2.37</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>35.6</v>
+        <v>34.6</v>
       </c>
       <c r="H6" t="n">
-        <v>37.8</v>
+        <v>34.3</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="J6" t="n">
-        <v>28</v>
+        <v>32.8</v>
       </c>
       <c r="K6" t="n">
-        <v>204.5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>6.8</v>
+        <v>19.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
-        <v>45</v>
+        <v>50.8</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.91</v>
+        <v>-4.970000000000002</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.147</v>
+        <v>0.023</v>
       </c>
       <c r="S6" t="n">
-        <v>0.634</v>
+        <v>0.7699999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0.062</v>
       </c>
       <c r="U6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
         <v>7.4</v>
       </c>
-      <c r="V6" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12.16</v>
-      </c>
       <c r="AB6" t="n">
-        <v>-0.4100000000000001</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G7" t="n">
-        <v>28.2</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>20.7</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.04999999999999929</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.699999999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>45.77999999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-2.039999999999999</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8539999999999999</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.42</v>
+        <v>13.36</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.5800000000000001</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>25.6</v>
+        <v>27.6</v>
       </c>
       <c r="H8" t="n">
-        <v>56.8</v>
+        <v>31.3</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.5</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="L8" t="n">
-        <v>2.6</v>
+        <v>-0.1</v>
       </c>
       <c r="M8" t="n">
-        <v>15.4</v>
+        <v>5.6</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="O8" t="n">
-        <v>51.71999999999999</v>
+        <v>45.06</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.609999999999999</v>
+        <v>1.919999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.172</v>
+        <v>0.184</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-0.08399999999999999</v>
       </c>
       <c r="S8" t="n">
+        <v>0.8160000000000001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.6</v>
       </c>
       <c r="W8" t="n">
         <v>5.6</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.48</v>
+        <v>12.94</v>
       </c>
       <c r="AB8" t="n">
-        <v>-2.65</v>
+        <v>-2.489999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3300000000000004</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.980000000000001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5800000000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.26000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5660000000000001</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.280000000000001</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D11" t="n">
         <v>2.4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>52.80000000000001</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="J11" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>29</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.09600000000000002</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z11" t="n">
         <v>-0.3</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>28</v>
-      </c>
-      <c r="H9" t="n">
-        <v>139</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>54.46</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.460000000000001</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0.167</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.03300000000000001</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>-1.24</v>
+      <c r="AA11" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-2.69</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -609,126 +609,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897820</v>
+        <v>897818</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897820.html</t>
+          <t>https://text.khl.ru/text/897818.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>42</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27</v>
+      </c>
+      <c r="K2" t="n">
+        <v>69</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11</v>
+      </c>
+      <c r="P2" t="n">
         <v>35</v>
       </c>
-      <c r="J2" t="n">
-        <v>25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30</v>
-      </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
         <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>52.6</v>
+        <v>55.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>56.5</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -737,659 +737,659 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897794</v>
+        <v>897802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897794.html</t>
+          <t>https://text.khl.ru/text/897802.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>36</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
         <v>6</v>
       </c>
-      <c r="P3" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>27</v>
-      </c>
-      <c r="R3" t="n">
-        <v>18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>16</v>
-      </c>
-      <c r="T3" t="n">
-        <v>18</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>10</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>59.7</v>
+        <v>54.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>78.3</v>
+        <v>72.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.57</v>
+        <v>0.89</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.1</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897790</v>
+        <v>897796</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897790.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S4" t="n">
         <v>14</v>
       </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
         <v>21</v>
-      </c>
-      <c r="V4" t="n">
-        <v>12</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>55.3</v>
+        <v>64</v>
       </c>
       <c r="AD4" t="n">
-        <v>34.4</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897774</v>
+        <v>897788</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="R5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T5" t="n">
+        <v>22</v>
+      </c>
+      <c r="U5" t="n">
+        <v>31</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
       </c>
-      <c r="U5" t="n">
-        <v>18</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>41</v>
+        <v>54.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.5</v>
+        <v>41.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897761</v>
+        <v>897775</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P6" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
         <v>4</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>42.3</v>
+        <v>55.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>55.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897819</v>
+        <v>897823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897819.html</t>
+          <t>https://text.khl.ru/text/897823.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" t="n">
         <v>68</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>18</v>
+      </c>
+      <c r="U7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
+      <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>21</v>
-      </c>
-      <c r="S7" t="n">
-        <v>10</v>
-      </c>
-      <c r="T7" t="n">
-        <v>19</v>
-      </c>
-      <c r="U7" t="n">
-        <v>17</v>
-      </c>
-      <c r="V7" t="n">
-        <v>10</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AA7" t="n">
         <v>4</v>
       </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>56.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>52.8</v>
+        <v>64.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897805</v>
+        <v>897812</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897812.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>29</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>15</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>26</v>
-      </c>
-      <c r="J8" t="n">
-        <v>28</v>
-      </c>
-      <c r="K8" t="n">
-        <v>54</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12</v>
-      </c>
-      <c r="P8" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>26</v>
-      </c>
-      <c r="R8" t="n">
-        <v>12</v>
-      </c>
-      <c r="S8" t="n">
-        <v>16</v>
-      </c>
-      <c r="T8" t="n">
-        <v>18</v>
-      </c>
-      <c r="U8" t="n">
-        <v>15</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4</v>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>55.9</v>
+        <v>45.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1398,112 +1398,112 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897800</v>
+        <v>897807</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897800.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
+        <v>38</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23</v>
+      </c>
+      <c r="K9" t="n">
+        <v>61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>21</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" t="n">
+        <v>29</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y9" t="n">
         <v>31</v>
       </c>
-      <c r="J9" t="n">
-        <v>27</v>
-      </c>
-      <c r="K9" t="n">
-        <v>58</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>27</v>
-      </c>
-      <c r="R9" t="n">
-        <v>14</v>
-      </c>
-      <c r="S9" t="n">
-        <v>19</v>
-      </c>
-      <c r="T9" t="n">
-        <v>9</v>
-      </c>
-      <c r="U9" t="n">
-        <v>11</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>3</v>
-      </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>57.8</v>
+        <v>56.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1511,102 +1511,99 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897782</v>
+        <v>897799</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
+        <v>31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>58</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>33</v>
+      </c>
+      <c r="R10" t="n">
         <v>28</v>
       </c>
-      <c r="J10" t="n">
-        <v>34</v>
-      </c>
-      <c r="K10" t="n">
-        <v>62</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>29</v>
-      </c>
-      <c r="R10" t="n">
-        <v>18</v>
-      </c>
       <c r="S10" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T10" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="U10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V10" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
         <v>6</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1617,299 +1614,299 @@
         <v>50</v>
       </c>
       <c r="AD10" t="n">
-        <v>56.4</v>
+        <v>40.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897772</v>
+        <v>897786</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
+        <v>11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>23</v>
+      </c>
+      <c r="R11" t="n">
         <v>8</v>
       </c>
-      <c r="P11" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>40</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>17</v>
       </c>
-      <c r="S11" t="n">
-        <v>13</v>
-      </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z11" t="n">
         <v>5</v>
       </c>
-      <c r="X11" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>3</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>42</v>
+        <v>52.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>39.4</v>
+        <v>46.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>0.17</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>12.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897822</v>
+        <v>897818</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897822.html</t>
+          <t>https://text.khl.ru/text/897818.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
+        <v>13</v>
+      </c>
+      <c r="P12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13</v>
+      </c>
+      <c r="T12" t="n">
+        <v>24</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
         <v>8</v>
       </c>
-      <c r="P12" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>34</v>
-      </c>
-      <c r="R12" t="n">
-        <v>19</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="Y12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
         <v>8</v>
       </c>
-      <c r="T12" t="n">
-        <v>9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>9</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>4</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>29.2</v>
+        <v>44.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897813</v>
+        <v>897809</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K13" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>6</v>
@@ -1918,22 +1915,22 @@
         <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T13" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>4</v>
@@ -1942,138 +1939,138 @@
         <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>52.8</v>
+        <v>39.3</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AF13" t="n">
         <v>0.33</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897808</v>
+        <v>897804</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897804.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K14" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="n">
+        <v>45</v>
+      </c>
+      <c r="R14" t="n">
         <v>26</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
         <v>14</v>
       </c>
-      <c r="S14" t="n">
-        <v>12</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21</v>
-      </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>39.5</v>
+        <v>25</v>
       </c>
       <c r="AD14" t="n">
-        <v>95.5</v>
+        <v>29.8</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2082,118 +2079,124 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897789</v>
+        <v>897793</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897793.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
+        <v>48</v>
+      </c>
+      <c r="K15" t="n">
+        <v>72</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="n">
         <v>38</v>
       </c>
-      <c r="K15" t="n">
-        <v>61</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>34</v>
-      </c>
       <c r="R15" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="S15" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC15" t="n">
         <v>33.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>46.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -2204,20 +2207,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897776</v>
+        <v>897775</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897776.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2227,75 +2230,75 @@
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
+        <v>23</v>
+      </c>
+      <c r="J16" t="n">
+        <v>26</v>
+      </c>
+      <c r="K16" t="n">
+        <v>49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="n">
         <v>31</v>
       </c>
-      <c r="J16" t="n">
-        <v>41</v>
-      </c>
-      <c r="K16" t="n">
-        <v>72</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
+        <v>12</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="n">
         <v>6</v>
       </c>
-      <c r="P16" t="n">
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" t="n">
         <v>19</v>
       </c>
-      <c r="Q16" t="n">
-        <v>39</v>
-      </c>
-      <c r="R16" t="n">
-        <v>16</v>
-      </c>
-      <c r="S16" t="n">
-        <v>13</v>
-      </c>
-      <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
-        <v>13</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="Y16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z16" t="n">
         <v>4</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>7</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>32.8</v>
+        <v>44.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>48</v>
+        <v>54.5</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2304,113 +2307,113 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897821</v>
+        <v>897824</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897821.html</t>
+          <t>https://text.khl.ru/text/897824.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>37</v>
+      </c>
+      <c r="K17" t="n">
+        <v>68</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>34</v>
+      </c>
+      <c r="R17" t="n">
+        <v>19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14</v>
+      </c>
+      <c r="T17" t="n">
+        <v>18</v>
+      </c>
+      <c r="U17" t="n">
+        <v>26</v>
+      </c>
+      <c r="V17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>60</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" t="n">
-        <v>90</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14</v>
-      </c>
-      <c r="P17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>39</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>23</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
         <v>20</v>
       </c>
-      <c r="V17" t="n">
-        <v>6</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>27</v>
-      </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AD17" t="n">
         <v>40.9</v>
       </c>
-      <c r="AD17" t="n">
-        <v>28.6</v>
-      </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18">
@@ -2432,42 +2435,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897802</v>
+        <v>897803</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897802.html</t>
+          <t>https://text.khl.ru/text/897803.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K18" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2476,66 +2479,66 @@
         <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V18" t="n">
+        <v>9</v>
+      </c>
+      <c r="W18" t="n">
         <v>4</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA18" t="n">
         <v>3</v>
       </c>
-      <c r="X18" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>9</v>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>45.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>27.3</v>
+        <v>38.7</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2546,87 +2549,87 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897794</v>
+        <v>897798</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897794.html</t>
+          <t>https://text.khl.ru/text/897798.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K19" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>33</v>
+      </c>
+      <c r="R19" t="n">
         <v>27</v>
       </c>
-      <c r="Q19" t="n">
-        <v>40</v>
-      </c>
-      <c r="R19" t="n">
-        <v>16</v>
-      </c>
       <c r="S19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T19" t="n">
+        <v>13</v>
+      </c>
+      <c r="U19" t="n">
+        <v>15</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
         <v>5</v>
       </c>
-      <c r="U19" t="n">
-        <v>18</v>
-      </c>
-      <c r="V19" t="n">
-        <v>7</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2634,22 +2637,22 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>40.3</v>
+        <v>46.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>21.7</v>
+        <v>46.4</v>
       </c>
       <c r="AE19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="20">
@@ -2660,110 +2663,110 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897784</v>
+        <v>897785</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897784.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
       <c r="I20" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="K20" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>6</v>
       </c>
       <c r="O20" t="n">
+        <v>8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>24</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
         <v>6</v>
       </c>
-      <c r="P20" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>30</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="Y20" t="n">
         <v>17</v>
       </c>
-      <c r="S20" t="n">
+      <c r="Z20" t="n">
         <v>8</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="n">
         <v>10</v>
-      </c>
-      <c r="U20" t="n">
-        <v>15</v>
-      </c>
-      <c r="V20" t="n">
-        <v>6</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7</v>
-      </c>
-      <c r="X20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC20" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12.1</v>
       </c>
     </row>
     <row r="21">
@@ -2774,201 +2777,201 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897780</v>
+        <v>897778</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897780.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
+        <v>34</v>
+      </c>
+      <c r="K21" t="n">
+        <v>61</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
         <v>22</v>
       </c>
-      <c r="K21" t="n">
-        <v>57</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" t="n">
-        <v>23</v>
-      </c>
       <c r="Q21" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="S21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="V21" t="n">
         <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>40.4</v>
+        <v>35.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>66.7</v>
+        <v>26.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.6</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897811</v>
+        <v>897826</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897811.html</t>
+          <t>https://text.khl.ru/text/897826.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
         <v>8</v>
       </c>
       <c r="P22" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q22" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R22" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11</v>
+      </c>
+      <c r="T22" t="n">
         <v>21</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4</v>
+      </c>
+      <c r="X22" t="n">
         <v>14</v>
       </c>
-      <c r="T22" t="n">
-        <v>17</v>
-      </c>
-      <c r="U22" t="n">
-        <v>27</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z22" t="n">
         <v>3</v>
       </c>
-      <c r="W22" t="n">
-        <v>6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2976,124 +2979,124 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>49.2</v>
+        <v>51.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>38.6</v>
+        <v>58.3</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AH22" t="n">
-        <v>3.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897801</v>
+        <v>897816</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897801.html</t>
+          <t>https://text.khl.ru/text/897816.html</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K23" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
         <v>8</v>
       </c>
-      <c r="O23" t="n">
-        <v>6</v>
-      </c>
       <c r="P23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R23" t="n">
         <v>17</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T23" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="U23" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
         <v>9</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>52.6</v>
+        <v>48.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>49.2</v>
+        <v>57.1</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3102,101 +3105,101 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897795</v>
+        <v>897807</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="R24" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="S24" t="n">
+        <v>12</v>
+      </c>
+      <c r="T24" t="n">
+        <v>29</v>
+      </c>
+      <c r="U24" t="n">
+        <v>24</v>
+      </c>
+      <c r="V24" t="n">
         <v>9</v>
       </c>
-      <c r="T24" t="n">
-        <v>10</v>
-      </c>
-      <c r="U24" t="n">
-        <v>15</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1</v>
-      </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z24" t="n">
         <v>5</v>
       </c>
       <c r="AA24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -3204,364 +3207,352 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>28.3</v>
+        <v>43.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.33</v>
+        <v>54.7</v>
       </c>
       <c r="AG24" t="n">
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.7</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897781</v>
+        <v>897791</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K25" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>39</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>13</v>
+      </c>
+      <c r="T25" t="n">
         <v>29</v>
       </c>
-      <c r="P25" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>22</v>
-      </c>
-      <c r="R25" t="n">
-        <v>11</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
+        <v>26</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="n">
         <v>16</v>
       </c>
-      <c r="T25" t="n">
-        <v>11</v>
-      </c>
-      <c r="U25" t="n">
-        <v>14</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>4</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>60.7</v>
+        <v>31.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>44</v>
+        <v>52.7</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Сибирь</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
       <c r="D26" t="n">
-        <v>897773</v>
+        <v>897781</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
         <v>30</v>
-      </c>
-      <c r="J26" t="n">
-        <v>24</v>
       </c>
       <c r="K26" t="n">
         <v>54</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="O26" t="n">
+        <v>47</v>
+      </c>
+      <c r="P26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>34</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>11</v>
+      </c>
+      <c r="T26" t="n">
+        <v>14</v>
+      </c>
+      <c r="U26" t="n">
+        <v>11</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
         <v>4</v>
       </c>
-      <c r="P26" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>29</v>
-      </c>
-      <c r="R26" t="n">
-        <v>12</v>
-      </c>
-      <c r="S26" t="n">
-        <v>15</v>
-      </c>
-      <c r="T26" t="n">
-        <v>20</v>
-      </c>
-      <c r="U26" t="n">
-        <v>20</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1</v>
-      </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>50.8</v>
+        <v>39.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897820</v>
+        <v>897827</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897820.html</t>
+          <t>https://text.khl.ru/text/897827.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>33</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>29</v>
+      </c>
+      <c r="R27" t="n">
+        <v>12</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>21</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>60</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>30</v>
-      </c>
-      <c r="R27" t="n">
-        <v>25</v>
-      </c>
-      <c r="S27" t="n">
-        <v>13</v>
-      </c>
-      <c r="T27" t="n">
-        <v>10</v>
-      </c>
-      <c r="U27" t="n">
-        <v>13</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>47.4</v>
+        <v>45.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.33</v>
+        <v>55.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="28">
@@ -3572,110 +3563,110 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897812</v>
+        <v>897813</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897813.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J28" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K28" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="V28" t="n">
         <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>54.7</v>
+        <v>58.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>40</v>
+        <v>47.2</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH28" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3686,87 +3677,87 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897803</v>
+        <v>897801</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897803.html</t>
+          <t>https://text.khl.ru/text/897801.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20</v>
+      </c>
+      <c r="K29" t="n">
+        <v>56</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>40</v>
-      </c>
-      <c r="K29" t="n">
-        <v>54</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8</v>
       </c>
       <c r="O29" t="n">
         <v>8</v>
       </c>
       <c r="P29" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q29" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>17</v>
+      </c>
+      <c r="T29" t="n">
+        <v>33</v>
+      </c>
+      <c r="U29" t="n">
+        <v>32</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y29" t="n">
         <v>9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>13</v>
-      </c>
-      <c r="T29" t="n">
-        <v>19</v>
-      </c>
-      <c r="U29" t="n">
-        <v>12</v>
-      </c>
-      <c r="V29" t="n">
-        <v>4</v>
-      </c>
-      <c r="W29" t="n">
-        <v>9</v>
-      </c>
-      <c r="X29" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>14</v>
       </c>
       <c r="Z29" t="n">
         <v>3</v>
       </c>
       <c r="AA29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3774,10 +3765,10 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>34.1</v>
+        <v>47.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>61.3</v>
+        <v>50.8</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3786,226 +3777,226 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897797</v>
+        <v>897792</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897797.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J30" t="n">
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>21</v>
+      </c>
+      <c r="R30" t="n">
+        <v>13</v>
+      </c>
+      <c r="S30" t="n">
+        <v>18</v>
+      </c>
+      <c r="T30" t="n">
         <v>36</v>
       </c>
-      <c r="Q30" t="n">
-        <v>27</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6</v>
-      </c>
-      <c r="S30" t="n">
-        <v>17</v>
-      </c>
-      <c r="T30" t="n">
-        <v>19</v>
-      </c>
       <c r="U30" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AA30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>57.1</v>
+        <v>60.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>42.2</v>
+        <v>64.3</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897787</v>
+        <v>897782</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J31" t="n">
         <v>28</v>
       </c>
       <c r="K31" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29</v>
+      </c>
+      <c r="R31" t="n">
+        <v>13</v>
+      </c>
+      <c r="S31" t="n">
+        <v>18</v>
+      </c>
+      <c r="T31" t="n">
         <v>24</v>
       </c>
-      <c r="Q31" t="n">
-        <v>19</v>
-      </c>
-      <c r="R31" t="n">
-        <v>12</v>
-      </c>
-      <c r="S31" t="n">
-        <v>15</v>
-      </c>
-      <c r="T31" t="n">
-        <v>15</v>
-      </c>
       <c r="U31" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
         <v>6</v>
       </c>
-      <c r="W31" t="n">
-        <v>1</v>
-      </c>
       <c r="X31" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Z31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
         <v>3</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>55.8</v>
+        <v>50</v>
       </c>
       <c r="AD31" t="n">
-        <v>48.4</v>
+        <v>43.6</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4014,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>12.9</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -4184,529 +4175,529 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="H2" t="n">
-        <v>37.2</v>
+        <v>74.19999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>31.6</v>
+        <v>29.4</v>
       </c>
       <c r="K2" t="n">
-        <v>34.8</v>
+        <v>48.3</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.9</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>14.6</v>
+        <v>12.2</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="O2" t="n">
-        <v>50.18</v>
+        <v>56.86</v>
       </c>
       <c r="P2" t="n">
-        <v>3.930000000000001</v>
+        <v>0.01000000000000085</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.334</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08299999999999999</v>
+        <v>0.001999999999999994</v>
       </c>
       <c r="S2" t="n">
-        <v>0.792</v>
+        <v>0.9280000000000002</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.08699999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="U2" t="n">
-        <v>4.6</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>15.8</v>
+        <v>10.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-5.6</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.78</v>
+        <v>10.82</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.93</v>
+        <v>-0.6499999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>-0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>29.8</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>7.699999999999999</v>
+        <v>32.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>30.2</v>
+        <v>23.4</v>
       </c>
       <c r="K3" t="n">
-        <v>15.7</v>
+        <v>28.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="O3" t="n">
-        <v>52.38000000000001</v>
+        <v>55.9</v>
       </c>
       <c r="P3" t="n">
-        <v>3.430000000000001</v>
+        <v>4.290000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4</v>
+        <v>0.036</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1</v>
+        <v>-0.036</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.735</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.12</v>
+        <v>0.03666666666666669</v>
       </c>
       <c r="U3" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y3" t="n">
         <v>6.6</v>
       </c>
-      <c r="X3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.260000000000002</v>
+        <v>6.36</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.1000000000000001</v>
+        <v>0.7900000000000003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>24.2</v>
+        <v>25.4</v>
       </c>
       <c r="H4" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.2</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
-        <v>22.7</v>
+        <v>101</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>15.8</v>
+        <v>13.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>35.17999999999999</v>
+        <v>37.54000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06000000000000085</v>
+        <v>0.6699999999999996</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.145</v>
+        <v>0.266</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1126666666666667</v>
+        <v>-0.06699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.15</v>
+        <v>-0.017</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.3</v>
+        <v>0.1</v>
       </c>
       <c r="W4" t="n">
-        <v>5.4</v>
+        <v>10.2</v>
       </c>
       <c r="X4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.4</v>
+        <v>14.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.8</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="F5" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74.30000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="L5" t="n">
         <v>-0.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-1.4</v>
-      </c>
       <c r="M5" t="n">
-        <v>7.8</v>
+        <v>14.2</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O5" t="n">
-        <v>41.18</v>
+        <v>51.04</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7700000000000002</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.188</v>
+        <v>0.35</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="S5" t="n">
-        <v>0.734</v>
+        <v>0.876</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03299999999999999</v>
+        <v>0.05800000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y5" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
-      </c>
       <c r="AA5" t="n">
-        <v>9.640000000000001</v>
+        <v>16.74</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.86</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="H6" t="n">
-        <v>39.2</v>
+        <v>180.3</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>29.2</v>
+        <v>40.8</v>
       </c>
       <c r="K6" t="n">
-        <v>58.7</v>
+        <v>61.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>22.6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="O6" t="n">
-        <v>48.32000000000001</v>
+        <v>42.88</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.129999999999999</v>
+        <v>4.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.066</v>
+        <v>0.23</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-0.04933333333333333</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.091</v>
+        <v>-0.08900000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="W6" t="n">
-        <v>14.6</v>
+        <v>12.8</v>
       </c>
       <c r="X6" t="n">
-        <v>-4.7</v>
+        <v>-2.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.5</v>
+        <v>-7.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.32</v>
+        <v>11.96</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3</v>
+        <v>-3.359999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>25.2</v>
+        <v>33.4</v>
       </c>
       <c r="H7" t="n">
-        <v>56.2</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.090000000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z7" t="n">
         <v>-2.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>22</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>49.82</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-1.919999999999999</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>-0.8</v>
-      </c>
       <c r="AA7" t="n">
-        <v>7.659999999999999</v>
+        <v>4.82</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.6599999999999999</v>
+        <v>0.2700000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,206 +609,206 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-11-2025</t>
+          <t>29-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897818</v>
+        <v>897829</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897818.html</t>
+          <t>https://text.khl.ru/text/897829.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R2" t="n">
         <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>55.6</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>61.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>27-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897802</v>
+        <v>897819</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897802.html</t>
+          <t>https://text.khl.ru/text/897819.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>68</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>21</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
         <v>19</v>
       </c>
-      <c r="J3" t="n">
-        <v>41</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>16</v>
-      </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -816,124 +816,124 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>54.5</v>
+        <v>56.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>72.7</v>
+        <v>52.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897796</v>
+        <v>897805</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897796.html</t>
+          <t>https://text.khl.ru/text/897805.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>26</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12</v>
+      </c>
+      <c r="S4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="AA4" t="n">
         <v>4</v>
       </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>18</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>14</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3</v>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>64</v>
+        <v>55.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>70.59999999999999</v>
+        <v>54.5</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -945,109 +945,109 @@
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897788</v>
+        <v>897800</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897788.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T5" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9</v>
       </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>54.8</v>
+        <v>57.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>41.5</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1056,101 +1056,101 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897775</v>
+        <v>897782</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>62</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>31</v>
+      </c>
+      <c r="U6" t="n">
+        <v>24</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
         <v>26</v>
       </c>
-      <c r="J6" t="n">
-        <v>23</v>
-      </c>
-      <c r="K6" t="n">
-        <v>49</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19</v>
-      </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1158,182 +1158,182 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>55.4</v>
+        <v>50</v>
       </c>
       <c r="AD6" t="n">
-        <v>45.5</v>
+        <v>56.4</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897823</v>
+        <v>897815</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897823.html</t>
+          <t>https://text.khl.ru/text/897815.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="AA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="AD7" t="n">
         <v>29</v>
       </c>
-      <c r="K7" t="n">
-        <v>68</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>16</v>
-      </c>
-      <c r="S7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" t="n">
-        <v>18</v>
-      </c>
-      <c r="U7" t="n">
-        <v>10</v>
-      </c>
-      <c r="V7" t="n">
-        <v>11</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>64.3</v>
-      </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897812</v>
+        <v>897809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
         <v>32</v>
       </c>
-      <c r="J8" t="n">
-        <v>23</v>
-      </c>
       <c r="K8" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1342,154 +1342,154 @@
         <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P8" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S8" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
+        <v>4</v>
+      </c>
+      <c r="W8" t="n">
         <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>45.3</v>
+        <v>59.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>60</v>
+        <v>60.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG8" t="n">
         <v>0.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897807</v>
+        <v>897795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897795.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>39</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>57</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
         <v>38</v>
       </c>
-      <c r="J9" t="n">
-        <v>23</v>
-      </c>
-      <c r="K9" t="n">
-        <v>61</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27</v>
-      </c>
       <c r="Q9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S9" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="T9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1500,10 +1500,10 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>56.2</v>
+        <v>71.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>45.3</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1511,110 +1511,113 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.67</v>
+      </c>
       <c r="AH9" t="n">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897799</v>
+        <v>897787</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897799.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J10" t="n">
         <v>31</v>
       </c>
-      <c r="J10" t="n">
-        <v>27</v>
-      </c>
       <c r="K10" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R10" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="T10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>50</v>
+        <v>44.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>40.5</v>
+        <v>51.6</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1623,454 +1626,454 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.699999999999999</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897786</v>
+        <v>897773</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897786.html</t>
+          <t>https://text.khl.ru/text/897773.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
-        <v>25</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R11" t="n">
         <v>15</v>
       </c>
-      <c r="K11" t="n">
-        <v>40</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="S11" t="n">
+        <v>12</v>
+      </c>
+      <c r="T11" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" t="n">
+        <v>20</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
         <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11</v>
-      </c>
-      <c r="P11" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>23</v>
-      </c>
-      <c r="R11" t="n">
-        <v>8</v>
-      </c>
-      <c r="S11" t="n">
-        <v>17</v>
-      </c>
-      <c r="T11" t="n">
-        <v>19</v>
-      </c>
-      <c r="U11" t="n">
-        <v>22</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>18</v>
       </c>
       <c r="Y11" t="n">
         <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>52.1</v>
+        <v>49.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.3</v>
+        <v>50</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-11-2025</t>
+          <t>27-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897818</v>
+        <v>897819</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897818.html</t>
+          <t>https://text.khl.ru/text/897819.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J12" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P12" t="n">
         <v>28</v>
       </c>
       <c r="Q12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>21</v>
+      </c>
+      <c r="T12" t="n">
         <v>17</v>
       </c>
-      <c r="S12" t="n">
-        <v>13</v>
-      </c>
-      <c r="T12" t="n">
-        <v>24</v>
-      </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
         <v>5</v>
       </c>
-      <c r="X12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AE12" t="n">
         <v>3</v>
       </c>
-      <c r="AA12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC12" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897809</v>
+        <v>897806</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
         <v>32</v>
       </c>
-      <c r="J13" t="n">
-        <v>31</v>
-      </c>
       <c r="K13" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="n">
         <v>34</v>
       </c>
       <c r="R13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
         <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>40.4</v>
+        <v>45.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>39.3</v>
+        <v>37.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897804</v>
+        <v>897800</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K14" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>37</v>
+      </c>
+      <c r="R14" t="n">
+        <v>19</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14</v>
+      </c>
+      <c r="T14" t="n">
+        <v>11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" t="n">
         <v>2</v>
       </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>45</v>
-      </c>
-      <c r="R14" t="n">
-        <v>26</v>
-      </c>
-      <c r="S14" t="n">
-        <v>13</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
         <v>14</v>
       </c>
-      <c r="U14" t="n">
-        <v>33</v>
-      </c>
-      <c r="V14" t="n">
-        <v>5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>20</v>
-      </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>25</v>
+        <v>42.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>29.8</v>
+        <v>55</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2079,215 +2082,215 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>28.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897793</v>
+        <v>897792</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>61</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>32</v>
+      </c>
+      <c r="R15" t="n">
+        <v>18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>36</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>24</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48</v>
-      </c>
-      <c r="K15" t="n">
-        <v>72</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>38</v>
-      </c>
-      <c r="R15" t="n">
-        <v>32</v>
-      </c>
-      <c r="S15" t="n">
-        <v>12</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12</v>
-      </c>
-      <c r="U15" t="n">
-        <v>14</v>
-      </c>
-      <c r="V15" t="n">
-        <v>8</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>3</v>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>33.3</v>
+        <v>39.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>46.2</v>
+        <v>35.7</v>
       </c>
       <c r="AE15" t="n">
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897775</v>
+        <v>897783</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>36</v>
+      </c>
+      <c r="K16" t="n">
+        <v>57</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>29</v>
+      </c>
+      <c r="R16" t="n">
         <v>23</v>
       </c>
-      <c r="J16" t="n">
+      <c r="S16" t="n">
+        <v>11</v>
+      </c>
+      <c r="T16" t="n">
+        <v>20</v>
+      </c>
+      <c r="U16" t="n">
+        <v>27</v>
+      </c>
+      <c r="V16" t="n">
+        <v>8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8</v>
+      </c>
+      <c r="X16" t="n">
         <v>26</v>
       </c>
-      <c r="K16" t="n">
-        <v>49</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>31</v>
-      </c>
-      <c r="R16" t="n">
-        <v>12</v>
-      </c>
-      <c r="S16" t="n">
-        <v>15</v>
-      </c>
-      <c r="T16" t="n">
-        <v>6</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>19</v>
-      </c>
       <c r="Y16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2295,10 +2298,10 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>44.6</v>
+        <v>50.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>54.5</v>
+        <v>42.6</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2307,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.699999999999999</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="17">
@@ -2321,87 +2324,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897824</v>
+        <v>897825</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897824.html</t>
+          <t>https://text.khl.ru/text/897825.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>11</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
         <v>31</v>
       </c>
-      <c r="J17" t="n">
-        <v>37</v>
-      </c>
-      <c r="K17" t="n">
-        <v>68</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
         <v>10</v>
       </c>
-      <c r="O17" t="n">
-        <v>8</v>
-      </c>
-      <c r="P17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>34</v>
-      </c>
-      <c r="R17" t="n">
-        <v>19</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14</v>
-      </c>
-      <c r="T17" t="n">
-        <v>18</v>
-      </c>
-      <c r="U17" t="n">
-        <v>26</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>25</v>
-      </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2409,10 +2412,10 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>47.7</v>
+        <v>39.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>40.9</v>
+        <v>13.9</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2424,209 +2427,209 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897803</v>
+        <v>897817</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897803.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>8</v>
       </c>
       <c r="P18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S18" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>65.90000000000001</v>
+        <v>43.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897798</v>
+        <v>897808</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897798.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29</v>
+      </c>
+      <c r="J19" t="n">
+        <v>23</v>
+      </c>
+      <c r="K19" t="n">
+        <v>52</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>19</v>
-      </c>
-      <c r="J19" t="n">
-        <v>47</v>
-      </c>
-      <c r="K19" t="n">
-        <v>66</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>6</v>
       </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="R19" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
         <v>4</v>
@@ -2637,130 +2640,130 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>46.8</v>
+        <v>60.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>46.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>26.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897785</v>
+        <v>897796</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897785.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30</v>
+      </c>
+      <c r="K20" t="n">
+        <v>60</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>20</v>
-      </c>
-      <c r="J20" t="n">
-        <v>22</v>
-      </c>
-      <c r="K20" t="n">
-        <v>42</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R20" t="n">
+        <v>14</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
         <v>12</v>
       </c>
-      <c r="S20" t="n">
-        <v>13</v>
-      </c>
-      <c r="T20" t="n">
-        <v>15</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
       <c r="V20" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" t="n">
         <v>3</v>
       </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>59.3</v>
+        <v>36</v>
       </c>
       <c r="AD20" t="n">
-        <v>75</v>
+        <v>29.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
@@ -2772,44 +2775,44 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Динамо Мн</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ак Барс</t>
-        </is>
-      </c>
       <c r="D21" t="n">
-        <v>897778</v>
+        <v>897785</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2818,46 +2821,46 @@
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S21" t="n">
         <v>12</v>
       </c>
       <c r="T21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U21" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2865,10 +2868,10 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>35.5</v>
+        <v>40.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -2877,101 +2880,101 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>25.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28-11-2025</t>
+          <t>29-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897826</v>
+        <v>897828</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897826.html</t>
+          <t>https://text.khl.ru/text/897828.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18</v>
+      </c>
+      <c r="K22" t="n">
+        <v>51</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11</v>
+      </c>
+      <c r="S22" t="n">
+        <v>26</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22</v>
+      </c>
+      <c r="U22" t="n">
+        <v>18</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" t="n">
-        <v>39</v>
-      </c>
-      <c r="K22" t="n">
-        <v>89</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>14</v>
-      </c>
-      <c r="O22" t="n">
-        <v>8</v>
-      </c>
-      <c r="P22" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>34</v>
-      </c>
-      <c r="R22" t="n">
-        <v>10</v>
-      </c>
-      <c r="S22" t="n">
-        <v>11</v>
-      </c>
-      <c r="T22" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>15</v>
       </c>
-      <c r="V22" t="n">
-        <v>5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4</v>
-      </c>
-      <c r="X22" t="n">
-        <v>14</v>
-      </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2979,65 +2982,65 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>51.4</v>
+        <v>55.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>58.3</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897816</v>
+        <v>897811</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897816.html</t>
+          <t>https://text.khl.ru/text/897811.html</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J23" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3046,43 +3049,43 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>8</v>
       </c>
       <c r="P23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" t="n">
         <v>31</v>
       </c>
       <c r="R23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S23" t="n">
         <v>14</v>
       </c>
       <c r="T23" t="n">
+        <v>17</v>
+      </c>
+      <c r="U23" t="n">
+        <v>27</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="n">
         <v>20</v>
       </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>6</v>
-      </c>
-      <c r="W23" t="n">
-        <v>9</v>
-      </c>
-      <c r="X23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
         <v>2</v>
@@ -3093,10 +3096,10 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>48.3</v>
+        <v>49.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>57.1</v>
+        <v>38.6</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3105,53 +3108,53 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897807</v>
+        <v>897801</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897801.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K24" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3160,106 +3163,112 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q24" t="n">
         <v>27</v>
       </c>
       <c r="R24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U24" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>9</v>
       </c>
-      <c r="W24" t="n">
-        <v>5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>31</v>
-      </c>
       <c r="Y24" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>43.8</v>
+        <v>52.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>54.7</v>
+        <v>49.2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897791</v>
+        <v>897795</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897795.html</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -3274,51 +3283,51 @@
         <v>6</v>
       </c>
       <c r="P25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>38</v>
+      </c>
+      <c r="R25" t="n">
+        <v>32</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" t="n">
+        <v>15</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
         <v>18</v>
       </c>
-      <c r="Q25" t="n">
-        <v>39</v>
-      </c>
-      <c r="R25" t="n">
-        <v>23</v>
-      </c>
-      <c r="S25" t="n">
-        <v>13</v>
-      </c>
-      <c r="T25" t="n">
-        <v>29</v>
-      </c>
-      <c r="U25" t="n">
-        <v>26</v>
-      </c>
-      <c r="V25" t="n">
-        <v>6</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>4</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>31.6</v>
+        <v>28.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>52.7</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
@@ -3330,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>28.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="26">
@@ -3341,12 +3350,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Драконы</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Сибирь</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -3358,93 +3367,93 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" t="n">
         <v>24</v>
-      </c>
-      <c r="J26" t="n">
-        <v>30</v>
       </c>
       <c r="K26" t="n">
         <v>54</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>2</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
+        <v>47</v>
+      </c>
+      <c r="O26" t="n">
         <v>29</v>
       </c>
-      <c r="O26" t="n">
-        <v>47</v>
-      </c>
       <c r="P26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="n">
         <v>22</v>
       </c>
-      <c r="Q26" t="n">
-        <v>34</v>
-      </c>
       <c r="R26" t="n">
+        <v>11</v>
+      </c>
+      <c r="S26" t="n">
         <v>16</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>11</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>14</v>
       </c>
-      <c r="U26" t="n">
-        <v>11</v>
-      </c>
       <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
         <v>2</v>
       </c>
-      <c r="W26" t="n">
-        <v>3</v>
-      </c>
       <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
         <v>10</v>
       </c>
-      <c r="Y26" t="n">
-        <v>12</v>
-      </c>
       <c r="Z26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA26" t="n">
         <v>4</v>
       </c>
-      <c r="AA26" t="n">
-        <v>2</v>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>39.3</v>
+        <v>60.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AH26" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3455,87 +3464,87 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897827</v>
+        <v>897824</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897827.html</t>
+          <t>https://text.khl.ru/text/897824.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K27" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="T27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
         <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3543,154 +3552,160 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>45.3</v>
+        <v>52.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>55.3</v>
+        <v>59.1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897813</v>
+        <v>897797</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897797.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
       <c r="I28" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K28" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>36</v>
+      </c>
+      <c r="R28" t="n">
+        <v>17</v>
+      </c>
+      <c r="S28" t="n">
         <v>6</v>
       </c>
-      <c r="O28" t="n">
-        <v>4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>23</v>
-      </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>19</v>
+      </c>
+      <c r="V28" t="n">
         <v>15</v>
       </c>
-      <c r="S28" t="n">
-        <v>15</v>
-      </c>
-      <c r="T28" t="n">
-        <v>25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>28</v>
-      </c>
-      <c r="V28" t="n">
-        <v>4</v>
-      </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AA28" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>58.9</v>
+        <v>42.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>47.2</v>
+        <v>57.8</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.800000000000001</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897801</v>
+        <v>897788</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897801.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3700,19 +3715,19 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J29" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K29" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3724,40 +3739,40 @@
         <v>8</v>
       </c>
       <c r="P29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R29" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T29" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U29" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3765,46 +3780,46 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>47.4</v>
+        <v>45.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>50.8</v>
+        <v>58.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG29" t="n">
         <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897792</v>
+        <v>897779</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3814,75 +3829,75 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
+        <v>43</v>
+      </c>
+      <c r="J30" t="n">
+        <v>43</v>
+      </c>
+      <c r="K30" t="n">
+        <v>86</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="n">
         <v>31</v>
       </c>
-      <c r="J30" t="n">
-        <v>30</v>
-      </c>
-      <c r="K30" t="n">
-        <v>61</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
+        <v>15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>11</v>
+      </c>
+      <c r="T30" t="n">
+        <v>44</v>
+      </c>
+      <c r="U30" t="n">
+        <v>33</v>
+      </c>
+      <c r="V30" t="n">
         <v>8</v>
       </c>
-      <c r="O30" t="n">
-        <v>12</v>
-      </c>
-      <c r="P30" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>21</v>
-      </c>
-      <c r="R30" t="n">
-        <v>13</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
+        <v>4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
         <v>18</v>
       </c>
-      <c r="T30" t="n">
-        <v>36</v>
-      </c>
-      <c r="U30" t="n">
-        <v>20</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>4</v>
-      </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>60.4</v>
+        <v>43.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>64.3</v>
+        <v>57.1</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3891,124 +3906,1261 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>ХК Сочи</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Барыс</t>
-        </is>
-      </c>
       <c r="D31" t="n">
-        <v>897782</v>
+        <v>897764</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897764.html</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>11</v>
+      </c>
+      <c r="P31" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>17</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>31</v>
+      </c>
+      <c r="T31" t="n">
+        <v>14</v>
+      </c>
+      <c r="U31" t="n">
+        <v>17</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>28-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897827</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897827.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33</v>
+      </c>
+      <c r="J32" t="n">
+        <v>32</v>
+      </c>
+      <c r="K32" t="n">
+        <v>65</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>24</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>17</v>
+      </c>
+      <c r="U32" t="n">
+        <v>21</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>26-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897816</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897816.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>48</v>
+      </c>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
+      <c r="K33" t="n">
+        <v>75</v>
+      </c>
+      <c r="L33" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>17</v>
+      </c>
+      <c r="T33" t="n">
+        <v>15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>20</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>48</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24</v>
+      </c>
+      <c r="K34" t="n">
+        <v>72</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>19</v>
+      </c>
+      <c r="R34" t="n">
+        <v>12</v>
+      </c>
+      <c r="S34" t="n">
+        <v>32</v>
+      </c>
+      <c r="T34" t="n">
+        <v>14</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8</v>
+      </c>
+      <c r="X34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>49</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>82</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>19</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>17</v>
+      </c>
+      <c r="T35" t="n">
+        <v>15</v>
+      </c>
+      <c r="U35" t="n">
+        <v>10</v>
+      </c>
+      <c r="V35" t="n">
+        <v>7</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>40</v>
+      </c>
+      <c r="J36" t="n">
+        <v>29</v>
+      </c>
+      <c r="K36" t="n">
+        <v>69</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12</v>
+      </c>
+      <c r="O36" t="n">
+        <v>12</v>
+      </c>
+      <c r="P36" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>11</v>
+      </c>
+      <c r="S36" t="n">
+        <v>19</v>
+      </c>
+      <c r="T36" t="n">
+        <v>18</v>
+      </c>
+      <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>27-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897822</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897822.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39</v>
+      </c>
+      <c r="J37" t="n">
+        <v>19</v>
+      </c>
+      <c r="K37" t="n">
+        <v>58</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
         <v>34</v>
       </c>
-      <c r="J31" t="n">
-        <v>28</v>
-      </c>
-      <c r="K31" t="n">
-        <v>62</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="Q37" t="n">
+        <v>14</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>19</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>9</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>24-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897810</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897810.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23</v>
+      </c>
+      <c r="K38" t="n">
+        <v>46</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>14</v>
+      </c>
+      <c r="R38" t="n">
+        <v>13</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>12</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897798</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897798.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="O31" t="n">
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>47</v>
+      </c>
+      <c r="J39" t="n">
+        <v>19</v>
+      </c>
+      <c r="K39" t="n">
+        <v>66</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>29</v>
+      </c>
+      <c r="R39" t="n">
+        <v>19</v>
+      </c>
+      <c r="S39" t="n">
+        <v>27</v>
+      </c>
+      <c r="T39" t="n">
+        <v>15</v>
+      </c>
+      <c r="U39" t="n">
+        <v>13</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897786</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897786.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>40</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>25</v>
+      </c>
+      <c r="R40" t="n">
+        <v>17</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>22</v>
+      </c>
+      <c r="U40" t="n">
+        <v>19</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>27</v>
+      </c>
+      <c r="J41" t="n">
+        <v>22</v>
+      </c>
+      <c r="K41" t="n">
+        <v>49</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>23</v>
+      </c>
+      <c r="R41" t="n">
+        <v>20</v>
+      </c>
+      <c r="S41" t="n">
+        <v>13</v>
+      </c>
+      <c r="T41" t="n">
         <v>7</v>
       </c>
-      <c r="P31" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>29</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="U41" t="n">
+        <v>10</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
         <v>13</v>
       </c>
-      <c r="S31" t="n">
-        <v>18</v>
-      </c>
-      <c r="T31" t="n">
-        <v>24</v>
-      </c>
-      <c r="U31" t="n">
-        <v>31</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>6</v>
-      </c>
-      <c r="X31" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB31" t="inlineStr">
+      <c r="Z41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB41" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>2.9</v>
+      <c r="AC41" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +5174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,338 +5327,338 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>74.19999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>29.4</v>
+        <v>31.8</v>
       </c>
       <c r="K2" t="n">
-        <v>48.3</v>
+        <v>15.7</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>12.2</v>
+        <v>17.6</v>
       </c>
       <c r="N2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>56.17999999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8140000000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="O2" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.01000000000000085</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.001999999999999994</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9280000000000002</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
       <c r="Y2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.82</v>
+        <v>7.92</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6499999999999998</v>
+        <v>0.3800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
         <v>2.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>30.8</v>
       </c>
       <c r="H3" t="n">
-        <v>32.5</v>
+        <v>30.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
-        <v>23.4</v>
+        <v>26.8</v>
       </c>
       <c r="K3" t="n">
-        <v>28.8</v>
+        <v>36.7</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>18.6</v>
+        <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4</v>
+        <v>-2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>55.9</v>
+        <v>52</v>
       </c>
       <c r="P3" t="n">
-        <v>4.290000000000001</v>
+        <v>-1.240000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.036</v>
+        <v>0.202</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.036</v>
+        <v>-0.038</v>
       </c>
       <c r="S3" t="n">
-        <v>0.735</v>
+        <v>0.868</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03666666666666669</v>
+        <v>-0.03299999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.36</v>
+        <v>8.66</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7900000000000003</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>25.4</v>
+        <v>29.2</v>
       </c>
       <c r="H4" t="n">
-        <v>18.3</v>
+        <v>30.2</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>39</v>
+        <v>32.6</v>
       </c>
       <c r="K4" t="n">
-        <v>101</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="M4" t="n">
-        <v>13.4</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>-1.7</v>
       </c>
       <c r="O4" t="n">
-        <v>37.54000000000001</v>
+        <v>44.32000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6699999999999996</v>
+        <v>-0.8399999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.266</v>
+        <v>0.206</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06699999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="S4" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.017</v>
+        <v>-0.02</v>
       </c>
       <c r="U4" t="n">
         <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.44</v>
+        <v>10.08</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2.88</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="H5" t="n">
-        <v>74.30000000000001</v>
+        <v>45.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>-0.3</v>
       </c>
       <c r="J5" t="n">
-        <v>30.8</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>167.7</v>
+        <v>24.5</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="n">
-        <v>14.2</v>
+        <v>4.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="O5" t="n">
-        <v>51.04</v>
+        <v>44.14</v>
       </c>
       <c r="P5" t="n">
-        <v>3.100000000000001</v>
+        <v>0.5699999999999996</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="R5" t="n">
         <v>0.025</v>
       </c>
       <c r="S5" t="n">
-        <v>0.876</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05800000000000001</v>
+        <v>-0.01699999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
         <v>0.8</v>
@@ -4515,189 +5667,365 @@
         <v>6.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.74</v>
+        <v>11.52</v>
       </c>
       <c r="AB5" t="n">
-        <v>-3.38</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="H6" t="n">
-        <v>180.3</v>
+        <v>47.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>40.8</v>
+        <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>61.7</v>
+        <v>81.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.7</v>
+        <v>-2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>22.6</v>
+        <v>18.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>42.88</v>
+        <v>49.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.09</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.23</v>
+        <v>0.102</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04933333333333333</v>
+        <v>0.002999999999999997</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.782</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.08900000000000001</v>
+        <v>-0.082</v>
       </c>
       <c r="U6" t="n">
         <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="W6" t="n">
-        <v>12.8</v>
+        <v>14.4</v>
       </c>
       <c r="X6" t="n">
-        <v>-2.3</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.8</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>-7.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.96</v>
+        <v>7.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>-3.359999999999999</v>
+        <v>-0.1300000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>50.61999999999999</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.220000000000002</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F8" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1.809999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.7075</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.04899999999999997</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4.409999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="E9" t="n">
         <v>-0.1</v>
       </c>
-      <c r="J7" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-1.090000000000001</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.2700000000000001</v>
+      <c r="F9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-2.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_actaul.xlsx
+++ b/khl/Form-5_Games_actaul.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,10 +605,6824 @@
           <t>SH_pct</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>_order_in_team</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>29-11-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>897828</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897828.html</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>51</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>32</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>22</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27-11-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>897820</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897820.html</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>27</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>897794</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897794.html</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>63</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>27</v>
+      </c>
+      <c r="R4" t="n">
+        <v>18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>897790</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897790.html</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>14</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" t="n">
+        <v>21</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40</v>
+      </c>
+      <c r="K6" t="n">
+        <v>69</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="n">
+        <v>15</v>
+      </c>
+      <c r="U6" t="n">
+        <v>18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>897833</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897833.html</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>22</v>
+      </c>
+      <c r="R7" t="n">
+        <v>17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>16</v>
+      </c>
+      <c r="T7" t="n">
+        <v>22</v>
+      </c>
+      <c r="U7" t="n">
+        <v>28</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-11-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>897823</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897823.html</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>13</v>
+      </c>
+      <c r="R8" t="n">
+        <v>16</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25-11-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>897812</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897812.html</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>32</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23</v>
+      </c>
+      <c r="K9" t="n">
+        <v>55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>29</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23-11-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>897807</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897807.html</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>23</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
+      <c r="S10" t="n">
+        <v>14</v>
+      </c>
+      <c r="T10" t="n">
+        <v>24</v>
+      </c>
+      <c r="U10" t="n">
+        <v>29</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21-11-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>897799</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897799.html</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>28</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01-12-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>897837</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897837.html</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29</v>
+      </c>
+      <c r="K12" t="n">
+        <v>53</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>41</v>
+      </c>
+      <c r="R12" t="n">
+        <v>16</v>
+      </c>
+      <c r="S12" t="n">
+        <v>17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>27</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>26-11-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>897815</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897815.html</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" t="n">
+        <v>55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>33</v>
+      </c>
+      <c r="R13" t="n">
+        <v>25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>22</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24-11-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>897809</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897809.html</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>32</v>
+      </c>
+      <c r="K14" t="n">
+        <v>63</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>23</v>
+      </c>
+      <c r="R14" t="n">
+        <v>17</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23</v>
+      </c>
+      <c r="T14" t="n">
+        <v>17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>11</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>897795</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897795.html</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>39</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="n">
+        <v>57</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>32</v>
+      </c>
+      <c r="T15" t="n">
+        <v>15</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>897787</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897787.html</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>28</v>
+      </c>
+      <c r="J16" t="n">
+        <v>31</v>
+      </c>
+      <c r="K16" t="n">
+        <v>59</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>24</v>
+      </c>
+      <c r="R16" t="n">
+        <v>15</v>
+      </c>
+      <c r="S16" t="n">
+        <v>12</v>
+      </c>
+      <c r="T16" t="n">
+        <v>16</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>897833</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897833.html</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>36</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>68</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>31</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>17</v>
+      </c>
+      <c r="T17" t="n">
+        <v>28</v>
+      </c>
+      <c r="U17" t="n">
+        <v>22</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28-11-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>897826</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897826.html</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="n">
+        <v>39</v>
+      </c>
+      <c r="K18" t="n">
+        <v>89</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>14</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>21</v>
+      </c>
+      <c r="U18" t="n">
+        <v>15</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26-11-2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>897816</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897816.html</t>
+  